--- a/TNR_PREJDD/PREJDD.RO.IMP.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.IMP.xlsx
@@ -365,7 +365,7 @@
     <t>IMP.RT.EQU.001.CRE.01</t>
   </si>
   <si>
-    <t>??? Attente MOE</t>
+    <t>$TBD</t>
   </si>
   <si>
     <t>$DATETIMESYS</t>

--- a/TNR_PREJDD/PREJDD.RO.IMP.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.IMP.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="1KLkA+9fC0MFz56Pc3x4S1K0n4bz6BiR6N1gTViVnEk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="/ATYWmfJFe/OoLeW7WBH971dsWvW34N9fVmZc2rvl4w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="169">
   <si>
     <t>Date</t>
   </si>
@@ -324,6 +324,111 @@
   </si>
   <si>
     <t>EQU1025</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.01</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.01</t>
+  </si>
+  <si>
+    <t>DIVERS 1026</t>
+  </si>
+  <si>
+    <t>EQU1026</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.02</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.02</t>
+  </si>
+  <si>
+    <t>DIVERS 1027</t>
+  </si>
+  <si>
+    <t>EQU1027</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.03</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.03</t>
+  </si>
+  <si>
+    <t>DIVERS 1028</t>
+  </si>
+  <si>
+    <t>EQU1028</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.CRE.04</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.CRE.04</t>
+  </si>
+  <si>
+    <t>DIVERS 1029</t>
+  </si>
+  <si>
+    <t>EQU1029</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.LEC.01</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.LEC.01</t>
+  </si>
+  <si>
+    <t>DIVERS 1030</t>
+  </si>
+  <si>
+    <t>EQU1030</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>IMP.UPD.RO.ORG.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>DIVERS 1031</t>
+  </si>
+  <si>
+    <t>EQU1031</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>DIVERS 1032</t>
+  </si>
+  <si>
+    <t>EQU1032</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.SUP.01</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.SUP.01</t>
+  </si>
+  <si>
+    <t>DIVERS 1033</t>
+  </si>
+  <si>
+    <t>EQU1033</t>
+  </si>
+  <si>
+    <t>RO.ORG.001.REC.01</t>
+  </si>
+  <si>
+    <t>IMP.RO.ORG.001.REC.01</t>
+  </si>
+  <si>
+    <t>DIVERS 1034</t>
+  </si>
+  <si>
+    <t>EQU1034</t>
   </si>
   <si>
     <t>CAS_DE_TEST (IMPARB)</t>
@@ -569,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -617,6 +722,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2009,7 +2120,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -2766,4864 +2880,5057 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="14" t="str">
+        <f>'001A'!H28</f>
+        <v>IMP.RO.ORG.001.CRE.01.........</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1026.0</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="A29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="14" t="str">
+        <f>'001A'!H29</f>
+        <v>IMP.RO.ORG.001.CRE.02.........</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1027.0</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="A30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="14" t="str">
+        <f>'001A'!H30</f>
+        <v>IMP.RO.ORG.001.CRE.03.........</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1028.0</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="A31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="14" t="str">
+        <f>'001A'!H31</f>
+        <v>IMP.RO.ORG.001.CRE.04.........</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1029.0</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="A32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="14" t="str">
+        <f>'001A'!H32</f>
+        <v>IMP.RO.ORG.001.LEC.01.........</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1030.0</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="A33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="14" t="str">
+        <f>'001A'!H33</f>
+        <v>IMP.UPD.RO.ORG.001.MAJ.01.....</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1031.0</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="A34" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="14" t="str">
+        <f>'001A'!H34</f>
+        <v>IMP.RO.ORG.001.MAJ.01.........</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1032.0</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="A35" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="14" t="str">
+        <f>'001A'!H35</f>
+        <v>IMP.RO.ORG.001.SUP.01.........</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1033.0</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="A36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="14" t="str">
+        <f>'001A'!H36</f>
+        <v>IMP.RO.ORG.001.REC.01.........</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1034.0</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="G40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="E42" s="22"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="A46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="A47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="A48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="G49" s="20"/>
+      <c r="A49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="A50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="A51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="A52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="A53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="A54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="A55" s="21"/>
+      <c r="E55" s="22"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="G56" s="20"/>
+      <c r="A56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="A59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="A60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="G63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="G64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="G65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="E65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="G66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="E66" s="22"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="E67" s="22"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="A68" s="21"/>
+      <c r="E68" s="22"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="A69" s="21"/>
+      <c r="E69" s="22"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="A70" s="21"/>
+      <c r="E70" s="22"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="G71" s="20"/>
+      <c r="A71" s="21"/>
+      <c r="E71" s="22"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="E72" s="20"/>
-      <c r="G72" s="20"/>
+      <c r="A72" s="21"/>
+      <c r="E72" s="22"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="E73" s="20"/>
-      <c r="G73" s="20"/>
+      <c r="A73" s="21"/>
+      <c r="E73" s="22"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="E74" s="20"/>
-      <c r="G74" s="20"/>
+      <c r="A74" s="21"/>
+      <c r="E74" s="22"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="E75" s="20"/>
-      <c r="G75" s="20"/>
+      <c r="A75" s="21"/>
+      <c r="E75" s="22"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="E76" s="20"/>
-      <c r="G76" s="20"/>
+      <c r="A76" s="21"/>
+      <c r="E76" s="22"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="19"/>
-      <c r="E77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="A77" s="21"/>
+      <c r="E77" s="22"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="19"/>
-      <c r="E78" s="20"/>
-      <c r="G78" s="20"/>
+      <c r="A78" s="21"/>
+      <c r="E78" s="22"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="E79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="A79" s="21"/>
+      <c r="E79" s="22"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="E80" s="20"/>
-      <c r="G80" s="20"/>
+      <c r="A80" s="21"/>
+      <c r="E80" s="22"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="E81" s="20"/>
-      <c r="G81" s="20"/>
+      <c r="A81" s="21"/>
+      <c r="E81" s="22"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="E82" s="20"/>
-      <c r="G82" s="20"/>
+      <c r="A82" s="21"/>
+      <c r="E82" s="22"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="E83" s="20"/>
-      <c r="G83" s="20"/>
+      <c r="A83" s="21"/>
+      <c r="E83" s="22"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="19"/>
-      <c r="E84" s="20"/>
-      <c r="G84" s="20"/>
+      <c r="A84" s="21"/>
+      <c r="E84" s="22"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="19"/>
-      <c r="E85" s="20"/>
-      <c r="G85" s="20"/>
+      <c r="A85" s="21"/>
+      <c r="E85" s="22"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="19"/>
-      <c r="E86" s="20"/>
-      <c r="G86" s="20"/>
+      <c r="A86" s="21"/>
+      <c r="E86" s="22"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="19"/>
-      <c r="E87" s="20"/>
-      <c r="G87" s="20"/>
+      <c r="A87" s="21"/>
+      <c r="E87" s="22"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="19"/>
-      <c r="E88" s="20"/>
-      <c r="G88" s="20"/>
+      <c r="A88" s="21"/>
+      <c r="E88" s="22"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="19"/>
-      <c r="E89" s="20"/>
-      <c r="G89" s="20"/>
+      <c r="A89" s="21"/>
+      <c r="E89" s="22"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="19"/>
-      <c r="E90" s="20"/>
-      <c r="G90" s="20"/>
+      <c r="A90" s="21"/>
+      <c r="E90" s="22"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="19"/>
-      <c r="E91" s="20"/>
-      <c r="G91" s="20"/>
+      <c r="A91" s="21"/>
+      <c r="E91" s="22"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="19"/>
-      <c r="E92" s="20"/>
-      <c r="G92" s="20"/>
+      <c r="A92" s="21"/>
+      <c r="E92" s="22"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="19"/>
-      <c r="E93" s="20"/>
-      <c r="G93" s="20"/>
+      <c r="A93" s="21"/>
+      <c r="E93" s="22"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="19"/>
-      <c r="E94" s="20"/>
-      <c r="G94" s="20"/>
+      <c r="A94" s="21"/>
+      <c r="E94" s="22"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="19"/>
-      <c r="E95" s="20"/>
-      <c r="G95" s="20"/>
+      <c r="A95" s="21"/>
+      <c r="E95" s="22"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="19"/>
-      <c r="E96" s="20"/>
-      <c r="G96" s="20"/>
+      <c r="A96" s="21"/>
+      <c r="E96" s="22"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="19"/>
-      <c r="E97" s="20"/>
-      <c r="G97" s="20"/>
+      <c r="A97" s="21"/>
+      <c r="E97" s="22"/>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="19"/>
-      <c r="E98" s="20"/>
-      <c r="G98" s="20"/>
+      <c r="A98" s="21"/>
+      <c r="E98" s="22"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="19"/>
-      <c r="E99" s="20"/>
-      <c r="G99" s="20"/>
+      <c r="A99" s="21"/>
+      <c r="E99" s="22"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="19"/>
-      <c r="E100" s="20"/>
-      <c r="G100" s="20"/>
+      <c r="A100" s="21"/>
+      <c r="E100" s="22"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="19"/>
-      <c r="E101" s="20"/>
-      <c r="G101" s="20"/>
+      <c r="A101" s="21"/>
+      <c r="E101" s="22"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="19"/>
-      <c r="E102" s="20"/>
-      <c r="G102" s="20"/>
+      <c r="A102" s="21"/>
+      <c r="E102" s="22"/>
+      <c r="G102" s="22"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="19"/>
-      <c r="E103" s="20"/>
-      <c r="G103" s="20"/>
+      <c r="A103" s="21"/>
+      <c r="E103" s="22"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="19"/>
-      <c r="E104" s="20"/>
-      <c r="G104" s="20"/>
+      <c r="A104" s="21"/>
+      <c r="E104" s="22"/>
+      <c r="G104" s="22"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="19"/>
-      <c r="E105" s="20"/>
-      <c r="G105" s="20"/>
+      <c r="A105" s="21"/>
+      <c r="E105" s="22"/>
+      <c r="G105" s="22"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="19"/>
-      <c r="E106" s="20"/>
-      <c r="G106" s="20"/>
+      <c r="A106" s="21"/>
+      <c r="E106" s="22"/>
+      <c r="G106" s="22"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="19"/>
-      <c r="E107" s="20"/>
-      <c r="G107" s="20"/>
+      <c r="A107" s="21"/>
+      <c r="E107" s="22"/>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="19"/>
-      <c r="E108" s="20"/>
-      <c r="G108" s="20"/>
+      <c r="A108" s="21"/>
+      <c r="E108" s="22"/>
+      <c r="G108" s="22"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="19"/>
-      <c r="E109" s="20"/>
-      <c r="G109" s="20"/>
+      <c r="A109" s="21"/>
+      <c r="E109" s="22"/>
+      <c r="G109" s="22"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="19"/>
-      <c r="E110" s="20"/>
-      <c r="G110" s="20"/>
+      <c r="A110" s="21"/>
+      <c r="E110" s="22"/>
+      <c r="G110" s="22"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="19"/>
-      <c r="E111" s="20"/>
-      <c r="G111" s="20"/>
+      <c r="A111" s="21"/>
+      <c r="E111" s="22"/>
+      <c r="G111" s="22"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="19"/>
-      <c r="E112" s="20"/>
-      <c r="G112" s="20"/>
+      <c r="A112" s="21"/>
+      <c r="E112" s="22"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="19"/>
-      <c r="E113" s="20"/>
-      <c r="G113" s="20"/>
+      <c r="A113" s="21"/>
+      <c r="E113" s="22"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="19"/>
-      <c r="E114" s="20"/>
-      <c r="G114" s="20"/>
+      <c r="A114" s="21"/>
+      <c r="E114" s="22"/>
+      <c r="G114" s="22"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="19"/>
-      <c r="E115" s="20"/>
-      <c r="G115" s="20"/>
+      <c r="A115" s="21"/>
+      <c r="E115" s="22"/>
+      <c r="G115" s="22"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="19"/>
-      <c r="E116" s="20"/>
-      <c r="G116" s="20"/>
+      <c r="A116" s="21"/>
+      <c r="E116" s="22"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="19"/>
-      <c r="E117" s="20"/>
-      <c r="G117" s="20"/>
+      <c r="A117" s="21"/>
+      <c r="E117" s="22"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="19"/>
-      <c r="E118" s="20"/>
-      <c r="G118" s="20"/>
+      <c r="A118" s="21"/>
+      <c r="E118" s="22"/>
+      <c r="G118" s="22"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="19"/>
-      <c r="E119" s="20"/>
-      <c r="G119" s="20"/>
+      <c r="A119" s="21"/>
+      <c r="E119" s="22"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="19"/>
-      <c r="E120" s="20"/>
-      <c r="G120" s="20"/>
+      <c r="A120" s="21"/>
+      <c r="E120" s="22"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="19"/>
-      <c r="E121" s="20"/>
-      <c r="G121" s="20"/>
+      <c r="A121" s="21"/>
+      <c r="E121" s="22"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="19"/>
-      <c r="E122" s="20"/>
-      <c r="G122" s="20"/>
+      <c r="A122" s="21"/>
+      <c r="E122" s="22"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="19"/>
-      <c r="E123" s="20"/>
-      <c r="G123" s="20"/>
+      <c r="A123" s="21"/>
+      <c r="E123" s="22"/>
+      <c r="G123" s="22"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="19"/>
-      <c r="E124" s="20"/>
-      <c r="G124" s="20"/>
+      <c r="A124" s="21"/>
+      <c r="E124" s="22"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="19"/>
-      <c r="E125" s="20"/>
-      <c r="G125" s="20"/>
+      <c r="A125" s="21"/>
+      <c r="E125" s="22"/>
+      <c r="G125" s="22"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="19"/>
-      <c r="E126" s="20"/>
-      <c r="G126" s="20"/>
+      <c r="A126" s="21"/>
+      <c r="E126" s="22"/>
+      <c r="G126" s="22"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="19"/>
-      <c r="E127" s="20"/>
-      <c r="G127" s="20"/>
+      <c r="A127" s="21"/>
+      <c r="E127" s="22"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="19"/>
-      <c r="E128" s="20"/>
-      <c r="G128" s="20"/>
+      <c r="A128" s="21"/>
+      <c r="E128" s="22"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="19"/>
-      <c r="E129" s="20"/>
-      <c r="G129" s="20"/>
+      <c r="A129" s="21"/>
+      <c r="E129" s="22"/>
+      <c r="G129" s="22"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="19"/>
-      <c r="E130" s="20"/>
-      <c r="G130" s="20"/>
+      <c r="A130" s="21"/>
+      <c r="E130" s="22"/>
+      <c r="G130" s="22"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="19"/>
-      <c r="E131" s="20"/>
-      <c r="G131" s="20"/>
+      <c r="A131" s="21"/>
+      <c r="E131" s="22"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="19"/>
-      <c r="E132" s="20"/>
-      <c r="G132" s="20"/>
+      <c r="A132" s="21"/>
+      <c r="E132" s="22"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="19"/>
-      <c r="E133" s="20"/>
-      <c r="G133" s="20"/>
+      <c r="A133" s="21"/>
+      <c r="E133" s="22"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="19"/>
-      <c r="E134" s="20"/>
-      <c r="G134" s="20"/>
+      <c r="A134" s="21"/>
+      <c r="E134" s="22"/>
+      <c r="G134" s="22"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="19"/>
-      <c r="E135" s="20"/>
-      <c r="G135" s="20"/>
+      <c r="A135" s="21"/>
+      <c r="E135" s="22"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="19"/>
-      <c r="E136" s="20"/>
-      <c r="G136" s="20"/>
+      <c r="A136" s="21"/>
+      <c r="E136" s="22"/>
+      <c r="G136" s="22"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="19"/>
-      <c r="E137" s="20"/>
-      <c r="G137" s="20"/>
+      <c r="A137" s="21"/>
+      <c r="E137" s="22"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="19"/>
-      <c r="E138" s="20"/>
-      <c r="G138" s="20"/>
+      <c r="A138" s="21"/>
+      <c r="E138" s="22"/>
+      <c r="G138" s="22"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="19"/>
-      <c r="E139" s="20"/>
-      <c r="G139" s="20"/>
+      <c r="A139" s="21"/>
+      <c r="E139" s="22"/>
+      <c r="G139" s="22"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="19"/>
-      <c r="E140" s="20"/>
-      <c r="G140" s="20"/>
+      <c r="A140" s="21"/>
+      <c r="E140" s="22"/>
+      <c r="G140" s="22"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="19"/>
-      <c r="E141" s="20"/>
-      <c r="G141" s="20"/>
+      <c r="A141" s="21"/>
+      <c r="E141" s="22"/>
+      <c r="G141" s="22"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="19"/>
-      <c r="E142" s="20"/>
-      <c r="G142" s="20"/>
+      <c r="A142" s="21"/>
+      <c r="E142" s="22"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="19"/>
-      <c r="E143" s="20"/>
-      <c r="G143" s="20"/>
+      <c r="A143" s="21"/>
+      <c r="E143" s="22"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="19"/>
-      <c r="E144" s="20"/>
-      <c r="G144" s="20"/>
+      <c r="A144" s="21"/>
+      <c r="E144" s="22"/>
+      <c r="G144" s="22"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="19"/>
-      <c r="E145" s="20"/>
-      <c r="G145" s="20"/>
+      <c r="A145" s="21"/>
+      <c r="E145" s="22"/>
+      <c r="G145" s="22"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="19"/>
-      <c r="E146" s="20"/>
-      <c r="G146" s="20"/>
+      <c r="A146" s="21"/>
+      <c r="E146" s="22"/>
+      <c r="G146" s="22"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="19"/>
-      <c r="E147" s="20"/>
-      <c r="G147" s="20"/>
+      <c r="A147" s="21"/>
+      <c r="E147" s="22"/>
+      <c r="G147" s="22"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="19"/>
-      <c r="E148" s="20"/>
-      <c r="G148" s="20"/>
+      <c r="A148" s="21"/>
+      <c r="E148" s="22"/>
+      <c r="G148" s="22"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="19"/>
-      <c r="E149" s="20"/>
-      <c r="G149" s="20"/>
+      <c r="A149" s="21"/>
+      <c r="E149" s="22"/>
+      <c r="G149" s="22"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="19"/>
-      <c r="E150" s="20"/>
-      <c r="G150" s="20"/>
+      <c r="A150" s="21"/>
+      <c r="E150" s="22"/>
+      <c r="G150" s="22"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="19"/>
-      <c r="E151" s="20"/>
-      <c r="G151" s="20"/>
+      <c r="A151" s="21"/>
+      <c r="E151" s="22"/>
+      <c r="G151" s="22"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="19"/>
-      <c r="E152" s="20"/>
-      <c r="G152" s="20"/>
+      <c r="A152" s="21"/>
+      <c r="E152" s="22"/>
+      <c r="G152" s="22"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="19"/>
-      <c r="E153" s="20"/>
-      <c r="G153" s="20"/>
+      <c r="A153" s="21"/>
+      <c r="E153" s="22"/>
+      <c r="G153" s="22"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="19"/>
-      <c r="E154" s="20"/>
-      <c r="G154" s="20"/>
+      <c r="A154" s="21"/>
+      <c r="E154" s="22"/>
+      <c r="G154" s="22"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="19"/>
-      <c r="E155" s="20"/>
-      <c r="G155" s="20"/>
+      <c r="A155" s="21"/>
+      <c r="E155" s="22"/>
+      <c r="G155" s="22"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="19"/>
-      <c r="E156" s="20"/>
-      <c r="G156" s="20"/>
+      <c r="A156" s="21"/>
+      <c r="E156" s="22"/>
+      <c r="G156" s="22"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="19"/>
-      <c r="E157" s="20"/>
-      <c r="G157" s="20"/>
+      <c r="A157" s="21"/>
+      <c r="E157" s="22"/>
+      <c r="G157" s="22"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="19"/>
-      <c r="E158" s="20"/>
-      <c r="G158" s="20"/>
+      <c r="A158" s="21"/>
+      <c r="E158" s="22"/>
+      <c r="G158" s="22"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="19"/>
-      <c r="E159" s="20"/>
-      <c r="G159" s="20"/>
+      <c r="A159" s="21"/>
+      <c r="E159" s="22"/>
+      <c r="G159" s="22"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="19"/>
-      <c r="E160" s="20"/>
-      <c r="G160" s="20"/>
+      <c r="A160" s="21"/>
+      <c r="E160" s="22"/>
+      <c r="G160" s="22"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="19"/>
-      <c r="E161" s="20"/>
-      <c r="G161" s="20"/>
+      <c r="A161" s="21"/>
+      <c r="E161" s="22"/>
+      <c r="G161" s="22"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="19"/>
-      <c r="E162" s="20"/>
-      <c r="G162" s="20"/>
+      <c r="A162" s="21"/>
+      <c r="E162" s="22"/>
+      <c r="G162" s="22"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="19"/>
-      <c r="E163" s="20"/>
-      <c r="G163" s="20"/>
+      <c r="A163" s="21"/>
+      <c r="E163" s="22"/>
+      <c r="G163" s="22"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="19"/>
-      <c r="E164" s="20"/>
-      <c r="G164" s="20"/>
+      <c r="A164" s="21"/>
+      <c r="E164" s="22"/>
+      <c r="G164" s="22"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="19"/>
-      <c r="E165" s="20"/>
-      <c r="G165" s="20"/>
+      <c r="A165" s="21"/>
+      <c r="E165" s="22"/>
+      <c r="G165" s="22"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="19"/>
-      <c r="E166" s="20"/>
-      <c r="G166" s="20"/>
+      <c r="A166" s="21"/>
+      <c r="E166" s="22"/>
+      <c r="G166" s="22"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="19"/>
-      <c r="E167" s="20"/>
-      <c r="G167" s="20"/>
+      <c r="A167" s="21"/>
+      <c r="E167" s="22"/>
+      <c r="G167" s="22"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="19"/>
-      <c r="E168" s="20"/>
-      <c r="G168" s="20"/>
+      <c r="A168" s="21"/>
+      <c r="E168" s="22"/>
+      <c r="G168" s="22"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="19"/>
-      <c r="E169" s="20"/>
-      <c r="G169" s="20"/>
+      <c r="A169" s="21"/>
+      <c r="E169" s="22"/>
+      <c r="G169" s="22"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="19"/>
-      <c r="E170" s="20"/>
-      <c r="G170" s="20"/>
+      <c r="A170" s="21"/>
+      <c r="E170" s="22"/>
+      <c r="G170" s="22"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="19"/>
-      <c r="E171" s="20"/>
-      <c r="G171" s="20"/>
+      <c r="A171" s="21"/>
+      <c r="E171" s="22"/>
+      <c r="G171" s="22"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="19"/>
-      <c r="E172" s="20"/>
-      <c r="G172" s="20"/>
+      <c r="A172" s="21"/>
+      <c r="E172" s="22"/>
+      <c r="G172" s="22"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="19"/>
-      <c r="E173" s="20"/>
-      <c r="G173" s="20"/>
+      <c r="A173" s="21"/>
+      <c r="E173" s="22"/>
+      <c r="G173" s="22"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="19"/>
-      <c r="E174" s="20"/>
-      <c r="G174" s="20"/>
+      <c r="A174" s="21"/>
+      <c r="E174" s="22"/>
+      <c r="G174" s="22"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="19"/>
-      <c r="E175" s="20"/>
-      <c r="G175" s="20"/>
+      <c r="A175" s="21"/>
+      <c r="E175" s="22"/>
+      <c r="G175" s="22"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="19"/>
-      <c r="E176" s="20"/>
-      <c r="G176" s="20"/>
+      <c r="A176" s="21"/>
+      <c r="E176" s="22"/>
+      <c r="G176" s="22"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="19"/>
-      <c r="E177" s="20"/>
-      <c r="G177" s="20"/>
+      <c r="A177" s="21"/>
+      <c r="E177" s="22"/>
+      <c r="G177" s="22"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="19"/>
-      <c r="E178" s="20"/>
-      <c r="G178" s="20"/>
+      <c r="A178" s="21"/>
+      <c r="E178" s="22"/>
+      <c r="G178" s="22"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="19"/>
-      <c r="E179" s="20"/>
-      <c r="G179" s="20"/>
+      <c r="A179" s="21"/>
+      <c r="E179" s="22"/>
+      <c r="G179" s="22"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="19"/>
-      <c r="E180" s="20"/>
-      <c r="G180" s="20"/>
+      <c r="A180" s="21"/>
+      <c r="E180" s="22"/>
+      <c r="G180" s="22"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="19"/>
-      <c r="E181" s="20"/>
-      <c r="G181" s="20"/>
+      <c r="A181" s="21"/>
+      <c r="E181" s="22"/>
+      <c r="G181" s="22"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="19"/>
-      <c r="E182" s="20"/>
-      <c r="G182" s="20"/>
+      <c r="A182" s="21"/>
+      <c r="E182" s="22"/>
+      <c r="G182" s="22"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="19"/>
-      <c r="E183" s="20"/>
-      <c r="G183" s="20"/>
+      <c r="A183" s="21"/>
+      <c r="E183" s="22"/>
+      <c r="G183" s="22"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="19"/>
-      <c r="E184" s="20"/>
-      <c r="G184" s="20"/>
+      <c r="A184" s="21"/>
+      <c r="E184" s="22"/>
+      <c r="G184" s="22"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="19"/>
-      <c r="E185" s="20"/>
-      <c r="G185" s="20"/>
+      <c r="A185" s="21"/>
+      <c r="E185" s="22"/>
+      <c r="G185" s="22"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="19"/>
-      <c r="E186" s="20"/>
-      <c r="G186" s="20"/>
+      <c r="A186" s="21"/>
+      <c r="E186" s="22"/>
+      <c r="G186" s="22"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="19"/>
-      <c r="E187" s="20"/>
-      <c r="G187" s="20"/>
+      <c r="A187" s="21"/>
+      <c r="E187" s="22"/>
+      <c r="G187" s="22"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="19"/>
-      <c r="E188" s="20"/>
-      <c r="G188" s="20"/>
+      <c r="A188" s="21"/>
+      <c r="E188" s="22"/>
+      <c r="G188" s="22"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="19"/>
-      <c r="E189" s="20"/>
-      <c r="G189" s="20"/>
+      <c r="A189" s="21"/>
+      <c r="E189" s="22"/>
+      <c r="G189" s="22"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="19"/>
-      <c r="E190" s="20"/>
-      <c r="G190" s="20"/>
+      <c r="A190" s="21"/>
+      <c r="E190" s="22"/>
+      <c r="G190" s="22"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="19"/>
-      <c r="E191" s="20"/>
-      <c r="G191" s="20"/>
+      <c r="A191" s="21"/>
+      <c r="E191" s="22"/>
+      <c r="G191" s="22"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="19"/>
-      <c r="E192" s="20"/>
-      <c r="G192" s="20"/>
+      <c r="A192" s="21"/>
+      <c r="E192" s="22"/>
+      <c r="G192" s="22"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="19"/>
-      <c r="E193" s="20"/>
-      <c r="G193" s="20"/>
+      <c r="A193" s="21"/>
+      <c r="E193" s="22"/>
+      <c r="G193" s="22"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="19"/>
-      <c r="E194" s="20"/>
-      <c r="G194" s="20"/>
+      <c r="A194" s="21"/>
+      <c r="E194" s="22"/>
+      <c r="G194" s="22"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="19"/>
-      <c r="E195" s="20"/>
-      <c r="G195" s="20"/>
+      <c r="A195" s="21"/>
+      <c r="E195" s="22"/>
+      <c r="G195" s="22"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="19"/>
-      <c r="E196" s="20"/>
-      <c r="G196" s="20"/>
+      <c r="A196" s="21"/>
+      <c r="E196" s="22"/>
+      <c r="G196" s="22"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="19"/>
-      <c r="E197" s="20"/>
-      <c r="G197" s="20"/>
+      <c r="A197" s="21"/>
+      <c r="E197" s="22"/>
+      <c r="G197" s="22"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="19"/>
-      <c r="E198" s="20"/>
-      <c r="G198" s="20"/>
+      <c r="A198" s="21"/>
+      <c r="E198" s="22"/>
+      <c r="G198" s="22"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="19"/>
-      <c r="E199" s="20"/>
-      <c r="G199" s="20"/>
+      <c r="A199" s="21"/>
+      <c r="E199" s="22"/>
+      <c r="G199" s="22"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="19"/>
-      <c r="E200" s="20"/>
-      <c r="G200" s="20"/>
+      <c r="A200" s="21"/>
+      <c r="E200" s="22"/>
+      <c r="G200" s="22"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="19"/>
-      <c r="E201" s="20"/>
-      <c r="G201" s="20"/>
+      <c r="A201" s="21"/>
+      <c r="E201" s="22"/>
+      <c r="G201" s="22"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="19"/>
-      <c r="E202" s="20"/>
-      <c r="G202" s="20"/>
+      <c r="A202" s="21"/>
+      <c r="E202" s="22"/>
+      <c r="G202" s="22"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="19"/>
-      <c r="E203" s="20"/>
-      <c r="G203" s="20"/>
+      <c r="A203" s="21"/>
+      <c r="E203" s="22"/>
+      <c r="G203" s="22"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="19"/>
-      <c r="E204" s="20"/>
-      <c r="G204" s="20"/>
+      <c r="A204" s="21"/>
+      <c r="E204" s="22"/>
+      <c r="G204" s="22"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="19"/>
-      <c r="E205" s="20"/>
-      <c r="G205" s="20"/>
+      <c r="A205" s="21"/>
+      <c r="E205" s="22"/>
+      <c r="G205" s="22"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="19"/>
-      <c r="E206" s="20"/>
-      <c r="G206" s="20"/>
+      <c r="A206" s="21"/>
+      <c r="E206" s="22"/>
+      <c r="G206" s="22"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="19"/>
-      <c r="E207" s="20"/>
-      <c r="G207" s="20"/>
+      <c r="A207" s="21"/>
+      <c r="E207" s="22"/>
+      <c r="G207" s="22"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="19"/>
-      <c r="E208" s="20"/>
-      <c r="G208" s="20"/>
+      <c r="A208" s="21"/>
+      <c r="E208" s="22"/>
+      <c r="G208" s="22"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="19"/>
-      <c r="E209" s="20"/>
-      <c r="G209" s="20"/>
+      <c r="A209" s="21"/>
+      <c r="E209" s="22"/>
+      <c r="G209" s="22"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="19"/>
-      <c r="E210" s="20"/>
-      <c r="G210" s="20"/>
+      <c r="A210" s="21"/>
+      <c r="E210" s="22"/>
+      <c r="G210" s="22"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="19"/>
-      <c r="E211" s="20"/>
-      <c r="G211" s="20"/>
+      <c r="A211" s="21"/>
+      <c r="E211" s="22"/>
+      <c r="G211" s="22"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="19"/>
-      <c r="E212" s="20"/>
-      <c r="G212" s="20"/>
+      <c r="A212" s="21"/>
+      <c r="E212" s="22"/>
+      <c r="G212" s="22"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="19"/>
-      <c r="E213" s="20"/>
-      <c r="G213" s="20"/>
+      <c r="A213" s="21"/>
+      <c r="E213" s="22"/>
+      <c r="G213" s="22"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="19"/>
-      <c r="E214" s="20"/>
-      <c r="G214" s="20"/>
+      <c r="A214" s="21"/>
+      <c r="E214" s="22"/>
+      <c r="G214" s="22"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="19"/>
-      <c r="E215" s="20"/>
-      <c r="G215" s="20"/>
+      <c r="A215" s="21"/>
+      <c r="E215" s="22"/>
+      <c r="G215" s="22"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="19"/>
-      <c r="E216" s="20"/>
-      <c r="G216" s="20"/>
+      <c r="A216" s="21"/>
+      <c r="E216" s="22"/>
+      <c r="G216" s="22"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="19"/>
-      <c r="E217" s="20"/>
-      <c r="G217" s="20"/>
+      <c r="A217" s="21"/>
+      <c r="E217" s="22"/>
+      <c r="G217" s="22"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="19"/>
-      <c r="E218" s="20"/>
-      <c r="G218" s="20"/>
+      <c r="A218" s="21"/>
+      <c r="E218" s="22"/>
+      <c r="G218" s="22"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="19"/>
-      <c r="E219" s="20"/>
-      <c r="G219" s="20"/>
+      <c r="A219" s="21"/>
+      <c r="E219" s="22"/>
+      <c r="G219" s="22"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="19"/>
-      <c r="E220" s="20"/>
-      <c r="G220" s="20"/>
+      <c r="A220" s="21"/>
+      <c r="E220" s="22"/>
+      <c r="G220" s="22"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="19"/>
-      <c r="E221" s="20"/>
-      <c r="G221" s="20"/>
+      <c r="A221" s="21"/>
+      <c r="E221" s="22"/>
+      <c r="G221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="19"/>
-      <c r="E222" s="20"/>
-      <c r="G222" s="20"/>
+      <c r="A222" s="21"/>
+      <c r="E222" s="22"/>
+      <c r="G222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="19"/>
-      <c r="E223" s="20"/>
-      <c r="G223" s="20"/>
+      <c r="A223" s="21"/>
+      <c r="E223" s="22"/>
+      <c r="G223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="19"/>
-      <c r="E224" s="20"/>
-      <c r="G224" s="20"/>
+      <c r="A224" s="21"/>
+      <c r="E224" s="22"/>
+      <c r="G224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="19"/>
-      <c r="E225" s="20"/>
-      <c r="G225" s="20"/>
+      <c r="A225" s="21"/>
+      <c r="E225" s="22"/>
+      <c r="G225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="19"/>
-      <c r="E226" s="20"/>
-      <c r="G226" s="20"/>
+      <c r="A226" s="21"/>
+      <c r="E226" s="22"/>
+      <c r="G226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="19"/>
-      <c r="E227" s="20"/>
-      <c r="G227" s="20"/>
+      <c r="A227" s="21"/>
+      <c r="E227" s="22"/>
+      <c r="G227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="19"/>
-      <c r="E228" s="20"/>
-      <c r="G228" s="20"/>
+      <c r="A228" s="21"/>
+      <c r="E228" s="22"/>
+      <c r="G228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="19"/>
-      <c r="E229" s="20"/>
-      <c r="G229" s="20"/>
+      <c r="A229" s="21"/>
+      <c r="E229" s="22"/>
+      <c r="G229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="19"/>
-      <c r="E230" s="20"/>
-      <c r="G230" s="20"/>
+      <c r="A230" s="21"/>
+      <c r="E230" s="22"/>
+      <c r="G230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="19"/>
-      <c r="E231" s="20"/>
-      <c r="G231" s="20"/>
+      <c r="A231" s="21"/>
+      <c r="E231" s="22"/>
+      <c r="G231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="19"/>
-      <c r="E232" s="20"/>
-      <c r="G232" s="20"/>
+      <c r="A232" s="21"/>
+      <c r="E232" s="22"/>
+      <c r="G232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="19"/>
-      <c r="E233" s="20"/>
-      <c r="G233" s="20"/>
+      <c r="A233" s="21"/>
+      <c r="E233" s="22"/>
+      <c r="G233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="19"/>
-      <c r="E234" s="20"/>
-      <c r="G234" s="20"/>
+      <c r="A234" s="21"/>
+      <c r="E234" s="22"/>
+      <c r="G234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="19"/>
-      <c r="E235" s="20"/>
-      <c r="G235" s="20"/>
+      <c r="A235" s="21"/>
+      <c r="E235" s="22"/>
+      <c r="G235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="19"/>
-      <c r="E236" s="20"/>
-      <c r="G236" s="20"/>
+      <c r="A236" s="21"/>
+      <c r="E236" s="22"/>
+      <c r="G236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="19"/>
-      <c r="E237" s="20"/>
-      <c r="G237" s="20"/>
+      <c r="A237" s="21"/>
+      <c r="E237" s="22"/>
+      <c r="G237" s="22"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="19"/>
-      <c r="E238" s="20"/>
-      <c r="G238" s="20"/>
+      <c r="A238" s="21"/>
+      <c r="E238" s="22"/>
+      <c r="G238" s="22"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="19"/>
-      <c r="E239" s="20"/>
-      <c r="G239" s="20"/>
+      <c r="A239" s="21"/>
+      <c r="E239" s="22"/>
+      <c r="G239" s="22"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="19"/>
-      <c r="E240" s="20"/>
-      <c r="G240" s="20"/>
+      <c r="A240" s="21"/>
+      <c r="E240" s="22"/>
+      <c r="G240" s="22"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="19"/>
-      <c r="E241" s="20"/>
-      <c r="G241" s="20"/>
+      <c r="A241" s="21"/>
+      <c r="E241" s="22"/>
+      <c r="G241" s="22"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="19"/>
-      <c r="E242" s="20"/>
-      <c r="G242" s="20"/>
+      <c r="A242" s="21"/>
+      <c r="E242" s="22"/>
+      <c r="G242" s="22"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="19"/>
-      <c r="E243" s="20"/>
-      <c r="G243" s="20"/>
+      <c r="A243" s="21"/>
+      <c r="E243" s="22"/>
+      <c r="G243" s="22"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="19"/>
-      <c r="E244" s="20"/>
-      <c r="G244" s="20"/>
+      <c r="A244" s="21"/>
+      <c r="E244" s="22"/>
+      <c r="G244" s="22"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="19"/>
-      <c r="E245" s="20"/>
-      <c r="G245" s="20"/>
+      <c r="A245" s="21"/>
+      <c r="E245" s="22"/>
+      <c r="G245" s="22"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="19"/>
-      <c r="E246" s="20"/>
-      <c r="G246" s="20"/>
+      <c r="A246" s="21"/>
+      <c r="E246" s="22"/>
+      <c r="G246" s="22"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="19"/>
-      <c r="E247" s="20"/>
-      <c r="G247" s="20"/>
+      <c r="A247" s="21"/>
+      <c r="E247" s="22"/>
+      <c r="G247" s="22"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="19"/>
-      <c r="E248" s="20"/>
-      <c r="G248" s="20"/>
+      <c r="A248" s="21"/>
+      <c r="E248" s="22"/>
+      <c r="G248" s="22"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="19"/>
-      <c r="E249" s="20"/>
-      <c r="G249" s="20"/>
+      <c r="A249" s="21"/>
+      <c r="E249" s="22"/>
+      <c r="G249" s="22"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="19"/>
-      <c r="E250" s="20"/>
-      <c r="G250" s="20"/>
+      <c r="A250" s="21"/>
+      <c r="E250" s="22"/>
+      <c r="G250" s="22"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="19"/>
-      <c r="E251" s="20"/>
-      <c r="G251" s="20"/>
+      <c r="A251" s="21"/>
+      <c r="E251" s="22"/>
+      <c r="G251" s="22"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="19"/>
-      <c r="E252" s="20"/>
-      <c r="G252" s="20"/>
+      <c r="A252" s="21"/>
+      <c r="E252" s="22"/>
+      <c r="G252" s="22"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="19"/>
-      <c r="E253" s="20"/>
-      <c r="G253" s="20"/>
+      <c r="A253" s="21"/>
+      <c r="E253" s="22"/>
+      <c r="G253" s="22"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="19"/>
-      <c r="E254" s="20"/>
-      <c r="G254" s="20"/>
+      <c r="A254" s="21"/>
+      <c r="E254" s="22"/>
+      <c r="G254" s="22"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="19"/>
-      <c r="E255" s="20"/>
-      <c r="G255" s="20"/>
+      <c r="A255" s="21"/>
+      <c r="E255" s="22"/>
+      <c r="G255" s="22"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="19"/>
-      <c r="E256" s="20"/>
-      <c r="G256" s="20"/>
+      <c r="A256" s="21"/>
+      <c r="E256" s="22"/>
+      <c r="G256" s="22"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="19"/>
-      <c r="E257" s="20"/>
-      <c r="G257" s="20"/>
+      <c r="A257" s="21"/>
+      <c r="E257" s="22"/>
+      <c r="G257" s="22"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="19"/>
-      <c r="E258" s="20"/>
-      <c r="G258" s="20"/>
+      <c r="A258" s="21"/>
+      <c r="E258" s="22"/>
+      <c r="G258" s="22"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="19"/>
-      <c r="E259" s="20"/>
-      <c r="G259" s="20"/>
+      <c r="A259" s="21"/>
+      <c r="E259" s="22"/>
+      <c r="G259" s="22"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="19"/>
-      <c r="E260" s="20"/>
-      <c r="G260" s="20"/>
+      <c r="A260" s="21"/>
+      <c r="E260" s="22"/>
+      <c r="G260" s="22"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="19"/>
-      <c r="E261" s="20"/>
-      <c r="G261" s="20"/>
+      <c r="A261" s="21"/>
+      <c r="E261" s="22"/>
+      <c r="G261" s="22"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="19"/>
-      <c r="E262" s="20"/>
-      <c r="G262" s="20"/>
+      <c r="A262" s="21"/>
+      <c r="E262" s="22"/>
+      <c r="G262" s="22"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="19"/>
-      <c r="E263" s="20"/>
-      <c r="G263" s="20"/>
+      <c r="A263" s="21"/>
+      <c r="E263" s="22"/>
+      <c r="G263" s="22"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="19"/>
-      <c r="E264" s="20"/>
-      <c r="G264" s="20"/>
+      <c r="A264" s="21"/>
+      <c r="E264" s="22"/>
+      <c r="G264" s="22"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="19"/>
-      <c r="E265" s="20"/>
-      <c r="G265" s="20"/>
+      <c r="A265" s="21"/>
+      <c r="E265" s="22"/>
+      <c r="G265" s="22"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="19"/>
-      <c r="E266" s="20"/>
-      <c r="G266" s="20"/>
+      <c r="A266" s="21"/>
+      <c r="E266" s="22"/>
+      <c r="G266" s="22"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="19"/>
-      <c r="E267" s="20"/>
-      <c r="G267" s="20"/>
+      <c r="A267" s="21"/>
+      <c r="E267" s="22"/>
+      <c r="G267" s="22"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="19"/>
-      <c r="E268" s="20"/>
-      <c r="G268" s="20"/>
+      <c r="A268" s="21"/>
+      <c r="E268" s="22"/>
+      <c r="G268" s="22"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="19"/>
-      <c r="E269" s="20"/>
-      <c r="G269" s="20"/>
+      <c r="A269" s="21"/>
+      <c r="E269" s="22"/>
+      <c r="G269" s="22"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="19"/>
-      <c r="E270" s="20"/>
-      <c r="G270" s="20"/>
+      <c r="A270" s="21"/>
+      <c r="E270" s="22"/>
+      <c r="G270" s="22"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="19"/>
-      <c r="E271" s="20"/>
-      <c r="G271" s="20"/>
+      <c r="A271" s="21"/>
+      <c r="E271" s="22"/>
+      <c r="G271" s="22"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="19"/>
-      <c r="E272" s="20"/>
-      <c r="G272" s="20"/>
+      <c r="A272" s="21"/>
+      <c r="E272" s="22"/>
+      <c r="G272" s="22"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="19"/>
-      <c r="E273" s="20"/>
-      <c r="G273" s="20"/>
+      <c r="A273" s="21"/>
+      <c r="E273" s="22"/>
+      <c r="G273" s="22"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="19"/>
-      <c r="E274" s="20"/>
-      <c r="G274" s="20"/>
+      <c r="A274" s="21"/>
+      <c r="E274" s="22"/>
+      <c r="G274" s="22"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="19"/>
-      <c r="E275" s="20"/>
-      <c r="G275" s="20"/>
+      <c r="A275" s="21"/>
+      <c r="E275" s="22"/>
+      <c r="G275" s="22"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="19"/>
-      <c r="E276" s="20"/>
-      <c r="G276" s="20"/>
+      <c r="A276" s="21"/>
+      <c r="E276" s="22"/>
+      <c r="G276" s="22"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="19"/>
-      <c r="E277" s="20"/>
-      <c r="G277" s="20"/>
+      <c r="A277" s="21"/>
+      <c r="E277" s="22"/>
+      <c r="G277" s="22"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="19"/>
-      <c r="E278" s="20"/>
-      <c r="G278" s="20"/>
+      <c r="A278" s="21"/>
+      <c r="E278" s="22"/>
+      <c r="G278" s="22"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="19"/>
-      <c r="E279" s="20"/>
-      <c r="G279" s="20"/>
+      <c r="A279" s="21"/>
+      <c r="E279" s="22"/>
+      <c r="G279" s="22"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="19"/>
-      <c r="E280" s="20"/>
-      <c r="G280" s="20"/>
+      <c r="A280" s="21"/>
+      <c r="E280" s="22"/>
+      <c r="G280" s="22"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="19"/>
-      <c r="E281" s="20"/>
-      <c r="G281" s="20"/>
+      <c r="A281" s="21"/>
+      <c r="E281" s="22"/>
+      <c r="G281" s="22"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="19"/>
-      <c r="E282" s="20"/>
-      <c r="G282" s="20"/>
+      <c r="A282" s="21"/>
+      <c r="E282" s="22"/>
+      <c r="G282" s="22"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="19"/>
-      <c r="E283" s="20"/>
-      <c r="G283" s="20"/>
+      <c r="A283" s="21"/>
+      <c r="E283" s="22"/>
+      <c r="G283" s="22"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="19"/>
-      <c r="E284" s="20"/>
-      <c r="G284" s="20"/>
+      <c r="A284" s="21"/>
+      <c r="E284" s="22"/>
+      <c r="G284" s="22"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="19"/>
-      <c r="E285" s="20"/>
-      <c r="G285" s="20"/>
+      <c r="A285" s="21"/>
+      <c r="E285" s="22"/>
+      <c r="G285" s="22"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="19"/>
-      <c r="E286" s="20"/>
-      <c r="G286" s="20"/>
+      <c r="A286" s="21"/>
+      <c r="E286" s="22"/>
+      <c r="G286" s="22"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="19"/>
-      <c r="E287" s="20"/>
-      <c r="G287" s="20"/>
+      <c r="A287" s="21"/>
+      <c r="E287" s="22"/>
+      <c r="G287" s="22"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="19"/>
-      <c r="E288" s="20"/>
-      <c r="G288" s="20"/>
+      <c r="A288" s="21"/>
+      <c r="E288" s="22"/>
+      <c r="G288" s="22"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="19"/>
-      <c r="E289" s="20"/>
-      <c r="G289" s="20"/>
+      <c r="A289" s="21"/>
+      <c r="E289" s="22"/>
+      <c r="G289" s="22"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="19"/>
-      <c r="E290" s="20"/>
-      <c r="G290" s="20"/>
+      <c r="A290" s="21"/>
+      <c r="E290" s="22"/>
+      <c r="G290" s="22"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="19"/>
-      <c r="E291" s="20"/>
-      <c r="G291" s="20"/>
+      <c r="A291" s="21"/>
+      <c r="E291" s="22"/>
+      <c r="G291" s="22"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="19"/>
-      <c r="E292" s="20"/>
-      <c r="G292" s="20"/>
+      <c r="A292" s="21"/>
+      <c r="E292" s="22"/>
+      <c r="G292" s="22"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="19"/>
-      <c r="E293" s="20"/>
-      <c r="G293" s="20"/>
+      <c r="A293" s="21"/>
+      <c r="E293" s="22"/>
+      <c r="G293" s="22"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="19"/>
-      <c r="E294" s="20"/>
-      <c r="G294" s="20"/>
+      <c r="A294" s="21"/>
+      <c r="E294" s="22"/>
+      <c r="G294" s="22"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="19"/>
-      <c r="E295" s="20"/>
-      <c r="G295" s="20"/>
+      <c r="A295" s="21"/>
+      <c r="E295" s="22"/>
+      <c r="G295" s="22"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="19"/>
-      <c r="E296" s="20"/>
-      <c r="G296" s="20"/>
+      <c r="A296" s="21"/>
+      <c r="E296" s="22"/>
+      <c r="G296" s="22"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="19"/>
-      <c r="E297" s="20"/>
-      <c r="G297" s="20"/>
+      <c r="A297" s="21"/>
+      <c r="E297" s="22"/>
+      <c r="G297" s="22"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="19"/>
-      <c r="E298" s="20"/>
-      <c r="G298" s="20"/>
+      <c r="A298" s="21"/>
+      <c r="E298" s="22"/>
+      <c r="G298" s="22"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="19"/>
-      <c r="E299" s="20"/>
-      <c r="G299" s="20"/>
+      <c r="A299" s="21"/>
+      <c r="E299" s="22"/>
+      <c r="G299" s="22"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="19"/>
-      <c r="E300" s="20"/>
-      <c r="G300" s="20"/>
+      <c r="A300" s="21"/>
+      <c r="E300" s="22"/>
+      <c r="G300" s="22"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="19"/>
-      <c r="E301" s="20"/>
-      <c r="G301" s="20"/>
+      <c r="A301" s="21"/>
+      <c r="E301" s="22"/>
+      <c r="G301" s="22"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="19"/>
-      <c r="E302" s="20"/>
-      <c r="G302" s="20"/>
+      <c r="A302" s="21"/>
+      <c r="E302" s="22"/>
+      <c r="G302" s="22"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="19"/>
-      <c r="E303" s="20"/>
-      <c r="G303" s="20"/>
+      <c r="A303" s="21"/>
+      <c r="E303" s="22"/>
+      <c r="G303" s="22"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="19"/>
-      <c r="E304" s="20"/>
-      <c r="G304" s="20"/>
+      <c r="A304" s="21"/>
+      <c r="E304" s="22"/>
+      <c r="G304" s="22"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="19"/>
-      <c r="E305" s="20"/>
-      <c r="G305" s="20"/>
+      <c r="A305" s="21"/>
+      <c r="E305" s="22"/>
+      <c r="G305" s="22"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="19"/>
-      <c r="E306" s="20"/>
-      <c r="G306" s="20"/>
+      <c r="A306" s="21"/>
+      <c r="E306" s="22"/>
+      <c r="G306" s="22"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="19"/>
-      <c r="E307" s="20"/>
-      <c r="G307" s="20"/>
+      <c r="A307" s="21"/>
+      <c r="E307" s="22"/>
+      <c r="G307" s="22"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="19"/>
-      <c r="E308" s="20"/>
-      <c r="G308" s="20"/>
+      <c r="A308" s="21"/>
+      <c r="E308" s="22"/>
+      <c r="G308" s="22"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="19"/>
-      <c r="E309" s="20"/>
-      <c r="G309" s="20"/>
+      <c r="A309" s="21"/>
+      <c r="E309" s="22"/>
+      <c r="G309" s="22"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="19"/>
-      <c r="E310" s="20"/>
-      <c r="G310" s="20"/>
+      <c r="A310" s="21"/>
+      <c r="E310" s="22"/>
+      <c r="G310" s="22"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="19"/>
-      <c r="E311" s="20"/>
-      <c r="G311" s="20"/>
+      <c r="A311" s="21"/>
+      <c r="E311" s="22"/>
+      <c r="G311" s="22"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="19"/>
-      <c r="E312" s="20"/>
-      <c r="G312" s="20"/>
+      <c r="A312" s="21"/>
+      <c r="E312" s="22"/>
+      <c r="G312" s="22"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="19"/>
-      <c r="E313" s="20"/>
-      <c r="G313" s="20"/>
+      <c r="A313" s="21"/>
+      <c r="E313" s="22"/>
+      <c r="G313" s="22"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="19"/>
-      <c r="E314" s="20"/>
-      <c r="G314" s="20"/>
+      <c r="A314" s="21"/>
+      <c r="E314" s="22"/>
+      <c r="G314" s="22"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="19"/>
-      <c r="E315" s="20"/>
-      <c r="G315" s="20"/>
+      <c r="A315" s="21"/>
+      <c r="E315" s="22"/>
+      <c r="G315" s="22"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="19"/>
-      <c r="E316" s="20"/>
-      <c r="G316" s="20"/>
+      <c r="A316" s="21"/>
+      <c r="E316" s="22"/>
+      <c r="G316" s="22"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="19"/>
-      <c r="E317" s="20"/>
-      <c r="G317" s="20"/>
+      <c r="A317" s="21"/>
+      <c r="E317" s="22"/>
+      <c r="G317" s="22"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="19"/>
-      <c r="E318" s="20"/>
-      <c r="G318" s="20"/>
+      <c r="A318" s="21"/>
+      <c r="E318" s="22"/>
+      <c r="G318" s="22"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="19"/>
-      <c r="E319" s="20"/>
-      <c r="G319" s="20"/>
+      <c r="A319" s="21"/>
+      <c r="E319" s="22"/>
+      <c r="G319" s="22"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="19"/>
-      <c r="E320" s="20"/>
-      <c r="G320" s="20"/>
+      <c r="A320" s="21"/>
+      <c r="E320" s="22"/>
+      <c r="G320" s="22"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="19"/>
-      <c r="E321" s="20"/>
-      <c r="G321" s="20"/>
+      <c r="A321" s="21"/>
+      <c r="E321" s="22"/>
+      <c r="G321" s="22"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="19"/>
-      <c r="E322" s="20"/>
-      <c r="G322" s="20"/>
+      <c r="A322" s="21"/>
+      <c r="E322" s="22"/>
+      <c r="G322" s="22"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="19"/>
-      <c r="E323" s="20"/>
-      <c r="G323" s="20"/>
+      <c r="A323" s="21"/>
+      <c r="E323" s="22"/>
+      <c r="G323" s="22"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="19"/>
-      <c r="E324" s="20"/>
-      <c r="G324" s="20"/>
+      <c r="A324" s="21"/>
+      <c r="E324" s="22"/>
+      <c r="G324" s="22"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="19"/>
-      <c r="E325" s="20"/>
-      <c r="G325" s="20"/>
+      <c r="A325" s="21"/>
+      <c r="E325" s="22"/>
+      <c r="G325" s="22"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="19"/>
-      <c r="E326" s="20"/>
-      <c r="G326" s="20"/>
+      <c r="A326" s="21"/>
+      <c r="E326" s="22"/>
+      <c r="G326" s="22"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="19"/>
-      <c r="E327" s="20"/>
-      <c r="G327" s="20"/>
+      <c r="A327" s="21"/>
+      <c r="E327" s="22"/>
+      <c r="G327" s="22"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="19"/>
-      <c r="E328" s="20"/>
-      <c r="G328" s="20"/>
+      <c r="A328" s="21"/>
+      <c r="E328" s="22"/>
+      <c r="G328" s="22"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="19"/>
-      <c r="E329" s="20"/>
-      <c r="G329" s="20"/>
+      <c r="A329" s="21"/>
+      <c r="E329" s="22"/>
+      <c r="G329" s="22"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="19"/>
-      <c r="E330" s="20"/>
-      <c r="G330" s="20"/>
+      <c r="A330" s="21"/>
+      <c r="E330" s="22"/>
+      <c r="G330" s="22"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="19"/>
-      <c r="E331" s="20"/>
-      <c r="G331" s="20"/>
+      <c r="A331" s="21"/>
+      <c r="E331" s="22"/>
+      <c r="G331" s="22"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="19"/>
-      <c r="E332" s="20"/>
-      <c r="G332" s="20"/>
+      <c r="A332" s="21"/>
+      <c r="E332" s="22"/>
+      <c r="G332" s="22"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="19"/>
-      <c r="E333" s="20"/>
-      <c r="G333" s="20"/>
+      <c r="A333" s="21"/>
+      <c r="E333" s="22"/>
+      <c r="G333" s="22"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="19"/>
-      <c r="E334" s="20"/>
-      <c r="G334" s="20"/>
+      <c r="A334" s="21"/>
+      <c r="E334" s="22"/>
+      <c r="G334" s="22"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="19"/>
-      <c r="E335" s="20"/>
-      <c r="G335" s="20"/>
+      <c r="A335" s="21"/>
+      <c r="E335" s="22"/>
+      <c r="G335" s="22"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="19"/>
-      <c r="E336" s="20"/>
-      <c r="G336" s="20"/>
+      <c r="A336" s="21"/>
+      <c r="E336" s="22"/>
+      <c r="G336" s="22"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="19"/>
-      <c r="E337" s="20"/>
-      <c r="G337" s="20"/>
+      <c r="A337" s="21"/>
+      <c r="E337" s="22"/>
+      <c r="G337" s="22"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="19"/>
-      <c r="E338" s="20"/>
-      <c r="G338" s="20"/>
+      <c r="A338" s="21"/>
+      <c r="E338" s="22"/>
+      <c r="G338" s="22"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="19"/>
-      <c r="E339" s="20"/>
-      <c r="G339" s="20"/>
+      <c r="A339" s="21"/>
+      <c r="E339" s="22"/>
+      <c r="G339" s="22"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="19"/>
-      <c r="E340" s="20"/>
-      <c r="G340" s="20"/>
+      <c r="A340" s="21"/>
+      <c r="E340" s="22"/>
+      <c r="G340" s="22"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="19"/>
-      <c r="E341" s="20"/>
-      <c r="G341" s="20"/>
+      <c r="A341" s="21"/>
+      <c r="E341" s="22"/>
+      <c r="G341" s="22"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="19"/>
-      <c r="E342" s="20"/>
-      <c r="G342" s="20"/>
+      <c r="A342" s="21"/>
+      <c r="E342" s="22"/>
+      <c r="G342" s="22"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="19"/>
-      <c r="E343" s="20"/>
-      <c r="G343" s="20"/>
+      <c r="A343" s="21"/>
+      <c r="E343" s="22"/>
+      <c r="G343" s="22"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="19"/>
-      <c r="E344" s="20"/>
-      <c r="G344" s="20"/>
+      <c r="A344" s="21"/>
+      <c r="E344" s="22"/>
+      <c r="G344" s="22"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="19"/>
-      <c r="E345" s="20"/>
-      <c r="G345" s="20"/>
+      <c r="A345" s="21"/>
+      <c r="E345" s="22"/>
+      <c r="G345" s="22"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="19"/>
-      <c r="E346" s="20"/>
-      <c r="G346" s="20"/>
+      <c r="A346" s="21"/>
+      <c r="E346" s="22"/>
+      <c r="G346" s="22"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="19"/>
-      <c r="E347" s="20"/>
-      <c r="G347" s="20"/>
+      <c r="A347" s="21"/>
+      <c r="E347" s="22"/>
+      <c r="G347" s="22"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="19"/>
-      <c r="E348" s="20"/>
-      <c r="G348" s="20"/>
+      <c r="A348" s="21"/>
+      <c r="E348" s="22"/>
+      <c r="G348" s="22"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="19"/>
-      <c r="E349" s="20"/>
-      <c r="G349" s="20"/>
+      <c r="A349" s="21"/>
+      <c r="E349" s="22"/>
+      <c r="G349" s="22"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="19"/>
-      <c r="E350" s="20"/>
-      <c r="G350" s="20"/>
+      <c r="A350" s="21"/>
+      <c r="E350" s="22"/>
+      <c r="G350" s="22"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="19"/>
-      <c r="E351" s="20"/>
-      <c r="G351" s="20"/>
+      <c r="A351" s="21"/>
+      <c r="E351" s="22"/>
+      <c r="G351" s="22"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="19"/>
-      <c r="E352" s="20"/>
-      <c r="G352" s="20"/>
+      <c r="A352" s="21"/>
+      <c r="E352" s="22"/>
+      <c r="G352" s="22"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="19"/>
-      <c r="E353" s="20"/>
-      <c r="G353" s="20"/>
+      <c r="A353" s="21"/>
+      <c r="E353" s="22"/>
+      <c r="G353" s="22"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="19"/>
-      <c r="E354" s="20"/>
-      <c r="G354" s="20"/>
+      <c r="A354" s="21"/>
+      <c r="E354" s="22"/>
+      <c r="G354" s="22"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="19"/>
-      <c r="E355" s="20"/>
-      <c r="G355" s="20"/>
+      <c r="A355" s="21"/>
+      <c r="E355" s="22"/>
+      <c r="G355" s="22"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="19"/>
-      <c r="E356" s="20"/>
-      <c r="G356" s="20"/>
+      <c r="A356" s="21"/>
+      <c r="E356" s="22"/>
+      <c r="G356" s="22"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="19"/>
-      <c r="E357" s="20"/>
-      <c r="G357" s="20"/>
+      <c r="A357" s="21"/>
+      <c r="E357" s="22"/>
+      <c r="G357" s="22"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="19"/>
-      <c r="E358" s="20"/>
-      <c r="G358" s="20"/>
+      <c r="A358" s="21"/>
+      <c r="E358" s="22"/>
+      <c r="G358" s="22"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="19"/>
-      <c r="E359" s="20"/>
-      <c r="G359" s="20"/>
+      <c r="A359" s="21"/>
+      <c r="E359" s="22"/>
+      <c r="G359" s="22"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="19"/>
-      <c r="E360" s="20"/>
-      <c r="G360" s="20"/>
+      <c r="A360" s="21"/>
+      <c r="E360" s="22"/>
+      <c r="G360" s="22"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="19"/>
-      <c r="E361" s="20"/>
-      <c r="G361" s="20"/>
+      <c r="A361" s="21"/>
+      <c r="E361" s="22"/>
+      <c r="G361" s="22"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="19"/>
-      <c r="E362" s="20"/>
-      <c r="G362" s="20"/>
+      <c r="A362" s="21"/>
+      <c r="E362" s="22"/>
+      <c r="G362" s="22"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="19"/>
-      <c r="E363" s="20"/>
-      <c r="G363" s="20"/>
+      <c r="A363" s="21"/>
+      <c r="E363" s="22"/>
+      <c r="G363" s="22"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="19"/>
-      <c r="E364" s="20"/>
-      <c r="G364" s="20"/>
+      <c r="A364" s="21"/>
+      <c r="E364" s="22"/>
+      <c r="G364" s="22"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="19"/>
-      <c r="E365" s="20"/>
-      <c r="G365" s="20"/>
+      <c r="A365" s="21"/>
+      <c r="E365" s="22"/>
+      <c r="G365" s="22"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="19"/>
-      <c r="E366" s="20"/>
-      <c r="G366" s="20"/>
+      <c r="A366" s="21"/>
+      <c r="E366" s="22"/>
+      <c r="G366" s="22"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="19"/>
-      <c r="E367" s="20"/>
-      <c r="G367" s="20"/>
+      <c r="A367" s="21"/>
+      <c r="E367" s="22"/>
+      <c r="G367" s="22"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="19"/>
-      <c r="E368" s="20"/>
-      <c r="G368" s="20"/>
+      <c r="A368" s="21"/>
+      <c r="E368" s="22"/>
+      <c r="G368" s="22"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="19"/>
-      <c r="E369" s="20"/>
-      <c r="G369" s="20"/>
+      <c r="A369" s="21"/>
+      <c r="E369" s="22"/>
+      <c r="G369" s="22"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="19"/>
-      <c r="E370" s="20"/>
-      <c r="G370" s="20"/>
+      <c r="A370" s="21"/>
+      <c r="E370" s="22"/>
+      <c r="G370" s="22"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="19"/>
-      <c r="E371" s="20"/>
-      <c r="G371" s="20"/>
+      <c r="A371" s="21"/>
+      <c r="E371" s="22"/>
+      <c r="G371" s="22"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="19"/>
-      <c r="E372" s="20"/>
-      <c r="G372" s="20"/>
+      <c r="A372" s="21"/>
+      <c r="E372" s="22"/>
+      <c r="G372" s="22"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="19"/>
-      <c r="E373" s="20"/>
-      <c r="G373" s="20"/>
+      <c r="A373" s="21"/>
+      <c r="E373" s="22"/>
+      <c r="G373" s="22"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="19"/>
-      <c r="E374" s="20"/>
-      <c r="G374" s="20"/>
+      <c r="A374" s="21"/>
+      <c r="E374" s="22"/>
+      <c r="G374" s="22"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="19"/>
-      <c r="E375" s="20"/>
-      <c r="G375" s="20"/>
+      <c r="A375" s="21"/>
+      <c r="E375" s="22"/>
+      <c r="G375" s="22"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="19"/>
-      <c r="E376" s="20"/>
-      <c r="G376" s="20"/>
+      <c r="A376" s="21"/>
+      <c r="E376" s="22"/>
+      <c r="G376" s="22"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="19"/>
-      <c r="E377" s="20"/>
-      <c r="G377" s="20"/>
+      <c r="A377" s="21"/>
+      <c r="E377" s="22"/>
+      <c r="G377" s="22"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="19"/>
-      <c r="E378" s="20"/>
-      <c r="G378" s="20"/>
+      <c r="A378" s="21"/>
+      <c r="E378" s="22"/>
+      <c r="G378" s="22"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="19"/>
-      <c r="E379" s="20"/>
-      <c r="G379" s="20"/>
+      <c r="A379" s="21"/>
+      <c r="E379" s="22"/>
+      <c r="G379" s="22"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="19"/>
-      <c r="E380" s="20"/>
-      <c r="G380" s="20"/>
+      <c r="A380" s="21"/>
+      <c r="E380" s="22"/>
+      <c r="G380" s="22"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="19"/>
-      <c r="E381" s="20"/>
-      <c r="G381" s="20"/>
+      <c r="A381" s="21"/>
+      <c r="E381" s="22"/>
+      <c r="G381" s="22"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="19"/>
-      <c r="E382" s="20"/>
-      <c r="G382" s="20"/>
+      <c r="A382" s="21"/>
+      <c r="E382" s="22"/>
+      <c r="G382" s="22"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="19"/>
-      <c r="E383" s="20"/>
-      <c r="G383" s="20"/>
+      <c r="A383" s="21"/>
+      <c r="E383" s="22"/>
+      <c r="G383" s="22"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="19"/>
-      <c r="E384" s="20"/>
-      <c r="G384" s="20"/>
+      <c r="A384" s="21"/>
+      <c r="E384" s="22"/>
+      <c r="G384" s="22"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="19"/>
-      <c r="E385" s="20"/>
-      <c r="G385" s="20"/>
+      <c r="A385" s="21"/>
+      <c r="E385" s="22"/>
+      <c r="G385" s="22"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="19"/>
-      <c r="E386" s="20"/>
-      <c r="G386" s="20"/>
+      <c r="A386" s="21"/>
+      <c r="E386" s="22"/>
+      <c r="G386" s="22"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="19"/>
-      <c r="E387" s="20"/>
-      <c r="G387" s="20"/>
+      <c r="A387" s="21"/>
+      <c r="E387" s="22"/>
+      <c r="G387" s="22"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="19"/>
-      <c r="E388" s="20"/>
-      <c r="G388" s="20"/>
+      <c r="A388" s="21"/>
+      <c r="E388" s="22"/>
+      <c r="G388" s="22"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="19"/>
-      <c r="E389" s="20"/>
-      <c r="G389" s="20"/>
+      <c r="A389" s="21"/>
+      <c r="E389" s="22"/>
+      <c r="G389" s="22"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="19"/>
-      <c r="E390" s="20"/>
-      <c r="G390" s="20"/>
+      <c r="A390" s="21"/>
+      <c r="E390" s="22"/>
+      <c r="G390" s="22"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="19"/>
-      <c r="E391" s="20"/>
-      <c r="G391" s="20"/>
+      <c r="A391" s="21"/>
+      <c r="E391" s="22"/>
+      <c r="G391" s="22"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="19"/>
-      <c r="E392" s="20"/>
-      <c r="G392" s="20"/>
+      <c r="A392" s="21"/>
+      <c r="E392" s="22"/>
+      <c r="G392" s="22"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="19"/>
-      <c r="E393" s="20"/>
-      <c r="G393" s="20"/>
+      <c r="A393" s="21"/>
+      <c r="E393" s="22"/>
+      <c r="G393" s="22"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="19"/>
-      <c r="E394" s="20"/>
-      <c r="G394" s="20"/>
+      <c r="A394" s="21"/>
+      <c r="E394" s="22"/>
+      <c r="G394" s="22"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="19"/>
-      <c r="E395" s="20"/>
-      <c r="G395" s="20"/>
+      <c r="A395" s="21"/>
+      <c r="E395" s="22"/>
+      <c r="G395" s="22"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="19"/>
-      <c r="E396" s="20"/>
-      <c r="G396" s="20"/>
+      <c r="A396" s="21"/>
+      <c r="E396" s="22"/>
+      <c r="G396" s="22"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="19"/>
-      <c r="E397" s="20"/>
-      <c r="G397" s="20"/>
+      <c r="A397" s="21"/>
+      <c r="E397" s="22"/>
+      <c r="G397" s="22"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="19"/>
-      <c r="E398" s="20"/>
-      <c r="G398" s="20"/>
+      <c r="A398" s="21"/>
+      <c r="E398" s="22"/>
+      <c r="G398" s="22"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="19"/>
-      <c r="E399" s="20"/>
-      <c r="G399" s="20"/>
+      <c r="A399" s="21"/>
+      <c r="E399" s="22"/>
+      <c r="G399" s="22"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="19"/>
-      <c r="E400" s="20"/>
-      <c r="G400" s="20"/>
+      <c r="A400" s="21"/>
+      <c r="E400" s="22"/>
+      <c r="G400" s="22"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="19"/>
-      <c r="E401" s="20"/>
-      <c r="G401" s="20"/>
+      <c r="A401" s="21"/>
+      <c r="E401" s="22"/>
+      <c r="G401" s="22"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="19"/>
-      <c r="E402" s="20"/>
-      <c r="G402" s="20"/>
+      <c r="A402" s="21"/>
+      <c r="E402" s="22"/>
+      <c r="G402" s="22"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="19"/>
-      <c r="E403" s="20"/>
-      <c r="G403" s="20"/>
+      <c r="A403" s="21"/>
+      <c r="E403" s="22"/>
+      <c r="G403" s="22"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="19"/>
-      <c r="E404" s="20"/>
-      <c r="G404" s="20"/>
+      <c r="A404" s="21"/>
+      <c r="E404" s="22"/>
+      <c r="G404" s="22"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="19"/>
-      <c r="E405" s="20"/>
-      <c r="G405" s="20"/>
+      <c r="A405" s="21"/>
+      <c r="E405" s="22"/>
+      <c r="G405" s="22"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="19"/>
-      <c r="E406" s="20"/>
-      <c r="G406" s="20"/>
+      <c r="A406" s="21"/>
+      <c r="E406" s="22"/>
+      <c r="G406" s="22"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="19"/>
-      <c r="E407" s="20"/>
-      <c r="G407" s="20"/>
+      <c r="A407" s="21"/>
+      <c r="E407" s="22"/>
+      <c r="G407" s="22"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="19"/>
-      <c r="E408" s="20"/>
-      <c r="G408" s="20"/>
+      <c r="A408" s="21"/>
+      <c r="E408" s="22"/>
+      <c r="G408" s="22"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="19"/>
-      <c r="E409" s="20"/>
-      <c r="G409" s="20"/>
+      <c r="A409" s="21"/>
+      <c r="E409" s="22"/>
+      <c r="G409" s="22"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="19"/>
-      <c r="E410" s="20"/>
-      <c r="G410" s="20"/>
+      <c r="A410" s="21"/>
+      <c r="E410" s="22"/>
+      <c r="G410" s="22"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="19"/>
-      <c r="E411" s="20"/>
-      <c r="G411" s="20"/>
+      <c r="A411" s="21"/>
+      <c r="E411" s="22"/>
+      <c r="G411" s="22"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="19"/>
-      <c r="E412" s="20"/>
-      <c r="G412" s="20"/>
+      <c r="A412" s="21"/>
+      <c r="E412" s="22"/>
+      <c r="G412" s="22"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="19"/>
-      <c r="E413" s="20"/>
-      <c r="G413" s="20"/>
+      <c r="A413" s="21"/>
+      <c r="E413" s="22"/>
+      <c r="G413" s="22"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="19"/>
-      <c r="E414" s="20"/>
-      <c r="G414" s="20"/>
+      <c r="A414" s="21"/>
+      <c r="E414" s="22"/>
+      <c r="G414" s="22"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="19"/>
-      <c r="E415" s="20"/>
-      <c r="G415" s="20"/>
+      <c r="A415" s="21"/>
+      <c r="E415" s="22"/>
+      <c r="G415" s="22"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="19"/>
-      <c r="E416" s="20"/>
-      <c r="G416" s="20"/>
+      <c r="A416" s="21"/>
+      <c r="E416" s="22"/>
+      <c r="G416" s="22"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="19"/>
-      <c r="E417" s="20"/>
-      <c r="G417" s="20"/>
+      <c r="A417" s="21"/>
+      <c r="E417" s="22"/>
+      <c r="G417" s="22"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="19"/>
-      <c r="E418" s="20"/>
-      <c r="G418" s="20"/>
+      <c r="A418" s="21"/>
+      <c r="E418" s="22"/>
+      <c r="G418" s="22"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="19"/>
-      <c r="E419" s="20"/>
-      <c r="G419" s="20"/>
+      <c r="A419" s="21"/>
+      <c r="E419" s="22"/>
+      <c r="G419" s="22"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="19"/>
-      <c r="E420" s="20"/>
-      <c r="G420" s="20"/>
+      <c r="A420" s="21"/>
+      <c r="E420" s="22"/>
+      <c r="G420" s="22"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="19"/>
-      <c r="E421" s="20"/>
-      <c r="G421" s="20"/>
+      <c r="A421" s="21"/>
+      <c r="E421" s="22"/>
+      <c r="G421" s="22"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="19"/>
-      <c r="E422" s="20"/>
-      <c r="G422" s="20"/>
+      <c r="A422" s="21"/>
+      <c r="E422" s="22"/>
+      <c r="G422" s="22"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="19"/>
-      <c r="E423" s="20"/>
-      <c r="G423" s="20"/>
+      <c r="A423" s="21"/>
+      <c r="E423" s="22"/>
+      <c r="G423" s="22"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="19"/>
-      <c r="E424" s="20"/>
-      <c r="G424" s="20"/>
+      <c r="A424" s="21"/>
+      <c r="E424" s="22"/>
+      <c r="G424" s="22"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="19"/>
-      <c r="E425" s="20"/>
-      <c r="G425" s="20"/>
+      <c r="A425" s="21"/>
+      <c r="E425" s="22"/>
+      <c r="G425" s="22"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="19"/>
-      <c r="E426" s="20"/>
-      <c r="G426" s="20"/>
+      <c r="A426" s="21"/>
+      <c r="E426" s="22"/>
+      <c r="G426" s="22"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="19"/>
-      <c r="E427" s="20"/>
-      <c r="G427" s="20"/>
+      <c r="A427" s="21"/>
+      <c r="E427" s="22"/>
+      <c r="G427" s="22"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="19"/>
-      <c r="E428" s="20"/>
-      <c r="G428" s="20"/>
+      <c r="A428" s="21"/>
+      <c r="E428" s="22"/>
+      <c r="G428" s="22"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="19"/>
-      <c r="E429" s="20"/>
-      <c r="G429" s="20"/>
+      <c r="A429" s="21"/>
+      <c r="E429" s="22"/>
+      <c r="G429" s="22"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="19"/>
-      <c r="E430" s="20"/>
-      <c r="G430" s="20"/>
+      <c r="A430" s="21"/>
+      <c r="E430" s="22"/>
+      <c r="G430" s="22"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="19"/>
-      <c r="E431" s="20"/>
-      <c r="G431" s="20"/>
+      <c r="A431" s="21"/>
+      <c r="E431" s="22"/>
+      <c r="G431" s="22"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="19"/>
-      <c r="E432" s="20"/>
-      <c r="G432" s="20"/>
+      <c r="A432" s="21"/>
+      <c r="E432" s="22"/>
+      <c r="G432" s="22"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="19"/>
-      <c r="E433" s="20"/>
-      <c r="G433" s="20"/>
+      <c r="A433" s="21"/>
+      <c r="E433" s="22"/>
+      <c r="G433" s="22"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="19"/>
-      <c r="E434" s="20"/>
-      <c r="G434" s="20"/>
+      <c r="A434" s="21"/>
+      <c r="E434" s="22"/>
+      <c r="G434" s="22"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="19"/>
-      <c r="E435" s="20"/>
-      <c r="G435" s="20"/>
+      <c r="A435" s="21"/>
+      <c r="E435" s="22"/>
+      <c r="G435" s="22"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="19"/>
-      <c r="E436" s="20"/>
-      <c r="G436" s="20"/>
+      <c r="A436" s="21"/>
+      <c r="E436" s="22"/>
+      <c r="G436" s="22"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="19"/>
-      <c r="E437" s="20"/>
-      <c r="G437" s="20"/>
+      <c r="A437" s="21"/>
+      <c r="E437" s="22"/>
+      <c r="G437" s="22"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="19"/>
-      <c r="E438" s="20"/>
-      <c r="G438" s="20"/>
+      <c r="A438" s="21"/>
+      <c r="E438" s="22"/>
+      <c r="G438" s="22"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="19"/>
-      <c r="E439" s="20"/>
-      <c r="G439" s="20"/>
+      <c r="A439" s="21"/>
+      <c r="E439" s="22"/>
+      <c r="G439" s="22"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="19"/>
-      <c r="E440" s="20"/>
-      <c r="G440" s="20"/>
+      <c r="A440" s="21"/>
+      <c r="E440" s="22"/>
+      <c r="G440" s="22"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="19"/>
-      <c r="E441" s="20"/>
-      <c r="G441" s="20"/>
+      <c r="A441" s="21"/>
+      <c r="E441" s="22"/>
+      <c r="G441" s="22"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="19"/>
-      <c r="E442" s="20"/>
-      <c r="G442" s="20"/>
+      <c r="A442" s="21"/>
+      <c r="E442" s="22"/>
+      <c r="G442" s="22"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="19"/>
-      <c r="E443" s="20"/>
-      <c r="G443" s="20"/>
+      <c r="A443" s="21"/>
+      <c r="E443" s="22"/>
+      <c r="G443" s="22"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="19"/>
-      <c r="E444" s="20"/>
-      <c r="G444" s="20"/>
+      <c r="A444" s="21"/>
+      <c r="E444" s="22"/>
+      <c r="G444" s="22"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="19"/>
-      <c r="E445" s="20"/>
-      <c r="G445" s="20"/>
+      <c r="A445" s="21"/>
+      <c r="E445" s="22"/>
+      <c r="G445" s="22"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="19"/>
-      <c r="E446" s="20"/>
-      <c r="G446" s="20"/>
+      <c r="A446" s="21"/>
+      <c r="E446" s="22"/>
+      <c r="G446" s="22"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="19"/>
-      <c r="E447" s="20"/>
-      <c r="G447" s="20"/>
+      <c r="A447" s="21"/>
+      <c r="E447" s="22"/>
+      <c r="G447" s="22"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="19"/>
-      <c r="E448" s="20"/>
-      <c r="G448" s="20"/>
+      <c r="A448" s="21"/>
+      <c r="E448" s="22"/>
+      <c r="G448" s="22"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="19"/>
-      <c r="E449" s="20"/>
-      <c r="G449" s="20"/>
+      <c r="A449" s="21"/>
+      <c r="E449" s="22"/>
+      <c r="G449" s="22"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="19"/>
-      <c r="E450" s="20"/>
-      <c r="G450" s="20"/>
+      <c r="A450" s="21"/>
+      <c r="E450" s="22"/>
+      <c r="G450" s="22"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="19"/>
-      <c r="E451" s="20"/>
-      <c r="G451" s="20"/>
+      <c r="A451" s="21"/>
+      <c r="E451" s="22"/>
+      <c r="G451" s="22"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="19"/>
-      <c r="E452" s="20"/>
-      <c r="G452" s="20"/>
+      <c r="A452" s="21"/>
+      <c r="E452" s="22"/>
+      <c r="G452" s="22"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="19"/>
-      <c r="E453" s="20"/>
-      <c r="G453" s="20"/>
+      <c r="A453" s="21"/>
+      <c r="E453" s="22"/>
+      <c r="G453" s="22"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="19"/>
-      <c r="E454" s="20"/>
-      <c r="G454" s="20"/>
+      <c r="A454" s="21"/>
+      <c r="E454" s="22"/>
+      <c r="G454" s="22"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="19"/>
-      <c r="E455" s="20"/>
-      <c r="G455" s="20"/>
+      <c r="A455" s="21"/>
+      <c r="E455" s="22"/>
+      <c r="G455" s="22"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="19"/>
-      <c r="E456" s="20"/>
-      <c r="G456" s="20"/>
+      <c r="A456" s="21"/>
+      <c r="E456" s="22"/>
+      <c r="G456" s="22"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="19"/>
-      <c r="E457" s="20"/>
-      <c r="G457" s="20"/>
+      <c r="A457" s="21"/>
+      <c r="E457" s="22"/>
+      <c r="G457" s="22"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="19"/>
-      <c r="E458" s="20"/>
-      <c r="G458" s="20"/>
+      <c r="A458" s="21"/>
+      <c r="E458" s="22"/>
+      <c r="G458" s="22"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="19"/>
-      <c r="E459" s="20"/>
-      <c r="G459" s="20"/>
+      <c r="A459" s="21"/>
+      <c r="E459" s="22"/>
+      <c r="G459" s="22"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="19"/>
-      <c r="E460" s="20"/>
-      <c r="G460" s="20"/>
+      <c r="A460" s="21"/>
+      <c r="E460" s="22"/>
+      <c r="G460" s="22"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="19"/>
-      <c r="E461" s="20"/>
-      <c r="G461" s="20"/>
+      <c r="A461" s="21"/>
+      <c r="E461" s="22"/>
+      <c r="G461" s="22"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="19"/>
-      <c r="E462" s="20"/>
-      <c r="G462" s="20"/>
+      <c r="A462" s="21"/>
+      <c r="E462" s="22"/>
+      <c r="G462" s="22"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="19"/>
-      <c r="E463" s="20"/>
-      <c r="G463" s="20"/>
+      <c r="A463" s="21"/>
+      <c r="E463" s="22"/>
+      <c r="G463" s="22"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="19"/>
-      <c r="E464" s="20"/>
-      <c r="G464" s="20"/>
+      <c r="A464" s="21"/>
+      <c r="E464" s="22"/>
+      <c r="G464" s="22"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="19"/>
-      <c r="E465" s="20"/>
-      <c r="G465" s="20"/>
+      <c r="A465" s="21"/>
+      <c r="E465" s="22"/>
+      <c r="G465" s="22"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="19"/>
-      <c r="E466" s="20"/>
-      <c r="G466" s="20"/>
+      <c r="A466" s="21"/>
+      <c r="E466" s="22"/>
+      <c r="G466" s="22"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="19"/>
-      <c r="E467" s="20"/>
-      <c r="G467" s="20"/>
+      <c r="A467" s="21"/>
+      <c r="E467" s="22"/>
+      <c r="G467" s="22"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="19"/>
-      <c r="E468" s="20"/>
-      <c r="G468" s="20"/>
+      <c r="A468" s="21"/>
+      <c r="E468" s="22"/>
+      <c r="G468" s="22"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="19"/>
-      <c r="E469" s="20"/>
-      <c r="G469" s="20"/>
+      <c r="A469" s="21"/>
+      <c r="E469" s="22"/>
+      <c r="G469" s="22"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="19"/>
-      <c r="E470" s="20"/>
-      <c r="G470" s="20"/>
+      <c r="A470" s="21"/>
+      <c r="E470" s="22"/>
+      <c r="G470" s="22"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="19"/>
-      <c r="E471" s="20"/>
-      <c r="G471" s="20"/>
+      <c r="A471" s="21"/>
+      <c r="E471" s="22"/>
+      <c r="G471" s="22"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="19"/>
-      <c r="E472" s="20"/>
-      <c r="G472" s="20"/>
+      <c r="A472" s="21"/>
+      <c r="E472" s="22"/>
+      <c r="G472" s="22"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="19"/>
-      <c r="E473" s="20"/>
-      <c r="G473" s="20"/>
+      <c r="A473" s="21"/>
+      <c r="E473" s="22"/>
+      <c r="G473" s="22"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="19"/>
-      <c r="E474" s="20"/>
-      <c r="G474" s="20"/>
+      <c r="A474" s="21"/>
+      <c r="E474" s="22"/>
+      <c r="G474" s="22"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="19"/>
-      <c r="E475" s="20"/>
-      <c r="G475" s="20"/>
+      <c r="A475" s="21"/>
+      <c r="E475" s="22"/>
+      <c r="G475" s="22"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="19"/>
-      <c r="E476" s="20"/>
-      <c r="G476" s="20"/>
+      <c r="A476" s="21"/>
+      <c r="E476" s="22"/>
+      <c r="G476" s="22"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="19"/>
-      <c r="E477" s="20"/>
-      <c r="G477" s="20"/>
+      <c r="A477" s="21"/>
+      <c r="E477" s="22"/>
+      <c r="G477" s="22"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="19"/>
-      <c r="E478" s="20"/>
-      <c r="G478" s="20"/>
+      <c r="A478" s="21"/>
+      <c r="E478" s="22"/>
+      <c r="G478" s="22"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="19"/>
-      <c r="E479" s="20"/>
-      <c r="G479" s="20"/>
+      <c r="A479" s="21"/>
+      <c r="E479" s="22"/>
+      <c r="G479" s="22"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="19"/>
-      <c r="E480" s="20"/>
-      <c r="G480" s="20"/>
+      <c r="A480" s="21"/>
+      <c r="E480" s="22"/>
+      <c r="G480" s="22"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="19"/>
-      <c r="E481" s="20"/>
-      <c r="G481" s="20"/>
+      <c r="A481" s="21"/>
+      <c r="E481" s="22"/>
+      <c r="G481" s="22"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="19"/>
-      <c r="E482" s="20"/>
-      <c r="G482" s="20"/>
+      <c r="A482" s="21"/>
+      <c r="E482" s="22"/>
+      <c r="G482" s="22"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="19"/>
-      <c r="E483" s="20"/>
-      <c r="G483" s="20"/>
+      <c r="A483" s="21"/>
+      <c r="E483" s="22"/>
+      <c r="G483" s="22"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="19"/>
-      <c r="E484" s="20"/>
-      <c r="G484" s="20"/>
+      <c r="A484" s="21"/>
+      <c r="E484" s="22"/>
+      <c r="G484" s="22"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="19"/>
-      <c r="E485" s="20"/>
-      <c r="G485" s="20"/>
+      <c r="A485" s="21"/>
+      <c r="E485" s="22"/>
+      <c r="G485" s="22"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="19"/>
-      <c r="E486" s="20"/>
-      <c r="G486" s="20"/>
+      <c r="A486" s="21"/>
+      <c r="E486" s="22"/>
+      <c r="G486" s="22"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="19"/>
-      <c r="E487" s="20"/>
-      <c r="G487" s="20"/>
+      <c r="A487" s="21"/>
+      <c r="E487" s="22"/>
+      <c r="G487" s="22"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="19"/>
-      <c r="E488" s="20"/>
-      <c r="G488" s="20"/>
+      <c r="A488" s="21"/>
+      <c r="E488" s="22"/>
+      <c r="G488" s="22"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="19"/>
-      <c r="E489" s="20"/>
-      <c r="G489" s="20"/>
+      <c r="A489" s="21"/>
+      <c r="E489" s="22"/>
+      <c r="G489" s="22"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="19"/>
-      <c r="E490" s="20"/>
-      <c r="G490" s="20"/>
+      <c r="A490" s="21"/>
+      <c r="E490" s="22"/>
+      <c r="G490" s="22"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="19"/>
-      <c r="E491" s="20"/>
-      <c r="G491" s="20"/>
+      <c r="A491" s="21"/>
+      <c r="E491" s="22"/>
+      <c r="G491" s="22"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="19"/>
-      <c r="E492" s="20"/>
-      <c r="G492" s="20"/>
+      <c r="A492" s="21"/>
+      <c r="E492" s="22"/>
+      <c r="G492" s="22"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="19"/>
-      <c r="E493" s="20"/>
-      <c r="G493" s="20"/>
+      <c r="A493" s="21"/>
+      <c r="E493" s="22"/>
+      <c r="G493" s="22"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="19"/>
-      <c r="E494" s="20"/>
-      <c r="G494" s="20"/>
+      <c r="A494" s="21"/>
+      <c r="E494" s="22"/>
+      <c r="G494" s="22"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="19"/>
-      <c r="E495" s="20"/>
-      <c r="G495" s="20"/>
+      <c r="A495" s="21"/>
+      <c r="E495" s="22"/>
+      <c r="G495" s="22"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="19"/>
-      <c r="E496" s="20"/>
-      <c r="G496" s="20"/>
+      <c r="A496" s="21"/>
+      <c r="E496" s="22"/>
+      <c r="G496" s="22"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="19"/>
-      <c r="E497" s="20"/>
-      <c r="G497" s="20"/>
+      <c r="A497" s="21"/>
+      <c r="E497" s="22"/>
+      <c r="G497" s="22"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="19"/>
-      <c r="E498" s="20"/>
-      <c r="G498" s="20"/>
+      <c r="A498" s="21"/>
+      <c r="E498" s="22"/>
+      <c r="G498" s="22"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="19"/>
-      <c r="E499" s="20"/>
-      <c r="G499" s="20"/>
+      <c r="A499" s="21"/>
+      <c r="E499" s="22"/>
+      <c r="G499" s="22"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="19"/>
-      <c r="E500" s="20"/>
-      <c r="G500" s="20"/>
+      <c r="A500" s="21"/>
+      <c r="E500" s="22"/>
+      <c r="G500" s="22"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="19"/>
-      <c r="E501" s="20"/>
-      <c r="G501" s="20"/>
+      <c r="A501" s="21"/>
+      <c r="E501" s="22"/>
+      <c r="G501" s="22"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="19"/>
-      <c r="E502" s="20"/>
-      <c r="G502" s="20"/>
+      <c r="A502" s="21"/>
+      <c r="E502" s="22"/>
+      <c r="G502" s="22"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="19"/>
-      <c r="E503" s="20"/>
-      <c r="G503" s="20"/>
+      <c r="A503" s="21"/>
+      <c r="E503" s="22"/>
+      <c r="G503" s="22"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="19"/>
-      <c r="E504" s="20"/>
-      <c r="G504" s="20"/>
+      <c r="A504" s="21"/>
+      <c r="E504" s="22"/>
+      <c r="G504" s="22"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="19"/>
-      <c r="E505" s="20"/>
-      <c r="G505" s="20"/>
+      <c r="A505" s="21"/>
+      <c r="E505" s="22"/>
+      <c r="G505" s="22"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="19"/>
-      <c r="E506" s="20"/>
-      <c r="G506" s="20"/>
+      <c r="A506" s="21"/>
+      <c r="E506" s="22"/>
+      <c r="G506" s="22"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="19"/>
-      <c r="E507" s="20"/>
-      <c r="G507" s="20"/>
+      <c r="A507" s="21"/>
+      <c r="E507" s="22"/>
+      <c r="G507" s="22"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="19"/>
-      <c r="E508" s="20"/>
-      <c r="G508" s="20"/>
+      <c r="A508" s="21"/>
+      <c r="E508" s="22"/>
+      <c r="G508" s="22"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="19"/>
-      <c r="E509" s="20"/>
-      <c r="G509" s="20"/>
+      <c r="A509" s="21"/>
+      <c r="E509" s="22"/>
+      <c r="G509" s="22"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="19"/>
-      <c r="E510" s="20"/>
-      <c r="G510" s="20"/>
+      <c r="A510" s="21"/>
+      <c r="E510" s="22"/>
+      <c r="G510" s="22"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="19"/>
-      <c r="E511" s="20"/>
-      <c r="G511" s="20"/>
+      <c r="A511" s="21"/>
+      <c r="E511" s="22"/>
+      <c r="G511" s="22"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="19"/>
-      <c r="E512" s="20"/>
-      <c r="G512" s="20"/>
+      <c r="A512" s="21"/>
+      <c r="E512" s="22"/>
+      <c r="G512" s="22"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="19"/>
-      <c r="E513" s="20"/>
-      <c r="G513" s="20"/>
+      <c r="A513" s="21"/>
+      <c r="E513" s="22"/>
+      <c r="G513" s="22"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="19"/>
-      <c r="E514" s="20"/>
-      <c r="G514" s="20"/>
+      <c r="A514" s="21"/>
+      <c r="E514" s="22"/>
+      <c r="G514" s="22"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="19"/>
-      <c r="E515" s="20"/>
-      <c r="G515" s="20"/>
+      <c r="A515" s="21"/>
+      <c r="E515" s="22"/>
+      <c r="G515" s="22"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="19"/>
-      <c r="E516" s="20"/>
-      <c r="G516" s="20"/>
+      <c r="A516" s="21"/>
+      <c r="E516" s="22"/>
+      <c r="G516" s="22"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="19"/>
-      <c r="E517" s="20"/>
-      <c r="G517" s="20"/>
+      <c r="A517" s="21"/>
+      <c r="E517" s="22"/>
+      <c r="G517" s="22"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="19"/>
-      <c r="E518" s="20"/>
-      <c r="G518" s="20"/>
+      <c r="A518" s="21"/>
+      <c r="E518" s="22"/>
+      <c r="G518" s="22"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="19"/>
-      <c r="E519" s="20"/>
-      <c r="G519" s="20"/>
+      <c r="A519" s="21"/>
+      <c r="E519" s="22"/>
+      <c r="G519" s="22"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="19"/>
-      <c r="E520" s="20"/>
-      <c r="G520" s="20"/>
+      <c r="A520" s="21"/>
+      <c r="E520" s="22"/>
+      <c r="G520" s="22"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="19"/>
-      <c r="E521" s="20"/>
-      <c r="G521" s="20"/>
+      <c r="A521" s="21"/>
+      <c r="E521" s="22"/>
+      <c r="G521" s="22"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="19"/>
-      <c r="E522" s="20"/>
-      <c r="G522" s="20"/>
+      <c r="A522" s="21"/>
+      <c r="E522" s="22"/>
+      <c r="G522" s="22"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="19"/>
-      <c r="E523" s="20"/>
-      <c r="G523" s="20"/>
+      <c r="A523" s="21"/>
+      <c r="E523" s="22"/>
+      <c r="G523" s="22"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="19"/>
-      <c r="E524" s="20"/>
-      <c r="G524" s="20"/>
+      <c r="A524" s="21"/>
+      <c r="E524" s="22"/>
+      <c r="G524" s="22"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="19"/>
-      <c r="E525" s="20"/>
-      <c r="G525" s="20"/>
+      <c r="A525" s="21"/>
+      <c r="E525" s="22"/>
+      <c r="G525" s="22"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="19"/>
-      <c r="E526" s="20"/>
-      <c r="G526" s="20"/>
+      <c r="A526" s="21"/>
+      <c r="E526" s="22"/>
+      <c r="G526" s="22"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="19"/>
-      <c r="E527" s="20"/>
-      <c r="G527" s="20"/>
+      <c r="A527" s="21"/>
+      <c r="E527" s="22"/>
+      <c r="G527" s="22"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="19"/>
-      <c r="E528" s="20"/>
-      <c r="G528" s="20"/>
+      <c r="A528" s="21"/>
+      <c r="E528" s="22"/>
+      <c r="G528" s="22"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="19"/>
-      <c r="E529" s="20"/>
-      <c r="G529" s="20"/>
+      <c r="A529" s="21"/>
+      <c r="E529" s="22"/>
+      <c r="G529" s="22"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="19"/>
-      <c r="E530" s="20"/>
-      <c r="G530" s="20"/>
+      <c r="A530" s="21"/>
+      <c r="E530" s="22"/>
+      <c r="G530" s="22"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="19"/>
-      <c r="E531" s="20"/>
-      <c r="G531" s="20"/>
+      <c r="A531" s="21"/>
+      <c r="E531" s="22"/>
+      <c r="G531" s="22"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="19"/>
-      <c r="E532" s="20"/>
-      <c r="G532" s="20"/>
+      <c r="A532" s="21"/>
+      <c r="E532" s="22"/>
+      <c r="G532" s="22"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="19"/>
-      <c r="E533" s="20"/>
-      <c r="G533" s="20"/>
+      <c r="A533" s="21"/>
+      <c r="E533" s="22"/>
+      <c r="G533" s="22"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="19"/>
-      <c r="E534" s="20"/>
-      <c r="G534" s="20"/>
+      <c r="A534" s="21"/>
+      <c r="E534" s="22"/>
+      <c r="G534" s="22"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="19"/>
-      <c r="E535" s="20"/>
-      <c r="G535" s="20"/>
+      <c r="A535" s="21"/>
+      <c r="E535" s="22"/>
+      <c r="G535" s="22"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="19"/>
-      <c r="E536" s="20"/>
-      <c r="G536" s="20"/>
+      <c r="A536" s="21"/>
+      <c r="E536" s="22"/>
+      <c r="G536" s="22"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="19"/>
-      <c r="E537" s="20"/>
-      <c r="G537" s="20"/>
+      <c r="A537" s="21"/>
+      <c r="E537" s="22"/>
+      <c r="G537" s="22"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="19"/>
-      <c r="E538" s="20"/>
-      <c r="G538" s="20"/>
+      <c r="A538" s="21"/>
+      <c r="E538" s="22"/>
+      <c r="G538" s="22"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="19"/>
-      <c r="E539" s="20"/>
-      <c r="G539" s="20"/>
+      <c r="A539" s="21"/>
+      <c r="E539" s="22"/>
+      <c r="G539" s="22"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="19"/>
-      <c r="E540" s="20"/>
-      <c r="G540" s="20"/>
+      <c r="A540" s="21"/>
+      <c r="E540" s="22"/>
+      <c r="G540" s="22"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="19"/>
-      <c r="E541" s="20"/>
-      <c r="G541" s="20"/>
+      <c r="A541" s="21"/>
+      <c r="E541" s="22"/>
+      <c r="G541" s="22"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="19"/>
-      <c r="E542" s="20"/>
-      <c r="G542" s="20"/>
+      <c r="A542" s="21"/>
+      <c r="E542" s="22"/>
+      <c r="G542" s="22"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="19"/>
-      <c r="E543" s="20"/>
-      <c r="G543" s="20"/>
+      <c r="A543" s="21"/>
+      <c r="E543" s="22"/>
+      <c r="G543" s="22"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="19"/>
-      <c r="E544" s="20"/>
-      <c r="G544" s="20"/>
+      <c r="A544" s="21"/>
+      <c r="E544" s="22"/>
+      <c r="G544" s="22"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="19"/>
-      <c r="E545" s="20"/>
-      <c r="G545" s="20"/>
+      <c r="A545" s="21"/>
+      <c r="E545" s="22"/>
+      <c r="G545" s="22"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="19"/>
-      <c r="E546" s="20"/>
-      <c r="G546" s="20"/>
+      <c r="A546" s="21"/>
+      <c r="E546" s="22"/>
+      <c r="G546" s="22"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="19"/>
-      <c r="E547" s="20"/>
-      <c r="G547" s="20"/>
+      <c r="A547" s="21"/>
+      <c r="E547" s="22"/>
+      <c r="G547" s="22"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="19"/>
-      <c r="E548" s="20"/>
-      <c r="G548" s="20"/>
+      <c r="A548" s="21"/>
+      <c r="E548" s="22"/>
+      <c r="G548" s="22"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="19"/>
-      <c r="E549" s="20"/>
-      <c r="G549" s="20"/>
+      <c r="A549" s="21"/>
+      <c r="E549" s="22"/>
+      <c r="G549" s="22"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="19"/>
-      <c r="E550" s="20"/>
-      <c r="G550" s="20"/>
+      <c r="A550" s="21"/>
+      <c r="E550" s="22"/>
+      <c r="G550" s="22"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="19"/>
-      <c r="E551" s="20"/>
-      <c r="G551" s="20"/>
+      <c r="A551" s="21"/>
+      <c r="E551" s="22"/>
+      <c r="G551" s="22"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="19"/>
-      <c r="E552" s="20"/>
-      <c r="G552" s="20"/>
+      <c r="A552" s="21"/>
+      <c r="E552" s="22"/>
+      <c r="G552" s="22"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="19"/>
-      <c r="E553" s="20"/>
-      <c r="G553" s="20"/>
+      <c r="A553" s="21"/>
+      <c r="E553" s="22"/>
+      <c r="G553" s="22"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="19"/>
-      <c r="E554" s="20"/>
-      <c r="G554" s="20"/>
+      <c r="A554" s="21"/>
+      <c r="E554" s="22"/>
+      <c r="G554" s="22"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="19"/>
-      <c r="E555" s="20"/>
-      <c r="G555" s="20"/>
+      <c r="A555" s="21"/>
+      <c r="E555" s="22"/>
+      <c r="G555" s="22"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="19"/>
-      <c r="E556" s="20"/>
-      <c r="G556" s="20"/>
+      <c r="A556" s="21"/>
+      <c r="E556" s="22"/>
+      <c r="G556" s="22"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="19"/>
-      <c r="E557" s="20"/>
-      <c r="G557" s="20"/>
+      <c r="A557" s="21"/>
+      <c r="E557" s="22"/>
+      <c r="G557" s="22"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="19"/>
-      <c r="E558" s="20"/>
-      <c r="G558" s="20"/>
+      <c r="A558" s="21"/>
+      <c r="E558" s="22"/>
+      <c r="G558" s="22"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="19"/>
-      <c r="E559" s="20"/>
-      <c r="G559" s="20"/>
+      <c r="A559" s="21"/>
+      <c r="E559" s="22"/>
+      <c r="G559" s="22"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="19"/>
-      <c r="E560" s="20"/>
-      <c r="G560" s="20"/>
+      <c r="A560" s="21"/>
+      <c r="E560" s="22"/>
+      <c r="G560" s="22"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="19"/>
-      <c r="E561" s="20"/>
-      <c r="G561" s="20"/>
+      <c r="A561" s="21"/>
+      <c r="E561" s="22"/>
+      <c r="G561" s="22"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="19"/>
-      <c r="E562" s="20"/>
-      <c r="G562" s="20"/>
+      <c r="A562" s="21"/>
+      <c r="E562" s="22"/>
+      <c r="G562" s="22"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="19"/>
-      <c r="E563" s="20"/>
-      <c r="G563" s="20"/>
+      <c r="A563" s="21"/>
+      <c r="E563" s="22"/>
+      <c r="G563" s="22"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="19"/>
-      <c r="E564" s="20"/>
-      <c r="G564" s="20"/>
+      <c r="A564" s="21"/>
+      <c r="E564" s="22"/>
+      <c r="G564" s="22"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="19"/>
-      <c r="E565" s="20"/>
-      <c r="G565" s="20"/>
+      <c r="A565" s="21"/>
+      <c r="E565" s="22"/>
+      <c r="G565" s="22"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="19"/>
-      <c r="E566" s="20"/>
-      <c r="G566" s="20"/>
+      <c r="A566" s="21"/>
+      <c r="E566" s="22"/>
+      <c r="G566" s="22"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="19"/>
-      <c r="E567" s="20"/>
-      <c r="G567" s="20"/>
+      <c r="A567" s="21"/>
+      <c r="E567" s="22"/>
+      <c r="G567" s="22"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="19"/>
-      <c r="E568" s="20"/>
-      <c r="G568" s="20"/>
+      <c r="A568" s="21"/>
+      <c r="E568" s="22"/>
+      <c r="G568" s="22"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="19"/>
-      <c r="E569" s="20"/>
-      <c r="G569" s="20"/>
+      <c r="A569" s="21"/>
+      <c r="E569" s="22"/>
+      <c r="G569" s="22"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="19"/>
-      <c r="E570" s="20"/>
-      <c r="G570" s="20"/>
+      <c r="A570" s="21"/>
+      <c r="E570" s="22"/>
+      <c r="G570" s="22"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="19"/>
-      <c r="E571" s="20"/>
-      <c r="G571" s="20"/>
+      <c r="A571" s="21"/>
+      <c r="E571" s="22"/>
+      <c r="G571" s="22"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="19"/>
-      <c r="E572" s="20"/>
-      <c r="G572" s="20"/>
+      <c r="A572" s="21"/>
+      <c r="E572" s="22"/>
+      <c r="G572" s="22"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="19"/>
-      <c r="E573" s="20"/>
-      <c r="G573" s="20"/>
+      <c r="A573" s="21"/>
+      <c r="E573" s="22"/>
+      <c r="G573" s="22"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="19"/>
-      <c r="E574" s="20"/>
-      <c r="G574" s="20"/>
+      <c r="A574" s="21"/>
+      <c r="E574" s="22"/>
+      <c r="G574" s="22"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="19"/>
-      <c r="E575" s="20"/>
-      <c r="G575" s="20"/>
+      <c r="A575" s="21"/>
+      <c r="E575" s="22"/>
+      <c r="G575" s="22"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="19"/>
-      <c r="E576" s="20"/>
-      <c r="G576" s="20"/>
+      <c r="A576" s="21"/>
+      <c r="E576" s="22"/>
+      <c r="G576" s="22"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="19"/>
-      <c r="E577" s="20"/>
-      <c r="G577" s="20"/>
+      <c r="A577" s="21"/>
+      <c r="E577" s="22"/>
+      <c r="G577" s="22"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="19"/>
-      <c r="E578" s="20"/>
-      <c r="G578" s="20"/>
+      <c r="A578" s="21"/>
+      <c r="E578" s="22"/>
+      <c r="G578" s="22"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="19"/>
-      <c r="E579" s="20"/>
-      <c r="G579" s="20"/>
+      <c r="A579" s="21"/>
+      <c r="E579" s="22"/>
+      <c r="G579" s="22"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="19"/>
-      <c r="E580" s="20"/>
-      <c r="G580" s="20"/>
+      <c r="A580" s="21"/>
+      <c r="E580" s="22"/>
+      <c r="G580" s="22"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="19"/>
-      <c r="E581" s="20"/>
-      <c r="G581" s="20"/>
+      <c r="A581" s="21"/>
+      <c r="E581" s="22"/>
+      <c r="G581" s="22"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="19"/>
-      <c r="E582" s="20"/>
-      <c r="G582" s="20"/>
+      <c r="A582" s="21"/>
+      <c r="E582" s="22"/>
+      <c r="G582" s="22"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="19"/>
-      <c r="E583" s="20"/>
-      <c r="G583" s="20"/>
+      <c r="A583" s="21"/>
+      <c r="E583" s="22"/>
+      <c r="G583" s="22"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="19"/>
-      <c r="E584" s="20"/>
-      <c r="G584" s="20"/>
+      <c r="A584" s="21"/>
+      <c r="E584" s="22"/>
+      <c r="G584" s="22"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="19"/>
-      <c r="E585" s="20"/>
-      <c r="G585" s="20"/>
+      <c r="A585" s="21"/>
+      <c r="E585" s="22"/>
+      <c r="G585" s="22"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="19"/>
-      <c r="E586" s="20"/>
-      <c r="G586" s="20"/>
+      <c r="A586" s="21"/>
+      <c r="E586" s="22"/>
+      <c r="G586" s="22"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="19"/>
-      <c r="E587" s="20"/>
-      <c r="G587" s="20"/>
+      <c r="A587" s="21"/>
+      <c r="E587" s="22"/>
+      <c r="G587" s="22"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="19"/>
-      <c r="E588" s="20"/>
-      <c r="G588" s="20"/>
+      <c r="A588" s="21"/>
+      <c r="E588" s="22"/>
+      <c r="G588" s="22"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="19"/>
-      <c r="E589" s="20"/>
-      <c r="G589" s="20"/>
+      <c r="A589" s="21"/>
+      <c r="E589" s="22"/>
+      <c r="G589" s="22"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="19"/>
-      <c r="E590" s="20"/>
-      <c r="G590" s="20"/>
+      <c r="A590" s="21"/>
+      <c r="E590" s="22"/>
+      <c r="G590" s="22"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="19"/>
-      <c r="E591" s="20"/>
-      <c r="G591" s="20"/>
+      <c r="A591" s="21"/>
+      <c r="E591" s="22"/>
+      <c r="G591" s="22"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="19"/>
-      <c r="E592" s="20"/>
-      <c r="G592" s="20"/>
+      <c r="A592" s="21"/>
+      <c r="E592" s="22"/>
+      <c r="G592" s="22"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="19"/>
-      <c r="E593" s="20"/>
-      <c r="G593" s="20"/>
+      <c r="A593" s="21"/>
+      <c r="E593" s="22"/>
+      <c r="G593" s="22"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="19"/>
-      <c r="E594" s="20"/>
-      <c r="G594" s="20"/>
+      <c r="A594" s="21"/>
+      <c r="E594" s="22"/>
+      <c r="G594" s="22"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="19"/>
-      <c r="E595" s="20"/>
-      <c r="G595" s="20"/>
+      <c r="A595" s="21"/>
+      <c r="E595" s="22"/>
+      <c r="G595" s="22"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="19"/>
-      <c r="E596" s="20"/>
-      <c r="G596" s="20"/>
+      <c r="A596" s="21"/>
+      <c r="E596" s="22"/>
+      <c r="G596" s="22"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="19"/>
-      <c r="E597" s="20"/>
-      <c r="G597" s="20"/>
+      <c r="A597" s="21"/>
+      <c r="E597" s="22"/>
+      <c r="G597" s="22"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="19"/>
-      <c r="E598" s="20"/>
-      <c r="G598" s="20"/>
+      <c r="A598" s="21"/>
+      <c r="E598" s="22"/>
+      <c r="G598" s="22"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="19"/>
-      <c r="E599" s="20"/>
-      <c r="G599" s="20"/>
+      <c r="A599" s="21"/>
+      <c r="E599" s="22"/>
+      <c r="G599" s="22"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="19"/>
-      <c r="E600" s="20"/>
-      <c r="G600" s="20"/>
+      <c r="A600" s="21"/>
+      <c r="E600" s="22"/>
+      <c r="G600" s="22"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="19"/>
-      <c r="E601" s="20"/>
-      <c r="G601" s="20"/>
+      <c r="A601" s="21"/>
+      <c r="E601" s="22"/>
+      <c r="G601" s="22"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="19"/>
-      <c r="E602" s="20"/>
-      <c r="G602" s="20"/>
+      <c r="A602" s="21"/>
+      <c r="E602" s="22"/>
+      <c r="G602" s="22"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="19"/>
-      <c r="E603" s="20"/>
-      <c r="G603" s="20"/>
+      <c r="A603" s="21"/>
+      <c r="E603" s="22"/>
+      <c r="G603" s="22"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="19"/>
-      <c r="E604" s="20"/>
-      <c r="G604" s="20"/>
+      <c r="A604" s="21"/>
+      <c r="E604" s="22"/>
+      <c r="G604" s="22"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="19"/>
-      <c r="E605" s="20"/>
-      <c r="G605" s="20"/>
+      <c r="A605" s="21"/>
+      <c r="E605" s="22"/>
+      <c r="G605" s="22"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="19"/>
-      <c r="E606" s="20"/>
-      <c r="G606" s="20"/>
+      <c r="A606" s="21"/>
+      <c r="E606" s="22"/>
+      <c r="G606" s="22"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="19"/>
-      <c r="E607" s="20"/>
-      <c r="G607" s="20"/>
+      <c r="A607" s="21"/>
+      <c r="E607" s="22"/>
+      <c r="G607" s="22"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="19"/>
-      <c r="E608" s="20"/>
-      <c r="G608" s="20"/>
+      <c r="A608" s="21"/>
+      <c r="E608" s="22"/>
+      <c r="G608" s="22"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="19"/>
-      <c r="E609" s="20"/>
-      <c r="G609" s="20"/>
+      <c r="A609" s="21"/>
+      <c r="E609" s="22"/>
+      <c r="G609" s="22"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="19"/>
-      <c r="E610" s="20"/>
-      <c r="G610" s="20"/>
+      <c r="A610" s="21"/>
+      <c r="E610" s="22"/>
+      <c r="G610" s="22"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="19"/>
-      <c r="E611" s="20"/>
-      <c r="G611" s="20"/>
+      <c r="A611" s="21"/>
+      <c r="E611" s="22"/>
+      <c r="G611" s="22"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="19"/>
-      <c r="E612" s="20"/>
-      <c r="G612" s="20"/>
+      <c r="A612" s="21"/>
+      <c r="E612" s="22"/>
+      <c r="G612" s="22"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="19"/>
-      <c r="E613" s="20"/>
-      <c r="G613" s="20"/>
+      <c r="A613" s="21"/>
+      <c r="E613" s="22"/>
+      <c r="G613" s="22"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="19"/>
-      <c r="E614" s="20"/>
-      <c r="G614" s="20"/>
+      <c r="A614" s="21"/>
+      <c r="E614" s="22"/>
+      <c r="G614" s="22"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="19"/>
-      <c r="E615" s="20"/>
-      <c r="G615" s="20"/>
+      <c r="A615" s="21"/>
+      <c r="E615" s="22"/>
+      <c r="G615" s="22"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="19"/>
-      <c r="E616" s="20"/>
-      <c r="G616" s="20"/>
+      <c r="A616" s="21"/>
+      <c r="E616" s="22"/>
+      <c r="G616" s="22"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="19"/>
-      <c r="E617" s="20"/>
-      <c r="G617" s="20"/>
+      <c r="A617" s="21"/>
+      <c r="E617" s="22"/>
+      <c r="G617" s="22"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="19"/>
-      <c r="E618" s="20"/>
-      <c r="G618" s="20"/>
+      <c r="A618" s="21"/>
+      <c r="E618" s="22"/>
+      <c r="G618" s="22"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="19"/>
-      <c r="E619" s="20"/>
-      <c r="G619" s="20"/>
+      <c r="A619" s="21"/>
+      <c r="E619" s="22"/>
+      <c r="G619" s="22"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="19"/>
-      <c r="E620" s="20"/>
-      <c r="G620" s="20"/>
+      <c r="A620" s="21"/>
+      <c r="E620" s="22"/>
+      <c r="G620" s="22"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="19"/>
-      <c r="E621" s="20"/>
-      <c r="G621" s="20"/>
+      <c r="A621" s="21"/>
+      <c r="E621" s="22"/>
+      <c r="G621" s="22"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="19"/>
-      <c r="E622" s="20"/>
-      <c r="G622" s="20"/>
+      <c r="A622" s="21"/>
+      <c r="E622" s="22"/>
+      <c r="G622" s="22"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="19"/>
-      <c r="E623" s="20"/>
-      <c r="G623" s="20"/>
+      <c r="A623" s="21"/>
+      <c r="E623" s="22"/>
+      <c r="G623" s="22"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="19"/>
-      <c r="E624" s="20"/>
-      <c r="G624" s="20"/>
+      <c r="A624" s="21"/>
+      <c r="E624" s="22"/>
+      <c r="G624" s="22"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="19"/>
-      <c r="E625" s="20"/>
-      <c r="G625" s="20"/>
+      <c r="A625" s="21"/>
+      <c r="E625" s="22"/>
+      <c r="G625" s="22"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="19"/>
-      <c r="E626" s="20"/>
-      <c r="G626" s="20"/>
+      <c r="A626" s="21"/>
+      <c r="E626" s="22"/>
+      <c r="G626" s="22"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="19"/>
-      <c r="E627" s="20"/>
-      <c r="G627" s="20"/>
+      <c r="A627" s="21"/>
+      <c r="E627" s="22"/>
+      <c r="G627" s="22"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="19"/>
-      <c r="E628" s="20"/>
-      <c r="G628" s="20"/>
+      <c r="A628" s="21"/>
+      <c r="E628" s="22"/>
+      <c r="G628" s="22"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="19"/>
-      <c r="E629" s="20"/>
-      <c r="G629" s="20"/>
+      <c r="A629" s="21"/>
+      <c r="E629" s="22"/>
+      <c r="G629" s="22"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="19"/>
-      <c r="E630" s="20"/>
-      <c r="G630" s="20"/>
+      <c r="A630" s="21"/>
+      <c r="E630" s="22"/>
+      <c r="G630" s="22"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="19"/>
-      <c r="E631" s="20"/>
-      <c r="G631" s="20"/>
+      <c r="A631" s="21"/>
+      <c r="E631" s="22"/>
+      <c r="G631" s="22"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="19"/>
-      <c r="E632" s="20"/>
-      <c r="G632" s="20"/>
+      <c r="A632" s="21"/>
+      <c r="E632" s="22"/>
+      <c r="G632" s="22"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="19"/>
-      <c r="E633" s="20"/>
-      <c r="G633" s="20"/>
+      <c r="A633" s="21"/>
+      <c r="E633" s="22"/>
+      <c r="G633" s="22"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="19"/>
-      <c r="E634" s="20"/>
-      <c r="G634" s="20"/>
+      <c r="A634" s="21"/>
+      <c r="E634" s="22"/>
+      <c r="G634" s="22"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="19"/>
-      <c r="E635" s="20"/>
-      <c r="G635" s="20"/>
+      <c r="A635" s="21"/>
+      <c r="E635" s="22"/>
+      <c r="G635" s="22"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="19"/>
-      <c r="E636" s="20"/>
-      <c r="G636" s="20"/>
+      <c r="A636" s="21"/>
+      <c r="E636" s="22"/>
+      <c r="G636" s="22"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="19"/>
-      <c r="E637" s="20"/>
-      <c r="G637" s="20"/>
+      <c r="A637" s="21"/>
+      <c r="E637" s="22"/>
+      <c r="G637" s="22"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="19"/>
-      <c r="E638" s="20"/>
-      <c r="G638" s="20"/>
+      <c r="A638" s="21"/>
+      <c r="E638" s="22"/>
+      <c r="G638" s="22"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="19"/>
-      <c r="E639" s="20"/>
-      <c r="G639" s="20"/>
+      <c r="A639" s="21"/>
+      <c r="E639" s="22"/>
+      <c r="G639" s="22"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="19"/>
-      <c r="E640" s="20"/>
-      <c r="G640" s="20"/>
+      <c r="A640" s="21"/>
+      <c r="E640" s="22"/>
+      <c r="G640" s="22"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="19"/>
-      <c r="E641" s="20"/>
-      <c r="G641" s="20"/>
+      <c r="A641" s="21"/>
+      <c r="E641" s="22"/>
+      <c r="G641" s="22"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="19"/>
-      <c r="E642" s="20"/>
-      <c r="G642" s="20"/>
+      <c r="A642" s="21"/>
+      <c r="E642" s="22"/>
+      <c r="G642" s="22"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="19"/>
-      <c r="E643" s="20"/>
-      <c r="G643" s="20"/>
+      <c r="A643" s="21"/>
+      <c r="E643" s="22"/>
+      <c r="G643" s="22"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="19"/>
-      <c r="E644" s="20"/>
-      <c r="G644" s="20"/>
+      <c r="A644" s="21"/>
+      <c r="E644" s="22"/>
+      <c r="G644" s="22"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="19"/>
-      <c r="E645" s="20"/>
-      <c r="G645" s="20"/>
+      <c r="A645" s="21"/>
+      <c r="E645" s="22"/>
+      <c r="G645" s="22"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="19"/>
-      <c r="E646" s="20"/>
-      <c r="G646" s="20"/>
+      <c r="A646" s="21"/>
+      <c r="E646" s="22"/>
+      <c r="G646" s="22"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="19"/>
-      <c r="E647" s="20"/>
-      <c r="G647" s="20"/>
+      <c r="A647" s="21"/>
+      <c r="E647" s="22"/>
+      <c r="G647" s="22"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="19"/>
-      <c r="E648" s="20"/>
-      <c r="G648" s="20"/>
+      <c r="A648" s="21"/>
+      <c r="E648" s="22"/>
+      <c r="G648" s="22"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="19"/>
-      <c r="E649" s="20"/>
-      <c r="G649" s="20"/>
+      <c r="A649" s="21"/>
+      <c r="E649" s="22"/>
+      <c r="G649" s="22"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="19"/>
-      <c r="E650" s="20"/>
-      <c r="G650" s="20"/>
+      <c r="A650" s="21"/>
+      <c r="E650" s="22"/>
+      <c r="G650" s="22"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="19"/>
-      <c r="E651" s="20"/>
-      <c r="G651" s="20"/>
+      <c r="A651" s="21"/>
+      <c r="E651" s="22"/>
+      <c r="G651" s="22"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="19"/>
-      <c r="E652" s="20"/>
-      <c r="G652" s="20"/>
+      <c r="A652" s="21"/>
+      <c r="E652" s="22"/>
+      <c r="G652" s="22"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="19"/>
-      <c r="E653" s="20"/>
-      <c r="G653" s="20"/>
+      <c r="A653" s="21"/>
+      <c r="E653" s="22"/>
+      <c r="G653" s="22"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="19"/>
-      <c r="E654" s="20"/>
-      <c r="G654" s="20"/>
+      <c r="A654" s="21"/>
+      <c r="E654" s="22"/>
+      <c r="G654" s="22"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="19"/>
-      <c r="E655" s="20"/>
-      <c r="G655" s="20"/>
+      <c r="A655" s="21"/>
+      <c r="E655" s="22"/>
+      <c r="G655" s="22"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="19"/>
-      <c r="E656" s="20"/>
-      <c r="G656" s="20"/>
+      <c r="A656" s="21"/>
+      <c r="E656" s="22"/>
+      <c r="G656" s="22"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="19"/>
-      <c r="E657" s="20"/>
-      <c r="G657" s="20"/>
+      <c r="A657" s="21"/>
+      <c r="E657" s="22"/>
+      <c r="G657" s="22"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="19"/>
-      <c r="E658" s="20"/>
-      <c r="G658" s="20"/>
+      <c r="A658" s="21"/>
+      <c r="E658" s="22"/>
+      <c r="G658" s="22"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="19"/>
-      <c r="E659" s="20"/>
-      <c r="G659" s="20"/>
+      <c r="A659" s="21"/>
+      <c r="E659" s="22"/>
+      <c r="G659" s="22"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="19"/>
-      <c r="E660" s="20"/>
-      <c r="G660" s="20"/>
+      <c r="A660" s="21"/>
+      <c r="E660" s="22"/>
+      <c r="G660" s="22"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="19"/>
-      <c r="E661" s="20"/>
-      <c r="G661" s="20"/>
+      <c r="A661" s="21"/>
+      <c r="E661" s="22"/>
+      <c r="G661" s="22"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="19"/>
-      <c r="E662" s="20"/>
-      <c r="G662" s="20"/>
+      <c r="A662" s="21"/>
+      <c r="E662" s="22"/>
+      <c r="G662" s="22"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="19"/>
-      <c r="E663" s="20"/>
-      <c r="G663" s="20"/>
+      <c r="A663" s="21"/>
+      <c r="E663" s="22"/>
+      <c r="G663" s="22"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="19"/>
-      <c r="E664" s="20"/>
-      <c r="G664" s="20"/>
+      <c r="A664" s="21"/>
+      <c r="E664" s="22"/>
+      <c r="G664" s="22"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="19"/>
-      <c r="E665" s="20"/>
-      <c r="G665" s="20"/>
+      <c r="A665" s="21"/>
+      <c r="E665" s="22"/>
+      <c r="G665" s="22"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="19"/>
-      <c r="E666" s="20"/>
-      <c r="G666" s="20"/>
+      <c r="A666" s="21"/>
+      <c r="E666" s="22"/>
+      <c r="G666" s="22"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="19"/>
-      <c r="E667" s="20"/>
-      <c r="G667" s="20"/>
+      <c r="A667" s="21"/>
+      <c r="E667" s="22"/>
+      <c r="G667" s="22"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="19"/>
-      <c r="E668" s="20"/>
-      <c r="G668" s="20"/>
+      <c r="A668" s="21"/>
+      <c r="E668" s="22"/>
+      <c r="G668" s="22"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="19"/>
-      <c r="E669" s="20"/>
-      <c r="G669" s="20"/>
+      <c r="A669" s="21"/>
+      <c r="E669" s="22"/>
+      <c r="G669" s="22"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="19"/>
-      <c r="E670" s="20"/>
-      <c r="G670" s="20"/>
+      <c r="A670" s="21"/>
+      <c r="E670" s="22"/>
+      <c r="G670" s="22"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="19"/>
-      <c r="E671" s="20"/>
-      <c r="G671" s="20"/>
+      <c r="A671" s="21"/>
+      <c r="E671" s="22"/>
+      <c r="G671" s="22"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="19"/>
-      <c r="E672" s="20"/>
-      <c r="G672" s="20"/>
+      <c r="A672" s="21"/>
+      <c r="E672" s="22"/>
+      <c r="G672" s="22"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="19"/>
-      <c r="E673" s="20"/>
-      <c r="G673" s="20"/>
+      <c r="A673" s="21"/>
+      <c r="E673" s="22"/>
+      <c r="G673" s="22"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="19"/>
-      <c r="E674" s="20"/>
-      <c r="G674" s="20"/>
+      <c r="A674" s="21"/>
+      <c r="E674" s="22"/>
+      <c r="G674" s="22"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="19"/>
-      <c r="E675" s="20"/>
-      <c r="G675" s="20"/>
+      <c r="A675" s="21"/>
+      <c r="E675" s="22"/>
+      <c r="G675" s="22"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="19"/>
-      <c r="E676" s="20"/>
-      <c r="G676" s="20"/>
+      <c r="A676" s="21"/>
+      <c r="E676" s="22"/>
+      <c r="G676" s="22"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="19"/>
-      <c r="E677" s="20"/>
-      <c r="G677" s="20"/>
+      <c r="A677" s="21"/>
+      <c r="E677" s="22"/>
+      <c r="G677" s="22"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="19"/>
-      <c r="E678" s="20"/>
-      <c r="G678" s="20"/>
+      <c r="A678" s="21"/>
+      <c r="E678" s="22"/>
+      <c r="G678" s="22"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="19"/>
-      <c r="E679" s="20"/>
-      <c r="G679" s="20"/>
+      <c r="A679" s="21"/>
+      <c r="E679" s="22"/>
+      <c r="G679" s="22"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="19"/>
-      <c r="E680" s="20"/>
-      <c r="G680" s="20"/>
+      <c r="A680" s="21"/>
+      <c r="E680" s="22"/>
+      <c r="G680" s="22"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="19"/>
-      <c r="E681" s="20"/>
-      <c r="G681" s="20"/>
+      <c r="A681" s="21"/>
+      <c r="E681" s="22"/>
+      <c r="G681" s="22"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="19"/>
-      <c r="E682" s="20"/>
-      <c r="G682" s="20"/>
+      <c r="A682" s="21"/>
+      <c r="E682" s="22"/>
+      <c r="G682" s="22"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="19"/>
-      <c r="E683" s="20"/>
-      <c r="G683" s="20"/>
+      <c r="A683" s="21"/>
+      <c r="E683" s="22"/>
+      <c r="G683" s="22"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="19"/>
-      <c r="E684" s="20"/>
-      <c r="G684" s="20"/>
+      <c r="A684" s="21"/>
+      <c r="E684" s="22"/>
+      <c r="G684" s="22"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="19"/>
-      <c r="E685" s="20"/>
-      <c r="G685" s="20"/>
+      <c r="A685" s="21"/>
+      <c r="E685" s="22"/>
+      <c r="G685" s="22"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="19"/>
-      <c r="E686" s="20"/>
-      <c r="G686" s="20"/>
+      <c r="A686" s="21"/>
+      <c r="E686" s="22"/>
+      <c r="G686" s="22"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="19"/>
-      <c r="E687" s="20"/>
-      <c r="G687" s="20"/>
+      <c r="A687" s="21"/>
+      <c r="E687" s="22"/>
+      <c r="G687" s="22"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="19"/>
-      <c r="E688" s="20"/>
-      <c r="G688" s="20"/>
+      <c r="A688" s="21"/>
+      <c r="E688" s="22"/>
+      <c r="G688" s="22"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="19"/>
-      <c r="E689" s="20"/>
-      <c r="G689" s="20"/>
+      <c r="A689" s="21"/>
+      <c r="E689" s="22"/>
+      <c r="G689" s="22"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="19"/>
-      <c r="E690" s="20"/>
-      <c r="G690" s="20"/>
+      <c r="A690" s="21"/>
+      <c r="E690" s="22"/>
+      <c r="G690" s="22"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="19"/>
-      <c r="E691" s="20"/>
-      <c r="G691" s="20"/>
+      <c r="A691" s="21"/>
+      <c r="E691" s="22"/>
+      <c r="G691" s="22"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="19"/>
-      <c r="E692" s="20"/>
-      <c r="G692" s="20"/>
+      <c r="A692" s="21"/>
+      <c r="E692" s="22"/>
+      <c r="G692" s="22"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="19"/>
-      <c r="E693" s="20"/>
-      <c r="G693" s="20"/>
+      <c r="A693" s="21"/>
+      <c r="E693" s="22"/>
+      <c r="G693" s="22"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="19"/>
-      <c r="E694" s="20"/>
-      <c r="G694" s="20"/>
+      <c r="A694" s="21"/>
+      <c r="E694" s="22"/>
+      <c r="G694" s="22"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="19"/>
-      <c r="E695" s="20"/>
-      <c r="G695" s="20"/>
+      <c r="A695" s="21"/>
+      <c r="E695" s="22"/>
+      <c r="G695" s="22"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="19"/>
-      <c r="E696" s="20"/>
-      <c r="G696" s="20"/>
+      <c r="A696" s="21"/>
+      <c r="E696" s="22"/>
+      <c r="G696" s="22"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="19"/>
-      <c r="E697" s="20"/>
-      <c r="G697" s="20"/>
+      <c r="A697" s="21"/>
+      <c r="E697" s="22"/>
+      <c r="G697" s="22"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="19"/>
-      <c r="E698" s="20"/>
-      <c r="G698" s="20"/>
+      <c r="A698" s="21"/>
+      <c r="E698" s="22"/>
+      <c r="G698" s="22"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="19"/>
-      <c r="E699" s="20"/>
-      <c r="G699" s="20"/>
+      <c r="A699" s="21"/>
+      <c r="E699" s="22"/>
+      <c r="G699" s="22"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="19"/>
-      <c r="E700" s="20"/>
-      <c r="G700" s="20"/>
+      <c r="A700" s="21"/>
+      <c r="E700" s="22"/>
+      <c r="G700" s="22"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="19"/>
-      <c r="E701" s="20"/>
-      <c r="G701" s="20"/>
+      <c r="A701" s="21"/>
+      <c r="E701" s="22"/>
+      <c r="G701" s="22"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="19"/>
-      <c r="E702" s="20"/>
-      <c r="G702" s="20"/>
+      <c r="A702" s="21"/>
+      <c r="E702" s="22"/>
+      <c r="G702" s="22"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="19"/>
-      <c r="E703" s="20"/>
-      <c r="G703" s="20"/>
+      <c r="A703" s="21"/>
+      <c r="E703" s="22"/>
+      <c r="G703" s="22"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="19"/>
-      <c r="E704" s="20"/>
-      <c r="G704" s="20"/>
+      <c r="A704" s="21"/>
+      <c r="E704" s="22"/>
+      <c r="G704" s="22"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="19"/>
-      <c r="E705" s="20"/>
-      <c r="G705" s="20"/>
+      <c r="A705" s="21"/>
+      <c r="E705" s="22"/>
+      <c r="G705" s="22"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="19"/>
-      <c r="E706" s="20"/>
-      <c r="G706" s="20"/>
+      <c r="A706" s="21"/>
+      <c r="E706" s="22"/>
+      <c r="G706" s="22"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="19"/>
-      <c r="E707" s="20"/>
-      <c r="G707" s="20"/>
+      <c r="A707" s="21"/>
+      <c r="E707" s="22"/>
+      <c r="G707" s="22"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="19"/>
-      <c r="E708" s="20"/>
-      <c r="G708" s="20"/>
+      <c r="A708" s="21"/>
+      <c r="E708" s="22"/>
+      <c r="G708" s="22"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="19"/>
-      <c r="E709" s="20"/>
-      <c r="G709" s="20"/>
+      <c r="A709" s="21"/>
+      <c r="E709" s="22"/>
+      <c r="G709" s="22"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="19"/>
-      <c r="E710" s="20"/>
-      <c r="G710" s="20"/>
+      <c r="A710" s="21"/>
+      <c r="E710" s="22"/>
+      <c r="G710" s="22"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="19"/>
-      <c r="E711" s="20"/>
-      <c r="G711" s="20"/>
+      <c r="A711" s="21"/>
+      <c r="E711" s="22"/>
+      <c r="G711" s="22"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="19"/>
-      <c r="E712" s="20"/>
-      <c r="G712" s="20"/>
+      <c r="A712" s="21"/>
+      <c r="E712" s="22"/>
+      <c r="G712" s="22"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="19"/>
-      <c r="E713" s="20"/>
-      <c r="G713" s="20"/>
+      <c r="A713" s="21"/>
+      <c r="E713" s="22"/>
+      <c r="G713" s="22"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="19"/>
-      <c r="E714" s="20"/>
-      <c r="G714" s="20"/>
+      <c r="A714" s="21"/>
+      <c r="E714" s="22"/>
+      <c r="G714" s="22"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="19"/>
-      <c r="E715" s="20"/>
-      <c r="G715" s="20"/>
+      <c r="A715" s="21"/>
+      <c r="E715" s="22"/>
+      <c r="G715" s="22"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="19"/>
-      <c r="E716" s="20"/>
-      <c r="G716" s="20"/>
+      <c r="A716" s="21"/>
+      <c r="E716" s="22"/>
+      <c r="G716" s="22"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="19"/>
-      <c r="E717" s="20"/>
-      <c r="G717" s="20"/>
+      <c r="A717" s="21"/>
+      <c r="E717" s="22"/>
+      <c r="G717" s="22"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="19"/>
-      <c r="E718" s="20"/>
-      <c r="G718" s="20"/>
+      <c r="A718" s="21"/>
+      <c r="E718" s="22"/>
+      <c r="G718" s="22"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="19"/>
-      <c r="E719" s="20"/>
-      <c r="G719" s="20"/>
+      <c r="A719" s="21"/>
+      <c r="E719" s="22"/>
+      <c r="G719" s="22"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="19"/>
-      <c r="E720" s="20"/>
-      <c r="G720" s="20"/>
+      <c r="A720" s="21"/>
+      <c r="E720" s="22"/>
+      <c r="G720" s="22"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="19"/>
-      <c r="E721" s="20"/>
-      <c r="G721" s="20"/>
+      <c r="A721" s="21"/>
+      <c r="E721" s="22"/>
+      <c r="G721" s="22"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="19"/>
-      <c r="E722" s="20"/>
-      <c r="G722" s="20"/>
+      <c r="A722" s="21"/>
+      <c r="E722" s="22"/>
+      <c r="G722" s="22"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="19"/>
-      <c r="E723" s="20"/>
-      <c r="G723" s="20"/>
+      <c r="A723" s="21"/>
+      <c r="E723" s="22"/>
+      <c r="G723" s="22"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="19"/>
-      <c r="E724" s="20"/>
-      <c r="G724" s="20"/>
+      <c r="A724" s="21"/>
+      <c r="E724" s="22"/>
+      <c r="G724" s="22"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="19"/>
-      <c r="E725" s="20"/>
-      <c r="G725" s="20"/>
+      <c r="A725" s="21"/>
+      <c r="E725" s="22"/>
+      <c r="G725" s="22"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="19"/>
-      <c r="E726" s="20"/>
-      <c r="G726" s="20"/>
+      <c r="A726" s="21"/>
+      <c r="E726" s="22"/>
+      <c r="G726" s="22"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="19"/>
-      <c r="E727" s="20"/>
-      <c r="G727" s="20"/>
+      <c r="A727" s="21"/>
+      <c r="E727" s="22"/>
+      <c r="G727" s="22"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="19"/>
-      <c r="E728" s="20"/>
-      <c r="G728" s="20"/>
+      <c r="A728" s="21"/>
+      <c r="E728" s="22"/>
+      <c r="G728" s="22"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="19"/>
-      <c r="E729" s="20"/>
-      <c r="G729" s="20"/>
+      <c r="A729" s="21"/>
+      <c r="E729" s="22"/>
+      <c r="G729" s="22"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="19"/>
-      <c r="E730" s="20"/>
-      <c r="G730" s="20"/>
+      <c r="A730" s="21"/>
+      <c r="E730" s="22"/>
+      <c r="G730" s="22"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="19"/>
-      <c r="E731" s="20"/>
-      <c r="G731" s="20"/>
+      <c r="A731" s="21"/>
+      <c r="E731" s="22"/>
+      <c r="G731" s="22"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="19"/>
-      <c r="E732" s="20"/>
-      <c r="G732" s="20"/>
+      <c r="A732" s="21"/>
+      <c r="E732" s="22"/>
+      <c r="G732" s="22"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="19"/>
-      <c r="E733" s="20"/>
-      <c r="G733" s="20"/>
+      <c r="A733" s="21"/>
+      <c r="E733" s="22"/>
+      <c r="G733" s="22"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="19"/>
-      <c r="E734" s="20"/>
-      <c r="G734" s="20"/>
+      <c r="A734" s="21"/>
+      <c r="E734" s="22"/>
+      <c r="G734" s="22"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="19"/>
-      <c r="E735" s="20"/>
-      <c r="G735" s="20"/>
+      <c r="A735" s="21"/>
+      <c r="E735" s="22"/>
+      <c r="G735" s="22"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="19"/>
-      <c r="E736" s="20"/>
-      <c r="G736" s="20"/>
+      <c r="A736" s="21"/>
+      <c r="E736" s="22"/>
+      <c r="G736" s="22"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="19"/>
-      <c r="E737" s="20"/>
-      <c r="G737" s="20"/>
+      <c r="A737" s="21"/>
+      <c r="E737" s="22"/>
+      <c r="G737" s="22"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="19"/>
-      <c r="E738" s="20"/>
-      <c r="G738" s="20"/>
+      <c r="A738" s="21"/>
+      <c r="E738" s="22"/>
+      <c r="G738" s="22"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="19"/>
-      <c r="E739" s="20"/>
-      <c r="G739" s="20"/>
+      <c r="A739" s="21"/>
+      <c r="E739" s="22"/>
+      <c r="G739" s="22"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="19"/>
-      <c r="E740" s="20"/>
-      <c r="G740" s="20"/>
+      <c r="A740" s="21"/>
+      <c r="E740" s="22"/>
+      <c r="G740" s="22"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="19"/>
-      <c r="E741" s="20"/>
-      <c r="G741" s="20"/>
+      <c r="A741" s="21"/>
+      <c r="E741" s="22"/>
+      <c r="G741" s="22"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="19"/>
-      <c r="E742" s="20"/>
-      <c r="G742" s="20"/>
+      <c r="A742" s="21"/>
+      <c r="E742" s="22"/>
+      <c r="G742" s="22"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="19"/>
-      <c r="E743" s="20"/>
-      <c r="G743" s="20"/>
+      <c r="A743" s="21"/>
+      <c r="E743" s="22"/>
+      <c r="G743" s="22"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="19"/>
-      <c r="E744" s="20"/>
-      <c r="G744" s="20"/>
+      <c r="A744" s="21"/>
+      <c r="E744" s="22"/>
+      <c r="G744" s="22"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="19"/>
-      <c r="E745" s="20"/>
-      <c r="G745" s="20"/>
+      <c r="A745" s="21"/>
+      <c r="E745" s="22"/>
+      <c r="G745" s="22"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="19"/>
-      <c r="E746" s="20"/>
-      <c r="G746" s="20"/>
+      <c r="A746" s="21"/>
+      <c r="E746" s="22"/>
+      <c r="G746" s="22"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="19"/>
-      <c r="E747" s="20"/>
-      <c r="G747" s="20"/>
+      <c r="A747" s="21"/>
+      <c r="E747" s="22"/>
+      <c r="G747" s="22"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="19"/>
-      <c r="E748" s="20"/>
-      <c r="G748" s="20"/>
+      <c r="A748" s="21"/>
+      <c r="E748" s="22"/>
+      <c r="G748" s="22"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="19"/>
-      <c r="E749" s="20"/>
-      <c r="G749" s="20"/>
+      <c r="A749" s="21"/>
+      <c r="E749" s="22"/>
+      <c r="G749" s="22"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="19"/>
-      <c r="E750" s="20"/>
-      <c r="G750" s="20"/>
+      <c r="A750" s="21"/>
+      <c r="E750" s="22"/>
+      <c r="G750" s="22"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="19"/>
-      <c r="E751" s="20"/>
-      <c r="G751" s="20"/>
+      <c r="A751" s="21"/>
+      <c r="E751" s="22"/>
+      <c r="G751" s="22"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="19"/>
-      <c r="E752" s="20"/>
-      <c r="G752" s="20"/>
+      <c r="A752" s="21"/>
+      <c r="E752" s="22"/>
+      <c r="G752" s="22"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="19"/>
-      <c r="E753" s="20"/>
-      <c r="G753" s="20"/>
+      <c r="A753" s="21"/>
+      <c r="E753" s="22"/>
+      <c r="G753" s="22"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="19"/>
-      <c r="E754" s="20"/>
-      <c r="G754" s="20"/>
+      <c r="A754" s="21"/>
+      <c r="E754" s="22"/>
+      <c r="G754" s="22"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="19"/>
-      <c r="E755" s="20"/>
-      <c r="G755" s="20"/>
+      <c r="A755" s="21"/>
+      <c r="E755" s="22"/>
+      <c r="G755" s="22"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="19"/>
-      <c r="E756" s="20"/>
-      <c r="G756" s="20"/>
+      <c r="A756" s="21"/>
+      <c r="E756" s="22"/>
+      <c r="G756" s="22"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="19"/>
-      <c r="E757" s="20"/>
-      <c r="G757" s="20"/>
+      <c r="A757" s="21"/>
+      <c r="E757" s="22"/>
+      <c r="G757" s="22"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="19"/>
-      <c r="E758" s="20"/>
-      <c r="G758" s="20"/>
+      <c r="A758" s="21"/>
+      <c r="E758" s="22"/>
+      <c r="G758" s="22"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="19"/>
-      <c r="E759" s="20"/>
-      <c r="G759" s="20"/>
+      <c r="A759" s="21"/>
+      <c r="E759" s="22"/>
+      <c r="G759" s="22"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="19"/>
-      <c r="E760" s="20"/>
-      <c r="G760" s="20"/>
+      <c r="A760" s="21"/>
+      <c r="E760" s="22"/>
+      <c r="G760" s="22"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="19"/>
-      <c r="E761" s="20"/>
-      <c r="G761" s="20"/>
+      <c r="A761" s="21"/>
+      <c r="E761" s="22"/>
+      <c r="G761" s="22"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="19"/>
-      <c r="E762" s="20"/>
-      <c r="G762" s="20"/>
+      <c r="A762" s="21"/>
+      <c r="E762" s="22"/>
+      <c r="G762" s="22"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="19"/>
-      <c r="E763" s="20"/>
-      <c r="G763" s="20"/>
+      <c r="A763" s="21"/>
+      <c r="E763" s="22"/>
+      <c r="G763" s="22"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="19"/>
-      <c r="E764" s="20"/>
-      <c r="G764" s="20"/>
+      <c r="A764" s="21"/>
+      <c r="E764" s="22"/>
+      <c r="G764" s="22"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="19"/>
-      <c r="E765" s="20"/>
-      <c r="G765" s="20"/>
+      <c r="A765" s="21"/>
+      <c r="E765" s="22"/>
+      <c r="G765" s="22"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="19"/>
-      <c r="E766" s="20"/>
-      <c r="G766" s="20"/>
+      <c r="A766" s="21"/>
+      <c r="E766" s="22"/>
+      <c r="G766" s="22"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="19"/>
-      <c r="E767" s="20"/>
-      <c r="G767" s="20"/>
+      <c r="A767" s="21"/>
+      <c r="E767" s="22"/>
+      <c r="G767" s="22"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="19"/>
-      <c r="E768" s="20"/>
-      <c r="G768" s="20"/>
+      <c r="A768" s="21"/>
+      <c r="E768" s="22"/>
+      <c r="G768" s="22"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="19"/>
-      <c r="E769" s="20"/>
-      <c r="G769" s="20"/>
+      <c r="A769" s="21"/>
+      <c r="E769" s="22"/>
+      <c r="G769" s="22"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="19"/>
-      <c r="E770" s="20"/>
-      <c r="G770" s="20"/>
+      <c r="A770" s="21"/>
+      <c r="E770" s="22"/>
+      <c r="G770" s="22"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="19"/>
-      <c r="E771" s="20"/>
-      <c r="G771" s="20"/>
+      <c r="A771" s="21"/>
+      <c r="E771" s="22"/>
+      <c r="G771" s="22"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="19"/>
-      <c r="E772" s="20"/>
-      <c r="G772" s="20"/>
+      <c r="A772" s="21"/>
+      <c r="E772" s="22"/>
+      <c r="G772" s="22"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="19"/>
-      <c r="E773" s="20"/>
-      <c r="G773" s="20"/>
+      <c r="A773" s="21"/>
+      <c r="E773" s="22"/>
+      <c r="G773" s="22"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="19"/>
-      <c r="E774" s="20"/>
-      <c r="G774" s="20"/>
+      <c r="A774" s="21"/>
+      <c r="E774" s="22"/>
+      <c r="G774" s="22"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="19"/>
-      <c r="E775" s="20"/>
-      <c r="G775" s="20"/>
+      <c r="A775" s="21"/>
+      <c r="E775" s="22"/>
+      <c r="G775" s="22"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="19"/>
-      <c r="E776" s="20"/>
-      <c r="G776" s="20"/>
+      <c r="A776" s="21"/>
+      <c r="E776" s="22"/>
+      <c r="G776" s="22"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="19"/>
-      <c r="E777" s="20"/>
-      <c r="G777" s="20"/>
+      <c r="A777" s="21"/>
+      <c r="E777" s="22"/>
+      <c r="G777" s="22"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="19"/>
-      <c r="E778" s="20"/>
-      <c r="G778" s="20"/>
+      <c r="A778" s="21"/>
+      <c r="E778" s="22"/>
+      <c r="G778" s="22"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="19"/>
-      <c r="E779" s="20"/>
-      <c r="G779" s="20"/>
+      <c r="A779" s="21"/>
+      <c r="E779" s="22"/>
+      <c r="G779" s="22"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="19"/>
-      <c r="E780" s="20"/>
-      <c r="G780" s="20"/>
+      <c r="A780" s="21"/>
+      <c r="E780" s="22"/>
+      <c r="G780" s="22"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="19"/>
-      <c r="E781" s="20"/>
-      <c r="G781" s="20"/>
+      <c r="A781" s="21"/>
+      <c r="E781" s="22"/>
+      <c r="G781" s="22"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="19"/>
-      <c r="E782" s="20"/>
-      <c r="G782" s="20"/>
+      <c r="A782" s="21"/>
+      <c r="E782" s="22"/>
+      <c r="G782" s="22"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="19"/>
-      <c r="E783" s="20"/>
-      <c r="G783" s="20"/>
+      <c r="A783" s="21"/>
+      <c r="E783" s="22"/>
+      <c r="G783" s="22"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="19"/>
-      <c r="E784" s="20"/>
-      <c r="G784" s="20"/>
+      <c r="A784" s="21"/>
+      <c r="E784" s="22"/>
+      <c r="G784" s="22"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="19"/>
-      <c r="E785" s="20"/>
-      <c r="G785" s="20"/>
+      <c r="A785" s="21"/>
+      <c r="E785" s="22"/>
+      <c r="G785" s="22"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="19"/>
-      <c r="E786" s="20"/>
-      <c r="G786" s="20"/>
+      <c r="A786" s="21"/>
+      <c r="E786" s="22"/>
+      <c r="G786" s="22"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="19"/>
-      <c r="E787" s="20"/>
-      <c r="G787" s="20"/>
+      <c r="A787" s="21"/>
+      <c r="E787" s="22"/>
+      <c r="G787" s="22"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="19"/>
-      <c r="E788" s="20"/>
-      <c r="G788" s="20"/>
+      <c r="A788" s="21"/>
+      <c r="E788" s="22"/>
+      <c r="G788" s="22"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="19"/>
-      <c r="E789" s="20"/>
-      <c r="G789" s="20"/>
+      <c r="A789" s="21"/>
+      <c r="E789" s="22"/>
+      <c r="G789" s="22"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="19"/>
-      <c r="E790" s="20"/>
-      <c r="G790" s="20"/>
+      <c r="A790" s="21"/>
+      <c r="E790" s="22"/>
+      <c r="G790" s="22"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="19"/>
-      <c r="E791" s="20"/>
-      <c r="G791" s="20"/>
+      <c r="A791" s="21"/>
+      <c r="E791" s="22"/>
+      <c r="G791" s="22"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="19"/>
-      <c r="E792" s="20"/>
-      <c r="G792" s="20"/>
+      <c r="A792" s="21"/>
+      <c r="E792" s="22"/>
+      <c r="G792" s="22"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="19"/>
-      <c r="E793" s="20"/>
-      <c r="G793" s="20"/>
+      <c r="A793" s="21"/>
+      <c r="E793" s="22"/>
+      <c r="G793" s="22"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="19"/>
-      <c r="E794" s="20"/>
-      <c r="G794" s="20"/>
+      <c r="A794" s="21"/>
+      <c r="E794" s="22"/>
+      <c r="G794" s="22"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="19"/>
-      <c r="E795" s="20"/>
-      <c r="G795" s="20"/>
+      <c r="A795" s="21"/>
+      <c r="E795" s="22"/>
+      <c r="G795" s="22"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="19"/>
-      <c r="E796" s="20"/>
-      <c r="G796" s="20"/>
+      <c r="A796" s="21"/>
+      <c r="E796" s="22"/>
+      <c r="G796" s="22"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="19"/>
-      <c r="E797" s="20"/>
-      <c r="G797" s="20"/>
+      <c r="A797" s="21"/>
+      <c r="E797" s="22"/>
+      <c r="G797" s="22"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="19"/>
-      <c r="E798" s="20"/>
-      <c r="G798" s="20"/>
+      <c r="A798" s="21"/>
+      <c r="E798" s="22"/>
+      <c r="G798" s="22"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="19"/>
-      <c r="E799" s="20"/>
-      <c r="G799" s="20"/>
+      <c r="A799" s="21"/>
+      <c r="E799" s="22"/>
+      <c r="G799" s="22"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="19"/>
-      <c r="E800" s="20"/>
-      <c r="G800" s="20"/>
+      <c r="A800" s="21"/>
+      <c r="E800" s="22"/>
+      <c r="G800" s="22"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="19"/>
-      <c r="E801" s="20"/>
-      <c r="G801" s="20"/>
+      <c r="A801" s="21"/>
+      <c r="E801" s="22"/>
+      <c r="G801" s="22"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="19"/>
-      <c r="E802" s="20"/>
-      <c r="G802" s="20"/>
+      <c r="A802" s="21"/>
+      <c r="E802" s="22"/>
+      <c r="G802" s="22"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="19"/>
-      <c r="E803" s="20"/>
-      <c r="G803" s="20"/>
+      <c r="A803" s="21"/>
+      <c r="E803" s="22"/>
+      <c r="G803" s="22"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="19"/>
-      <c r="E804" s="20"/>
-      <c r="G804" s="20"/>
+      <c r="A804" s="21"/>
+      <c r="E804" s="22"/>
+      <c r="G804" s="22"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="19"/>
-      <c r="E805" s="20"/>
-      <c r="G805" s="20"/>
+      <c r="A805" s="21"/>
+      <c r="E805" s="22"/>
+      <c r="G805" s="22"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="19"/>
-      <c r="E806" s="20"/>
-      <c r="G806" s="20"/>
+      <c r="A806" s="21"/>
+      <c r="E806" s="22"/>
+      <c r="G806" s="22"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="19"/>
-      <c r="E807" s="20"/>
-      <c r="G807" s="20"/>
+      <c r="A807" s="21"/>
+      <c r="E807" s="22"/>
+      <c r="G807" s="22"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="19"/>
-      <c r="E808" s="20"/>
-      <c r="G808" s="20"/>
+      <c r="A808" s="21"/>
+      <c r="E808" s="22"/>
+      <c r="G808" s="22"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="19"/>
-      <c r="E809" s="20"/>
-      <c r="G809" s="20"/>
+      <c r="A809" s="21"/>
+      <c r="E809" s="22"/>
+      <c r="G809" s="22"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="19"/>
-      <c r="E810" s="20"/>
-      <c r="G810" s="20"/>
+      <c r="A810" s="21"/>
+      <c r="E810" s="22"/>
+      <c r="G810" s="22"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="19"/>
-      <c r="E811" s="20"/>
-      <c r="G811" s="20"/>
+      <c r="A811" s="21"/>
+      <c r="E811" s="22"/>
+      <c r="G811" s="22"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="19"/>
-      <c r="E812" s="20"/>
-      <c r="G812" s="20"/>
+      <c r="A812" s="21"/>
+      <c r="E812" s="22"/>
+      <c r="G812" s="22"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="19"/>
-      <c r="E813" s="20"/>
-      <c r="G813" s="20"/>
+      <c r="A813" s="21"/>
+      <c r="E813" s="22"/>
+      <c r="G813" s="22"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="19"/>
-      <c r="E814" s="20"/>
-      <c r="G814" s="20"/>
+      <c r="A814" s="21"/>
+      <c r="E814" s="22"/>
+      <c r="G814" s="22"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="19"/>
-      <c r="E815" s="20"/>
-      <c r="G815" s="20"/>
+      <c r="A815" s="21"/>
+      <c r="E815" s="22"/>
+      <c r="G815" s="22"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="19"/>
-      <c r="E816" s="20"/>
-      <c r="G816" s="20"/>
+      <c r="A816" s="21"/>
+      <c r="E816" s="22"/>
+      <c r="G816" s="22"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="19"/>
-      <c r="E817" s="20"/>
-      <c r="G817" s="20"/>
+      <c r="A817" s="21"/>
+      <c r="E817" s="22"/>
+      <c r="G817" s="22"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="19"/>
-      <c r="E818" s="20"/>
-      <c r="G818" s="20"/>
+      <c r="A818" s="21"/>
+      <c r="E818" s="22"/>
+      <c r="G818" s="22"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="19"/>
-      <c r="E819" s="20"/>
-      <c r="G819" s="20"/>
+      <c r="A819" s="21"/>
+      <c r="E819" s="22"/>
+      <c r="G819" s="22"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="19"/>
-      <c r="E820" s="20"/>
-      <c r="G820" s="20"/>
+      <c r="A820" s="21"/>
+      <c r="E820" s="22"/>
+      <c r="G820" s="22"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="19"/>
-      <c r="E821" s="20"/>
-      <c r="G821" s="20"/>
+      <c r="A821" s="21"/>
+      <c r="E821" s="22"/>
+      <c r="G821" s="22"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="19"/>
-      <c r="E822" s="20"/>
-      <c r="G822" s="20"/>
+      <c r="A822" s="21"/>
+      <c r="E822" s="22"/>
+      <c r="G822" s="22"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="19"/>
-      <c r="E823" s="20"/>
-      <c r="G823" s="20"/>
+      <c r="A823" s="21"/>
+      <c r="E823" s="22"/>
+      <c r="G823" s="22"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="19"/>
-      <c r="E824" s="20"/>
-      <c r="G824" s="20"/>
+      <c r="A824" s="21"/>
+      <c r="E824" s="22"/>
+      <c r="G824" s="22"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="19"/>
-      <c r="E825" s="20"/>
-      <c r="G825" s="20"/>
+      <c r="A825" s="21"/>
+      <c r="E825" s="22"/>
+      <c r="G825" s="22"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="19"/>
-      <c r="E826" s="20"/>
-      <c r="G826" s="20"/>
+      <c r="A826" s="21"/>
+      <c r="E826" s="22"/>
+      <c r="G826" s="22"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="19"/>
-      <c r="E827" s="20"/>
-      <c r="G827" s="20"/>
+      <c r="A827" s="21"/>
+      <c r="E827" s="22"/>
+      <c r="G827" s="22"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="19"/>
-      <c r="E828" s="20"/>
-      <c r="G828" s="20"/>
+      <c r="A828" s="21"/>
+      <c r="E828" s="22"/>
+      <c r="G828" s="22"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="19"/>
-      <c r="E829" s="20"/>
-      <c r="G829" s="20"/>
+      <c r="A829" s="21"/>
+      <c r="E829" s="22"/>
+      <c r="G829" s="22"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="19"/>
-      <c r="E830" s="20"/>
-      <c r="G830" s="20"/>
+      <c r="A830" s="21"/>
+      <c r="E830" s="22"/>
+      <c r="G830" s="22"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="19"/>
-      <c r="E831" s="20"/>
-      <c r="G831" s="20"/>
+      <c r="A831" s="21"/>
+      <c r="E831" s="22"/>
+      <c r="G831" s="22"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="19"/>
-      <c r="E832" s="20"/>
-      <c r="G832" s="20"/>
+      <c r="A832" s="21"/>
+      <c r="E832" s="22"/>
+      <c r="G832" s="22"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="19"/>
-      <c r="E833" s="20"/>
-      <c r="G833" s="20"/>
+      <c r="A833" s="21"/>
+      <c r="E833" s="22"/>
+      <c r="G833" s="22"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="19"/>
-      <c r="E834" s="20"/>
-      <c r="G834" s="20"/>
+      <c r="A834" s="21"/>
+      <c r="E834" s="22"/>
+      <c r="G834" s="22"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="19"/>
-      <c r="E835" s="20"/>
-      <c r="G835" s="20"/>
+      <c r="A835" s="21"/>
+      <c r="E835" s="22"/>
+      <c r="G835" s="22"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="19"/>
-      <c r="E836" s="20"/>
-      <c r="G836" s="20"/>
+      <c r="A836" s="21"/>
+      <c r="E836" s="22"/>
+      <c r="G836" s="22"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="19"/>
-      <c r="E837" s="20"/>
-      <c r="G837" s="20"/>
+      <c r="A837" s="21"/>
+      <c r="E837" s="22"/>
+      <c r="G837" s="22"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="19"/>
-      <c r="E838" s="20"/>
-      <c r="G838" s="20"/>
+      <c r="A838" s="21"/>
+      <c r="E838" s="22"/>
+      <c r="G838" s="22"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="19"/>
-      <c r="E839" s="20"/>
-      <c r="G839" s="20"/>
+      <c r="A839" s="21"/>
+      <c r="E839" s="22"/>
+      <c r="G839" s="22"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="19"/>
-      <c r="E840" s="20"/>
-      <c r="G840" s="20"/>
+      <c r="A840" s="21"/>
+      <c r="E840" s="22"/>
+      <c r="G840" s="22"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="19"/>
-      <c r="E841" s="20"/>
-      <c r="G841" s="20"/>
+      <c r="A841" s="21"/>
+      <c r="E841" s="22"/>
+      <c r="G841" s="22"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="19"/>
-      <c r="E842" s="20"/>
-      <c r="G842" s="20"/>
+      <c r="A842" s="21"/>
+      <c r="E842" s="22"/>
+      <c r="G842" s="22"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="19"/>
-      <c r="E843" s="20"/>
-      <c r="G843" s="20"/>
+      <c r="A843" s="21"/>
+      <c r="E843" s="22"/>
+      <c r="G843" s="22"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="19"/>
-      <c r="E844" s="20"/>
-      <c r="G844" s="20"/>
+      <c r="A844" s="21"/>
+      <c r="E844" s="22"/>
+      <c r="G844" s="22"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="19"/>
-      <c r="E845" s="20"/>
-      <c r="G845" s="20"/>
+      <c r="A845" s="21"/>
+      <c r="E845" s="22"/>
+      <c r="G845" s="22"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="19"/>
-      <c r="E846" s="20"/>
-      <c r="G846" s="20"/>
+      <c r="A846" s="21"/>
+      <c r="E846" s="22"/>
+      <c r="G846" s="22"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="19"/>
-      <c r="E847" s="20"/>
-      <c r="G847" s="20"/>
+      <c r="A847" s="21"/>
+      <c r="E847" s="22"/>
+      <c r="G847" s="22"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="19"/>
-      <c r="E848" s="20"/>
-      <c r="G848" s="20"/>
+      <c r="A848" s="21"/>
+      <c r="E848" s="22"/>
+      <c r="G848" s="22"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="19"/>
-      <c r="E849" s="20"/>
-      <c r="G849" s="20"/>
+      <c r="A849" s="21"/>
+      <c r="E849" s="22"/>
+      <c r="G849" s="22"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="19"/>
-      <c r="E850" s="20"/>
-      <c r="G850" s="20"/>
+      <c r="A850" s="21"/>
+      <c r="E850" s="22"/>
+      <c r="G850" s="22"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="19"/>
-      <c r="E851" s="20"/>
-      <c r="G851" s="20"/>
+      <c r="A851" s="21"/>
+      <c r="E851" s="22"/>
+      <c r="G851" s="22"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="19"/>
-      <c r="E852" s="20"/>
-      <c r="G852" s="20"/>
+      <c r="A852" s="21"/>
+      <c r="E852" s="22"/>
+      <c r="G852" s="22"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="19"/>
-      <c r="E853" s="20"/>
-      <c r="G853" s="20"/>
+      <c r="A853" s="21"/>
+      <c r="E853" s="22"/>
+      <c r="G853" s="22"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="19"/>
-      <c r="E854" s="20"/>
-      <c r="G854" s="20"/>
+      <c r="A854" s="21"/>
+      <c r="E854" s="22"/>
+      <c r="G854" s="22"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="19"/>
-      <c r="E855" s="20"/>
-      <c r="G855" s="20"/>
+      <c r="A855" s="21"/>
+      <c r="E855" s="22"/>
+      <c r="G855" s="22"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="19"/>
-      <c r="E856" s="20"/>
-      <c r="G856" s="20"/>
+      <c r="A856" s="21"/>
+      <c r="E856" s="22"/>
+      <c r="G856" s="22"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="19"/>
-      <c r="E857" s="20"/>
-      <c r="G857" s="20"/>
+      <c r="A857" s="21"/>
+      <c r="E857" s="22"/>
+      <c r="G857" s="22"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="19"/>
-      <c r="E858" s="20"/>
-      <c r="G858" s="20"/>
+      <c r="A858" s="21"/>
+      <c r="E858" s="22"/>
+      <c r="G858" s="22"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="19"/>
-      <c r="E859" s="20"/>
-      <c r="G859" s="20"/>
+      <c r="A859" s="21"/>
+      <c r="E859" s="22"/>
+      <c r="G859" s="22"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="19"/>
-      <c r="E860" s="20"/>
-      <c r="G860" s="20"/>
+      <c r="A860" s="21"/>
+      <c r="E860" s="22"/>
+      <c r="G860" s="22"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="19"/>
-      <c r="E861" s="20"/>
-      <c r="G861" s="20"/>
+      <c r="A861" s="21"/>
+      <c r="E861" s="22"/>
+      <c r="G861" s="22"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="19"/>
-      <c r="E862" s="20"/>
-      <c r="G862" s="20"/>
+      <c r="A862" s="21"/>
+      <c r="E862" s="22"/>
+      <c r="G862" s="22"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="19"/>
-      <c r="E863" s="20"/>
-      <c r="G863" s="20"/>
+      <c r="A863" s="21"/>
+      <c r="E863" s="22"/>
+      <c r="G863" s="22"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="19"/>
-      <c r="E864" s="20"/>
-      <c r="G864" s="20"/>
+      <c r="A864" s="21"/>
+      <c r="E864" s="22"/>
+      <c r="G864" s="22"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="19"/>
-      <c r="E865" s="20"/>
-      <c r="G865" s="20"/>
+      <c r="A865" s="21"/>
+      <c r="E865" s="22"/>
+      <c r="G865" s="22"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="19"/>
-      <c r="E866" s="20"/>
-      <c r="G866" s="20"/>
+      <c r="A866" s="21"/>
+      <c r="E866" s="22"/>
+      <c r="G866" s="22"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="19"/>
-      <c r="E867" s="20"/>
-      <c r="G867" s="20"/>
+      <c r="A867" s="21"/>
+      <c r="E867" s="22"/>
+      <c r="G867" s="22"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="19"/>
-      <c r="E868" s="20"/>
-      <c r="G868" s="20"/>
+      <c r="A868" s="21"/>
+      <c r="E868" s="22"/>
+      <c r="G868" s="22"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="19"/>
-      <c r="E869" s="20"/>
-      <c r="G869" s="20"/>
+      <c r="A869" s="21"/>
+      <c r="E869" s="22"/>
+      <c r="G869" s="22"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="19"/>
-      <c r="E870" s="20"/>
-      <c r="G870" s="20"/>
+      <c r="A870" s="21"/>
+      <c r="E870" s="22"/>
+      <c r="G870" s="22"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="19"/>
-      <c r="E871" s="20"/>
-      <c r="G871" s="20"/>
+      <c r="A871" s="21"/>
+      <c r="E871" s="22"/>
+      <c r="G871" s="22"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="19"/>
-      <c r="E872" s="20"/>
-      <c r="G872" s="20"/>
+      <c r="A872" s="21"/>
+      <c r="E872" s="22"/>
+      <c r="G872" s="22"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="19"/>
-      <c r="E873" s="20"/>
-      <c r="G873" s="20"/>
+      <c r="A873" s="21"/>
+      <c r="E873" s="22"/>
+      <c r="G873" s="22"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="19"/>
-      <c r="E874" s="20"/>
-      <c r="G874" s="20"/>
+      <c r="A874" s="21"/>
+      <c r="E874" s="22"/>
+      <c r="G874" s="22"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="19"/>
-      <c r="E875" s="20"/>
-      <c r="G875" s="20"/>
+      <c r="A875" s="21"/>
+      <c r="E875" s="22"/>
+      <c r="G875" s="22"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="19"/>
-      <c r="E876" s="20"/>
-      <c r="G876" s="20"/>
+      <c r="A876" s="21"/>
+      <c r="E876" s="22"/>
+      <c r="G876" s="22"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="19"/>
-      <c r="E877" s="20"/>
-      <c r="G877" s="20"/>
+      <c r="A877" s="21"/>
+      <c r="E877" s="22"/>
+      <c r="G877" s="22"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="19"/>
-      <c r="E878" s="20"/>
-      <c r="G878" s="20"/>
+      <c r="A878" s="21"/>
+      <c r="E878" s="22"/>
+      <c r="G878" s="22"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="19"/>
-      <c r="E879" s="20"/>
-      <c r="G879" s="20"/>
+      <c r="A879" s="21"/>
+      <c r="E879" s="22"/>
+      <c r="G879" s="22"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="19"/>
-      <c r="E880" s="20"/>
-      <c r="G880" s="20"/>
+      <c r="A880" s="21"/>
+      <c r="E880" s="22"/>
+      <c r="G880" s="22"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="19"/>
-      <c r="E881" s="20"/>
-      <c r="G881" s="20"/>
+      <c r="A881" s="21"/>
+      <c r="E881" s="22"/>
+      <c r="G881" s="22"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="19"/>
-      <c r="E882" s="20"/>
-      <c r="G882" s="20"/>
+      <c r="A882" s="21"/>
+      <c r="E882" s="22"/>
+      <c r="G882" s="22"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="19"/>
-      <c r="E883" s="20"/>
-      <c r="G883" s="20"/>
+      <c r="A883" s="21"/>
+      <c r="E883" s="22"/>
+      <c r="G883" s="22"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="19"/>
-      <c r="E884" s="20"/>
-      <c r="G884" s="20"/>
+      <c r="A884" s="21"/>
+      <c r="E884" s="22"/>
+      <c r="G884" s="22"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="19"/>
-      <c r="E885" s="20"/>
-      <c r="G885" s="20"/>
+      <c r="A885" s="21"/>
+      <c r="E885" s="22"/>
+      <c r="G885" s="22"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="19"/>
-      <c r="E886" s="20"/>
-      <c r="G886" s="20"/>
+      <c r="A886" s="21"/>
+      <c r="E886" s="22"/>
+      <c r="G886" s="22"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="19"/>
-      <c r="E887" s="20"/>
-      <c r="G887" s="20"/>
+      <c r="A887" s="21"/>
+      <c r="E887" s="22"/>
+      <c r="G887" s="22"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="19"/>
-      <c r="E888" s="20"/>
-      <c r="G888" s="20"/>
+      <c r="A888" s="21"/>
+      <c r="E888" s="22"/>
+      <c r="G888" s="22"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="19"/>
-      <c r="E889" s="20"/>
-      <c r="G889" s="20"/>
+      <c r="A889" s="21"/>
+      <c r="E889" s="22"/>
+      <c r="G889" s="22"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="19"/>
-      <c r="E890" s="20"/>
-      <c r="G890" s="20"/>
+      <c r="A890" s="21"/>
+      <c r="E890" s="22"/>
+      <c r="G890" s="22"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="19"/>
-      <c r="E891" s="20"/>
-      <c r="G891" s="20"/>
+      <c r="A891" s="21"/>
+      <c r="E891" s="22"/>
+      <c r="G891" s="22"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="19"/>
-      <c r="E892" s="20"/>
-      <c r="G892" s="20"/>
+      <c r="A892" s="21"/>
+      <c r="E892" s="22"/>
+      <c r="G892" s="22"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="19"/>
-      <c r="E893" s="20"/>
-      <c r="G893" s="20"/>
+      <c r="A893" s="21"/>
+      <c r="E893" s="22"/>
+      <c r="G893" s="22"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="19"/>
-      <c r="E894" s="20"/>
-      <c r="G894" s="20"/>
+      <c r="A894" s="21"/>
+      <c r="E894" s="22"/>
+      <c r="G894" s="22"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="19"/>
-      <c r="E895" s="20"/>
-      <c r="G895" s="20"/>
+      <c r="A895" s="21"/>
+      <c r="E895" s="22"/>
+      <c r="G895" s="22"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="19"/>
-      <c r="E896" s="20"/>
-      <c r="G896" s="20"/>
+      <c r="A896" s="21"/>
+      <c r="E896" s="22"/>
+      <c r="G896" s="22"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="19"/>
-      <c r="E897" s="20"/>
-      <c r="G897" s="20"/>
+      <c r="A897" s="21"/>
+      <c r="E897" s="22"/>
+      <c r="G897" s="22"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="19"/>
-      <c r="E898" s="20"/>
-      <c r="G898" s="20"/>
+      <c r="A898" s="21"/>
+      <c r="E898" s="22"/>
+      <c r="G898" s="22"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="19"/>
-      <c r="E899" s="20"/>
-      <c r="G899" s="20"/>
+      <c r="A899" s="21"/>
+      <c r="E899" s="22"/>
+      <c r="G899" s="22"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="19"/>
-      <c r="E900" s="20"/>
-      <c r="G900" s="20"/>
+      <c r="A900" s="21"/>
+      <c r="E900" s="22"/>
+      <c r="G900" s="22"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="19"/>
-      <c r="E901" s="20"/>
-      <c r="G901" s="20"/>
+      <c r="A901" s="21"/>
+      <c r="E901" s="22"/>
+      <c r="G901" s="22"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="19"/>
-      <c r="E902" s="20"/>
-      <c r="G902" s="20"/>
+      <c r="A902" s="21"/>
+      <c r="E902" s="22"/>
+      <c r="G902" s="22"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="19"/>
-      <c r="E903" s="20"/>
-      <c r="G903" s="20"/>
+      <c r="A903" s="21"/>
+      <c r="E903" s="22"/>
+      <c r="G903" s="22"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="19"/>
-      <c r="E904" s="20"/>
-      <c r="G904" s="20"/>
+      <c r="A904" s="21"/>
+      <c r="E904" s="22"/>
+      <c r="G904" s="22"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="19"/>
-      <c r="E905" s="20"/>
-      <c r="G905" s="20"/>
+      <c r="A905" s="21"/>
+      <c r="E905" s="22"/>
+      <c r="G905" s="22"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="19"/>
-      <c r="E906" s="20"/>
-      <c r="G906" s="20"/>
+      <c r="A906" s="21"/>
+      <c r="E906" s="22"/>
+      <c r="G906" s="22"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="19"/>
-      <c r="E907" s="20"/>
-      <c r="G907" s="20"/>
+      <c r="A907" s="21"/>
+      <c r="E907" s="22"/>
+      <c r="G907" s="22"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="19"/>
-      <c r="E908" s="20"/>
-      <c r="G908" s="20"/>
+      <c r="A908" s="21"/>
+      <c r="E908" s="22"/>
+      <c r="G908" s="22"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="19"/>
-      <c r="E909" s="20"/>
-      <c r="G909" s="20"/>
+      <c r="A909" s="21"/>
+      <c r="E909" s="22"/>
+      <c r="G909" s="22"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="19"/>
-      <c r="E910" s="20"/>
-      <c r="G910" s="20"/>
+      <c r="A910" s="21"/>
+      <c r="E910" s="22"/>
+      <c r="G910" s="22"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="19"/>
-      <c r="E911" s="20"/>
-      <c r="G911" s="20"/>
+      <c r="A911" s="21"/>
+      <c r="E911" s="22"/>
+      <c r="G911" s="22"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="19"/>
-      <c r="E912" s="20"/>
-      <c r="G912" s="20"/>
+      <c r="A912" s="21"/>
+      <c r="E912" s="22"/>
+      <c r="G912" s="22"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="19"/>
-      <c r="E913" s="20"/>
-      <c r="G913" s="20"/>
+      <c r="A913" s="21"/>
+      <c r="E913" s="22"/>
+      <c r="G913" s="22"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="19"/>
-      <c r="E914" s="20"/>
-      <c r="G914" s="20"/>
+      <c r="A914" s="21"/>
+      <c r="E914" s="22"/>
+      <c r="G914" s="22"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="19"/>
-      <c r="E915" s="20"/>
-      <c r="G915" s="20"/>
+      <c r="A915" s="21"/>
+      <c r="E915" s="22"/>
+      <c r="G915" s="22"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="19"/>
-      <c r="E916" s="20"/>
-      <c r="G916" s="20"/>
+      <c r="A916" s="21"/>
+      <c r="E916" s="22"/>
+      <c r="G916" s="22"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="19"/>
-      <c r="E917" s="20"/>
-      <c r="G917" s="20"/>
+      <c r="A917" s="21"/>
+      <c r="E917" s="22"/>
+      <c r="G917" s="22"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="19"/>
-      <c r="E918" s="20"/>
-      <c r="G918" s="20"/>
+      <c r="A918" s="21"/>
+      <c r="E918" s="22"/>
+      <c r="G918" s="22"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="19"/>
-      <c r="E919" s="20"/>
-      <c r="G919" s="20"/>
+      <c r="A919" s="21"/>
+      <c r="E919" s="22"/>
+      <c r="G919" s="22"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="19"/>
-      <c r="E920" s="20"/>
-      <c r="G920" s="20"/>
+      <c r="A920" s="21"/>
+      <c r="E920" s="22"/>
+      <c r="G920" s="22"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="19"/>
-      <c r="E921" s="20"/>
-      <c r="G921" s="20"/>
+      <c r="A921" s="21"/>
+      <c r="E921" s="22"/>
+      <c r="G921" s="22"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="19"/>
-      <c r="E922" s="20"/>
-      <c r="G922" s="20"/>
+      <c r="A922" s="21"/>
+      <c r="E922" s="22"/>
+      <c r="G922" s="22"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="19"/>
-      <c r="E923" s="20"/>
-      <c r="G923" s="20"/>
+      <c r="A923" s="21"/>
+      <c r="E923" s="22"/>
+      <c r="G923" s="22"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="19"/>
-      <c r="E924" s="20"/>
-      <c r="G924" s="20"/>
+      <c r="A924" s="21"/>
+      <c r="E924" s="22"/>
+      <c r="G924" s="22"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="19"/>
-      <c r="E925" s="20"/>
-      <c r="G925" s="20"/>
+      <c r="A925" s="21"/>
+      <c r="E925" s="22"/>
+      <c r="G925" s="22"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="19"/>
-      <c r="E926" s="20"/>
-      <c r="G926" s="20"/>
+      <c r="A926" s="21"/>
+      <c r="E926" s="22"/>
+      <c r="G926" s="22"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="19"/>
-      <c r="E927" s="20"/>
-      <c r="G927" s="20"/>
+      <c r="A927" s="21"/>
+      <c r="E927" s="22"/>
+      <c r="G927" s="22"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="19"/>
-      <c r="E928" s="20"/>
-      <c r="G928" s="20"/>
+      <c r="A928" s="21"/>
+      <c r="E928" s="22"/>
+      <c r="G928" s="22"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="19"/>
-      <c r="E929" s="20"/>
-      <c r="G929" s="20"/>
+      <c r="A929" s="21"/>
+      <c r="E929" s="22"/>
+      <c r="G929" s="22"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="19"/>
-      <c r="E930" s="20"/>
-      <c r="G930" s="20"/>
+      <c r="A930" s="21"/>
+      <c r="E930" s="22"/>
+      <c r="G930" s="22"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="19"/>
-      <c r="E931" s="20"/>
-      <c r="G931" s="20"/>
+      <c r="A931" s="21"/>
+      <c r="E931" s="22"/>
+      <c r="G931" s="22"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="19"/>
-      <c r="E932" s="20"/>
-      <c r="G932" s="20"/>
+      <c r="A932" s="21"/>
+      <c r="E932" s="22"/>
+      <c r="G932" s="22"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="19"/>
-      <c r="E933" s="20"/>
-      <c r="G933" s="20"/>
+      <c r="A933" s="21"/>
+      <c r="E933" s="22"/>
+      <c r="G933" s="22"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="19"/>
-      <c r="E934" s="20"/>
-      <c r="G934" s="20"/>
+      <c r="A934" s="21"/>
+      <c r="E934" s="22"/>
+      <c r="G934" s="22"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="19"/>
-      <c r="E935" s="20"/>
-      <c r="G935" s="20"/>
+      <c r="A935" s="21"/>
+      <c r="E935" s="22"/>
+      <c r="G935" s="22"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="19"/>
-      <c r="E936" s="20"/>
-      <c r="G936" s="20"/>
+      <c r="A936" s="21"/>
+      <c r="E936" s="22"/>
+      <c r="G936" s="22"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="19"/>
-      <c r="E937" s="20"/>
-      <c r="G937" s="20"/>
+      <c r="A937" s="21"/>
+      <c r="E937" s="22"/>
+      <c r="G937" s="22"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="19"/>
-      <c r="E938" s="20"/>
-      <c r="G938" s="20"/>
+      <c r="A938" s="21"/>
+      <c r="E938" s="22"/>
+      <c r="G938" s="22"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="19"/>
-      <c r="E939" s="20"/>
-      <c r="G939" s="20"/>
+      <c r="A939" s="21"/>
+      <c r="E939" s="22"/>
+      <c r="G939" s="22"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="19"/>
-      <c r="E940" s="20"/>
-      <c r="G940" s="20"/>
+      <c r="A940" s="21"/>
+      <c r="E940" s="22"/>
+      <c r="G940" s="22"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="19"/>
-      <c r="E941" s="20"/>
-      <c r="G941" s="20"/>
+      <c r="A941" s="21"/>
+      <c r="E941" s="22"/>
+      <c r="G941" s="22"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="19"/>
-      <c r="E942" s="20"/>
-      <c r="G942" s="20"/>
+      <c r="A942" s="21"/>
+      <c r="E942" s="22"/>
+      <c r="G942" s="22"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="19"/>
-      <c r="E943" s="20"/>
-      <c r="G943" s="20"/>
+      <c r="A943" s="21"/>
+      <c r="E943" s="22"/>
+      <c r="G943" s="22"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="19"/>
-      <c r="E944" s="20"/>
-      <c r="G944" s="20"/>
+      <c r="A944" s="21"/>
+      <c r="E944" s="22"/>
+      <c r="G944" s="22"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="19"/>
-      <c r="E945" s="20"/>
-      <c r="G945" s="20"/>
+      <c r="A945" s="21"/>
+      <c r="E945" s="22"/>
+      <c r="G945" s="22"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="19"/>
-      <c r="E946" s="20"/>
-      <c r="G946" s="20"/>
+      <c r="A946" s="21"/>
+      <c r="E946" s="22"/>
+      <c r="G946" s="22"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="19"/>
-      <c r="E947" s="20"/>
-      <c r="G947" s="20"/>
+      <c r="A947" s="21"/>
+      <c r="E947" s="22"/>
+      <c r="G947" s="22"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="19"/>
-      <c r="E948" s="20"/>
-      <c r="G948" s="20"/>
+      <c r="A948" s="21"/>
+      <c r="E948" s="22"/>
+      <c r="G948" s="22"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="19"/>
-      <c r="E949" s="20"/>
-      <c r="G949" s="20"/>
+      <c r="A949" s="21"/>
+      <c r="E949" s="22"/>
+      <c r="G949" s="22"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="19"/>
-      <c r="E950" s="20"/>
-      <c r="G950" s="20"/>
+      <c r="A950" s="21"/>
+      <c r="E950" s="22"/>
+      <c r="G950" s="22"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="19"/>
-      <c r="E951" s="20"/>
-      <c r="G951" s="20"/>
+      <c r="A951" s="21"/>
+      <c r="E951" s="22"/>
+      <c r="G951" s="22"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="19"/>
-      <c r="E952" s="20"/>
-      <c r="G952" s="20"/>
+      <c r="A952" s="21"/>
+      <c r="E952" s="22"/>
+      <c r="G952" s="22"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="19"/>
-      <c r="E953" s="20"/>
-      <c r="G953" s="20"/>
+      <c r="A953" s="21"/>
+      <c r="E953" s="22"/>
+      <c r="G953" s="22"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="19"/>
-      <c r="E954" s="20"/>
-      <c r="G954" s="20"/>
+      <c r="A954" s="21"/>
+      <c r="E954" s="22"/>
+      <c r="G954" s="22"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="19"/>
-      <c r="E955" s="20"/>
-      <c r="G955" s="20"/>
+      <c r="A955" s="21"/>
+      <c r="E955" s="22"/>
+      <c r="G955" s="22"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="19"/>
-      <c r="E956" s="20"/>
-      <c r="G956" s="20"/>
+      <c r="A956" s="21"/>
+      <c r="E956" s="22"/>
+      <c r="G956" s="22"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="19"/>
-      <c r="E957" s="20"/>
-      <c r="G957" s="20"/>
+      <c r="A957" s="21"/>
+      <c r="E957" s="22"/>
+      <c r="G957" s="22"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="19"/>
-      <c r="E958" s="20"/>
-      <c r="G958" s="20"/>
+      <c r="A958" s="21"/>
+      <c r="E958" s="22"/>
+      <c r="G958" s="22"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="19"/>
-      <c r="E959" s="20"/>
-      <c r="G959" s="20"/>
+      <c r="A959" s="21"/>
+      <c r="E959" s="22"/>
+      <c r="G959" s="22"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="19"/>
-      <c r="E960" s="20"/>
-      <c r="G960" s="20"/>
+      <c r="A960" s="21"/>
+      <c r="E960" s="22"/>
+      <c r="G960" s="22"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="19"/>
-      <c r="E961" s="20"/>
-      <c r="G961" s="20"/>
+      <c r="A961" s="21"/>
+      <c r="E961" s="22"/>
+      <c r="G961" s="22"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="19"/>
-      <c r="E962" s="20"/>
-      <c r="G962" s="20"/>
+      <c r="A962" s="21"/>
+      <c r="E962" s="22"/>
+      <c r="G962" s="22"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="19"/>
-      <c r="E963" s="20"/>
-      <c r="G963" s="20"/>
+      <c r="A963" s="21"/>
+      <c r="E963" s="22"/>
+      <c r="G963" s="22"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="19"/>
-      <c r="E964" s="20"/>
-      <c r="G964" s="20"/>
+      <c r="A964" s="21"/>
+      <c r="E964" s="22"/>
+      <c r="G964" s="22"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="19"/>
-      <c r="E965" s="20"/>
-      <c r="G965" s="20"/>
+      <c r="A965" s="21"/>
+      <c r="E965" s="22"/>
+      <c r="G965" s="22"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="19"/>
-      <c r="E966" s="20"/>
-      <c r="G966" s="20"/>
+      <c r="A966" s="21"/>
+      <c r="E966" s="22"/>
+      <c r="G966" s="22"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="19"/>
-      <c r="E967" s="20"/>
-      <c r="G967" s="20"/>
+      <c r="A967" s="21"/>
+      <c r="E967" s="22"/>
+      <c r="G967" s="22"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="19"/>
-      <c r="E968" s="20"/>
-      <c r="G968" s="20"/>
+      <c r="A968" s="21"/>
+      <c r="E968" s="22"/>
+      <c r="G968" s="22"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="19"/>
-      <c r="E969" s="20"/>
-      <c r="G969" s="20"/>
+      <c r="A969" s="21"/>
+      <c r="E969" s="22"/>
+      <c r="G969" s="22"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="19"/>
-      <c r="E970" s="20"/>
-      <c r="G970" s="20"/>
+      <c r="A970" s="21"/>
+      <c r="E970" s="22"/>
+      <c r="G970" s="22"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="19"/>
-      <c r="E971" s="20"/>
-      <c r="G971" s="20"/>
+      <c r="A971" s="21"/>
+      <c r="E971" s="22"/>
+      <c r="G971" s="22"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="19"/>
-      <c r="E972" s="20"/>
-      <c r="G972" s="20"/>
+      <c r="A972" s="21"/>
+      <c r="E972" s="22"/>
+      <c r="G972" s="22"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="19"/>
-      <c r="E973" s="20"/>
-      <c r="G973" s="20"/>
+      <c r="A973" s="21"/>
+      <c r="E973" s="22"/>
+      <c r="G973" s="22"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="19"/>
-      <c r="E974" s="20"/>
-      <c r="G974" s="20"/>
+      <c r="A974" s="21"/>
+      <c r="E974" s="22"/>
+      <c r="G974" s="22"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="19"/>
-      <c r="E975" s="20"/>
-      <c r="G975" s="20"/>
+      <c r="A975" s="21"/>
+      <c r="E975" s="22"/>
+      <c r="G975" s="22"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="19"/>
-      <c r="E976" s="20"/>
-      <c r="G976" s="20"/>
+      <c r="A976" s="21"/>
+      <c r="E976" s="22"/>
+      <c r="G976" s="22"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="19"/>
-      <c r="E977" s="20"/>
-      <c r="G977" s="20"/>
+      <c r="A977" s="21"/>
+      <c r="E977" s="22"/>
+      <c r="G977" s="22"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="19"/>
-      <c r="E978" s="20"/>
-      <c r="G978" s="20"/>
+      <c r="A978" s="21"/>
+      <c r="E978" s="22"/>
+      <c r="G978" s="22"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="19"/>
-      <c r="E979" s="20"/>
-      <c r="G979" s="20"/>
+      <c r="A979" s="21"/>
+      <c r="E979" s="22"/>
+      <c r="G979" s="22"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="19"/>
-      <c r="E980" s="20"/>
-      <c r="G980" s="20"/>
+      <c r="A980" s="21"/>
+      <c r="E980" s="22"/>
+      <c r="G980" s="22"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="19"/>
-      <c r="E981" s="20"/>
-      <c r="G981" s="20"/>
+      <c r="A981" s="21"/>
+      <c r="E981" s="22"/>
+      <c r="G981" s="22"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="19"/>
-      <c r="E982" s="20"/>
-      <c r="G982" s="20"/>
+      <c r="A982" s="21"/>
+      <c r="E982" s="22"/>
+      <c r="G982" s="22"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="19"/>
-      <c r="E983" s="20"/>
-      <c r="G983" s="20"/>
+      <c r="A983" s="21"/>
+      <c r="E983" s="22"/>
+      <c r="G983" s="22"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="19"/>
-      <c r="E984" s="20"/>
-      <c r="G984" s="20"/>
+      <c r="A984" s="21"/>
+      <c r="E984" s="22"/>
+      <c r="G984" s="22"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="19"/>
-      <c r="E985" s="20"/>
-      <c r="G985" s="20"/>
+      <c r="A985" s="21"/>
+      <c r="E985" s="22"/>
+      <c r="G985" s="22"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="19"/>
-      <c r="E986" s="20"/>
-      <c r="G986" s="20"/>
+      <c r="A986" s="21"/>
+      <c r="E986" s="22"/>
+      <c r="G986" s="22"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="19"/>
-      <c r="E987" s="20"/>
-      <c r="G987" s="20"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="19"/>
-      <c r="E988" s="20"/>
-      <c r="G988" s="20"/>
+      <c r="A987" s="21"/>
+      <c r="E987" s="22"/>
+      <c r="G987" s="22"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="21"/>
+      <c r="E988" s="22"/>
+      <c r="G988" s="22"/>
     </row>
     <row r="989">
-      <c r="A989" s="19"/>
-      <c r="E989" s="20"/>
-      <c r="G989" s="20"/>
+      <c r="A989" s="21"/>
+      <c r="E989" s="22"/>
+      <c r="G989" s="22"/>
     </row>
     <row r="990">
-      <c r="A990" s="19"/>
-      <c r="E990" s="20"/>
-      <c r="G990" s="20"/>
+      <c r="A990" s="21"/>
+      <c r="E990" s="22"/>
+      <c r="G990" s="22"/>
     </row>
     <row r="991">
-      <c r="A991" s="19"/>
-      <c r="E991" s="20"/>
-      <c r="G991" s="20"/>
+      <c r="A991" s="21"/>
+      <c r="E991" s="22"/>
+      <c r="G991" s="22"/>
     </row>
     <row r="992">
-      <c r="A992" s="19"/>
-      <c r="E992" s="20"/>
-      <c r="G992" s="20"/>
+      <c r="A992" s="21"/>
+      <c r="E992" s="22"/>
+      <c r="G992" s="22"/>
     </row>
     <row r="993">
-      <c r="A993" s="19"/>
-      <c r="E993" s="20"/>
-      <c r="G993" s="20"/>
+      <c r="A993" s="21"/>
+      <c r="E993" s="22"/>
+      <c r="G993" s="22"/>
     </row>
     <row r="994">
-      <c r="A994" s="19"/>
-      <c r="E994" s="20"/>
-      <c r="G994" s="20"/>
+      <c r="A994" s="21"/>
+      <c r="E994" s="22"/>
+      <c r="G994" s="22"/>
     </row>
     <row r="995">
-      <c r="A995" s="19"/>
-      <c r="E995" s="20"/>
-      <c r="G995" s="20"/>
+      <c r="A995" s="21"/>
+      <c r="E995" s="22"/>
+      <c r="G995" s="22"/>
     </row>
     <row r="996">
-      <c r="A996" s="19"/>
-      <c r="E996" s="20"/>
-      <c r="G996" s="20"/>
+      <c r="A996" s="21"/>
+      <c r="E996" s="22"/>
+      <c r="G996" s="22"/>
     </row>
     <row r="997">
-      <c r="A997" s="19"/>
-      <c r="E997" s="20"/>
-      <c r="G997" s="20"/>
+      <c r="A997" s="21"/>
+      <c r="E997" s="22"/>
+      <c r="G997" s="22"/>
     </row>
     <row r="998">
-      <c r="A998" s="19"/>
-      <c r="E998" s="20"/>
-      <c r="G998" s="20"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="19"/>
-      <c r="E999" s="20"/>
-      <c r="G999" s="20"/>
+      <c r="A998" s="21"/>
+      <c r="E998" s="22"/>
+      <c r="G998" s="22"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -7639,7 +7946,12 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -7655,55 +7967,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="23" t="s">
+      <c r="C1" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>113</v>
+      <c r="N1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2">
@@ -7722,22 +8034,22 @@
       <c r="E2" s="17">
         <v>1.0</v>
       </c>
-      <c r="F2" s="24" t="str">
-        <f t="shared" ref="F2:F27" si="1">CONCATENATE(UPPER(G2),REPT(".",30-LEN(G2)))</f>
+      <c r="F2" s="26" t="str">
+        <f t="shared" ref="F2:F36" si="1">CONCATENATE(UPPER(G2),REPT(".",30-LEN(G2)))</f>
         <v>IMP.RT.EQU.001.CRE.01.........</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="20" t="str">
-        <f t="shared" ref="H2:H27" si="2">F2</f>
+        <v>149</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f t="shared" ref="H2:H36" si="2">F2</f>
         <v>IMP.RT.EQU.001.CRE.01.........</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>19</v>
@@ -7754,11 +8066,11 @@
       <c r="O2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>116</v>
+      <c r="P2" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -7777,14 +8089,14 @@
       <c r="E3" s="17">
         <v>2.0</v>
       </c>
-      <c r="F3" s="24" t="str">
+      <c r="F3" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.EQU.001.LEC.01.........</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="20" t="str">
+        <v>152</v>
+      </c>
+      <c r="H3" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.EQU.001.LEC.01.........</v>
       </c>
@@ -7792,7 +8104,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>19</v>
@@ -7809,11 +8121,11 @@
       <c r="O3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>116</v>
+      <c r="P3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -7832,14 +8144,14 @@
       <c r="E4" s="17">
         <v>3.0</v>
       </c>
-      <c r="F4" s="24" t="str">
+      <c r="F4" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.EQU.001.MAJ.01.........</v>
       </c>
-      <c r="G4" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="20" t="str">
+      <c r="G4" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.EQU.001.MAJ.01.........</v>
       </c>
@@ -7847,7 +8159,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>19</v>
@@ -7864,11 +8176,11 @@
       <c r="O4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="25" t="s">
-        <v>116</v>
+      <c r="P4" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -7887,14 +8199,14 @@
       <c r="E5" s="17">
         <v>4.0</v>
       </c>
-      <c r="F5" s="24" t="str">
+      <c r="F5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.UPD.RT.EQU.001.MAJ.01.....</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="20" t="str">
+        <v>154</v>
+      </c>
+      <c r="H5" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.UPD.RT.EQU.001.MAJ.01.....</v>
       </c>
@@ -7902,7 +8214,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>19</v>
@@ -7919,11 +8231,11 @@
       <c r="O5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="25" t="s">
-        <v>116</v>
+      <c r="P5" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -7942,14 +8254,14 @@
       <c r="E6" s="17">
         <v>5.0</v>
       </c>
-      <c r="F6" s="24" t="str">
+      <c r="F6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.EQU.001.SUP.01.........</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="20" t="str">
+        <v>155</v>
+      </c>
+      <c r="H6" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.EQU.001.SUP.01.........</v>
       </c>
@@ -7957,7 +8269,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>19</v>
@@ -7974,11 +8286,11 @@
       <c r="O6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>116</v>
+      <c r="P6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -7997,14 +8309,14 @@
       <c r="E7" s="17">
         <v>6.0</v>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="F7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.EQU.001.REC.01.........</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="20" t="str">
+        <v>156</v>
+      </c>
+      <c r="H7" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.EQU.001.REC.01.........</v>
       </c>
@@ -8012,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>19</v>
@@ -8029,11 +8341,11 @@
       <c r="O7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>116</v>
+      <c r="P7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -8052,14 +8364,14 @@
       <c r="E8" s="17">
         <v>7.0</v>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="F8" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.CRE.01.........</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="20" t="str">
+        <v>157</v>
+      </c>
+      <c r="H8" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.CRE.01.........</v>
       </c>
@@ -8067,7 +8379,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>19</v>
@@ -8084,11 +8396,11 @@
       <c r="O8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>116</v>
+      <c r="P8" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -8107,14 +8419,14 @@
       <c r="E9" s="17">
         <v>8.0</v>
       </c>
-      <c r="F9" s="24" t="str">
+      <c r="F9" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.CRE.02.........</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="20" t="str">
+        <v>158</v>
+      </c>
+      <c r="H9" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.CRE.02.........</v>
       </c>
@@ -8122,7 +8434,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>19</v>
@@ -8139,11 +8451,11 @@
       <c r="O9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>116</v>
+      <c r="P9" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -8162,14 +8474,14 @@
       <c r="E10" s="17">
         <v>9.0</v>
       </c>
-      <c r="F10" s="24" t="str">
+      <c r="F10" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.CRE.03.........</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="20" t="str">
+        <v>159</v>
+      </c>
+      <c r="H10" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.CRE.03.........</v>
       </c>
@@ -8177,7 +8489,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>19</v>
@@ -8194,11 +8506,11 @@
       <c r="O10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>116</v>
+      <c r="P10" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -8217,14 +8529,14 @@
       <c r="E11" s="17">
         <v>10.0</v>
       </c>
-      <c r="F11" s="24" t="str">
+      <c r="F11" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.CRE.04.........</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="20" t="str">
+        <v>160</v>
+      </c>
+      <c r="H11" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.CRE.04.........</v>
       </c>
@@ -8232,7 +8544,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>19</v>
@@ -8249,11 +8561,11 @@
       <c r="O11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>116</v>
+      <c r="P11" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -8272,14 +8584,14 @@
       <c r="E12" s="17">
         <v>11.0</v>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="F12" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.CRE.05.........</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="20" t="str">
+        <v>161</v>
+      </c>
+      <c r="H12" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.CRE.05.........</v>
       </c>
@@ -8287,7 +8599,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>19</v>
@@ -8304,11 +8616,11 @@
       <c r="O12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>116</v>
+      <c r="P12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13">
@@ -8327,14 +8639,14 @@
       <c r="E13" s="17">
         <v>12.0</v>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.CRE.06.........</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="20" t="str">
+        <v>162</v>
+      </c>
+      <c r="H13" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.CRE.06.........</v>
       </c>
@@ -8342,7 +8654,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>19</v>
@@ -8359,11 +8671,11 @@
       <c r="O13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>116</v>
+      <c r="P13" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -8382,14 +8694,14 @@
       <c r="E14" s="17">
         <v>13.0</v>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="F14" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.CRE.07.........</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="20" t="str">
+        <v>163</v>
+      </c>
+      <c r="H14" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.CRE.07.........</v>
       </c>
@@ -8397,7 +8709,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>19</v>
@@ -8414,11 +8726,11 @@
       <c r="O14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>116</v>
+      <c r="P14" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -8437,14 +8749,14 @@
       <c r="E15" s="17">
         <v>14.0</v>
       </c>
-      <c r="F15" s="24" t="str">
+      <c r="F15" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.LEC.01.........</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="20" t="str">
+        <v>164</v>
+      </c>
+      <c r="H15" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.LEC.01.........</v>
       </c>
@@ -8452,7 +8764,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>19</v>
@@ -8469,11 +8781,11 @@
       <c r="O15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="25" t="s">
-        <v>116</v>
+      <c r="P15" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -8492,14 +8804,14 @@
       <c r="E16" s="17">
         <v>15.0</v>
       </c>
-      <c r="F16" s="24" t="str">
+      <c r="F16" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.UPD.RT.MAT.001.MAJ.01.....</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" s="20" t="str">
+        <v>165</v>
+      </c>
+      <c r="H16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.UPD.RT.MAT.001.MAJ.01.....</v>
       </c>
@@ -8507,7 +8819,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>19</v>
@@ -8524,11 +8836,11 @@
       <c r="O16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" s="25" t="s">
-        <v>116</v>
+      <c r="P16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17">
@@ -8547,14 +8859,14 @@
       <c r="E17" s="17">
         <v>16.0</v>
       </c>
-      <c r="F17" s="24" t="str">
+      <c r="F17" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.MAJ.01.........</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="20" t="str">
+        <v>166</v>
+      </c>
+      <c r="H17" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.MAJ.01.........</v>
       </c>
@@ -8562,7 +8874,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>19</v>
@@ -8579,11 +8891,11 @@
       <c r="O17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="25" t="s">
-        <v>116</v>
+      <c r="P17" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -8602,14 +8914,14 @@
       <c r="E18" s="17">
         <v>17.0</v>
       </c>
-      <c r="F18" s="24" t="str">
+      <c r="F18" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.SUP.01.........</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="20" t="str">
+        <v>167</v>
+      </c>
+      <c r="H18" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.SUP.01.........</v>
       </c>
@@ -8617,7 +8929,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>19</v>
@@ -8634,11 +8946,11 @@
       <c r="O18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="25" t="s">
-        <v>116</v>
+      <c r="P18" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19">
@@ -8657,14 +8969,14 @@
       <c r="E19" s="17">
         <v>18.0</v>
       </c>
-      <c r="F19" s="24" t="str">
+      <c r="F19" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.RT.MAT.001.REC.01.........</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="20" t="str">
+        <v>168</v>
+      </c>
+      <c r="H19" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.RT.MAT.001.REC.01.........</v>
       </c>
@@ -8672,7 +8984,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>19</v>
@@ -8689,11 +9001,11 @@
       <c r="O19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19" s="25" t="s">
-        <v>116</v>
+      <c r="P19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -8712,14 +9024,14 @@
       <c r="E20" s="17">
         <v>19.0</v>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="F20" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.TR.BTR.001.CRE.01.........</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.TR.BTR.001.CRE.01.........</v>
       </c>
@@ -8727,7 +9039,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>19</v>
@@ -8744,11 +9056,11 @@
       <c r="O20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P20" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="25" t="s">
-        <v>116</v>
+      <c r="P20" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -8767,14 +9079,14 @@
       <c r="E21" s="17">
         <v>20.0</v>
       </c>
-      <c r="F21" s="24" t="str">
+      <c r="F21" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.TR.BTR.001.CRE.02.........</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.TR.BTR.001.CRE.02.........</v>
       </c>
@@ -8782,7 +9094,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>19</v>
@@ -8799,11 +9111,11 @@
       <c r="O21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q21" s="25" t="s">
-        <v>116</v>
+      <c r="P21" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22">
@@ -8822,14 +9134,14 @@
       <c r="E22" s="17">
         <v>21.0</v>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="F22" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.TR.BTR.001.CRE.03.........</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.TR.BTR.001.CRE.03.........</v>
       </c>
@@ -8837,7 +9149,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>19</v>
@@ -8854,11 +9166,11 @@
       <c r="O22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>116</v>
+      <c r="P22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23">
@@ -8877,14 +9189,14 @@
       <c r="E23" s="17">
         <v>22.0</v>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="F23" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.TR.BTR.001.LEC.01.........</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.TR.BTR.001.LEC.01.........</v>
       </c>
@@ -8892,7 +9204,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>19</v>
@@ -8909,11 +9221,11 @@
       <c r="O23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>116</v>
+      <c r="P23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24">
@@ -8932,14 +9244,14 @@
       <c r="E24" s="17">
         <v>23.0</v>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="F24" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.UPD.TR.BTR.001.MAJ.01.....</v>
       </c>
@@ -8947,7 +9259,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>19</v>
@@ -8964,11 +9276,11 @@
       <c r="O24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>116</v>
+      <c r="P24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -8987,14 +9299,14 @@
       <c r="E25" s="17">
         <v>24.0</v>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="F25" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.TR.BTR.001.MAJ.01.........</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.TR.BTR.001.MAJ.01.........</v>
       </c>
@@ -9002,7 +9314,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>19</v>
@@ -9019,11 +9331,11 @@
       <c r="O25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P25" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25" s="25" t="s">
-        <v>116</v>
+      <c r="P25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="26">
@@ -9042,14 +9354,14 @@
       <c r="E26" s="17">
         <v>25.0</v>
       </c>
-      <c r="F26" s="24" t="str">
+      <c r="F26" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.TR.BTR.001.SUP.01.........</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.TR.BTR.001.SUP.01.........</v>
       </c>
@@ -9057,7 +9369,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>19</v>
@@ -9074,11 +9386,11 @@
       <c r="O26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q26" s="25" t="s">
-        <v>116</v>
+      <c r="P26" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27">
@@ -9097,14 +9409,14 @@
       <c r="E27" s="17">
         <v>26.0</v>
       </c>
-      <c r="F27" s="24" t="str">
+      <c r="F27" s="26" t="str">
         <f t="shared" si="1"/>
         <v>IMP.TR.BTR.001.REC.01.........</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="22" t="str">
         <f t="shared" si="2"/>
         <v>IMP.TR.BTR.001.REC.01.........</v>
       </c>
@@ -9112,7 +9424,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>19</v>
@@ -9129,11 +9441,506 @@
       <c r="O27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="25" t="s">
+      <c r="P27" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1026.0</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>27.0</v>
+      </c>
+      <c r="F28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.CRE.01.........</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.CRE.01.........</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1027.0</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>28.0</v>
+      </c>
+      <c r="F29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.CRE.02.........</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.CRE.02.........</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="17">
+        <v>1028.0</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>29.0</v>
+      </c>
+      <c r="F30" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.CRE.03.........</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.CRE.03.........</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1029.0</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>30.0</v>
+      </c>
+      <c r="F31" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.CRE.04.........</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.CRE.04.........</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="Q27" s="25" t="s">
-        <v>116</v>
+      <c r="N31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1030.0</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>31.0</v>
+      </c>
+      <c r="F32" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.LEC.01.........</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.LEC.01.........</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1031.0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="17">
+        <v>32.0</v>
+      </c>
+      <c r="F33" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.UPD.RO.ORG.001.MAJ.01.....</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.UPD.RO.ORG.001.MAJ.01.....</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1032.0</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="17">
+        <v>33.0</v>
+      </c>
+      <c r="F34" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.MAJ.01.........</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.MAJ.01.........</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1033.0</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="17">
+        <v>34.0</v>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.SUP.01.........</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.SUP.01.........</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="17">
+        <v>1034.0</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="17">
+        <v>35.0</v>
+      </c>
+      <c r="F36" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP.RO.ORG.001.REC.01.........</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>IMP.RO.ORG.001.REC.01.........</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_PREJDD/PREJDD.RO.IMP.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.IMP.xlsx
@@ -470,7 +470,7 @@
     <t>IMP.RT.EQU.001.CRE.01</t>
   </si>
   <si>
-    <t>$TBD</t>
+    <t>$TBD*$NULL</t>
   </si>
   <si>
     <t>$DATETIMESYS</t>

--- a/TNR_PREJDD/PREJDD.RO.IMP.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.IMP.xlsx
@@ -470,7 +470,7 @@
     <t>IMP.RT.EQU.001.CRE.01</t>
   </si>
   <si>
-    <t>$TBD*$NULL</t>
+    <t>$NULL</t>
   </si>
   <si>
     <t>$DATETIMESYS</t>
@@ -8048,7 +8048,7 @@
       <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="16" t="s">
@@ -8103,7 +8103,7 @@
       <c r="I3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K3" s="16" t="s">
@@ -8158,7 +8158,7 @@
       <c r="I4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -8213,7 +8213,7 @@
       <c r="I5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K5" s="16" t="s">
@@ -8268,7 +8268,7 @@
       <c r="I6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K6" s="16" t="s">
@@ -8323,7 +8323,7 @@
       <c r="I7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K7" s="16" t="s">
@@ -8378,7 +8378,7 @@
       <c r="I8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K8" s="16" t="s">
@@ -8433,7 +8433,7 @@
       <c r="I9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K9" s="16" t="s">
@@ -8488,7 +8488,7 @@
       <c r="I10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K10" s="16" t="s">
@@ -8543,7 +8543,7 @@
       <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K11" s="16" t="s">
@@ -8598,7 +8598,7 @@
       <c r="I12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K12" s="16" t="s">
@@ -8653,7 +8653,7 @@
       <c r="I13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K13" s="16" t="s">
@@ -8708,7 +8708,7 @@
       <c r="I14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K14" s="16" t="s">
@@ -8763,7 +8763,7 @@
       <c r="I15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K15" s="16" t="s">
@@ -8818,7 +8818,7 @@
       <c r="I16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K16" s="16" t="s">
@@ -8873,7 +8873,7 @@
       <c r="I17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K17" s="16" t="s">
@@ -8928,7 +8928,7 @@
       <c r="I18" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K18" s="16" t="s">
@@ -8983,7 +8983,7 @@
       <c r="I19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K19" s="16" t="s">
@@ -9038,7 +9038,7 @@
       <c r="I20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K20" s="16" t="s">
@@ -9093,7 +9093,7 @@
       <c r="I21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K21" s="16" t="s">
@@ -9148,7 +9148,7 @@
       <c r="I22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K22" s="16" t="s">
@@ -9203,7 +9203,7 @@
       <c r="I23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K23" s="16" t="s">
@@ -9258,7 +9258,7 @@
       <c r="I24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K24" s="16" t="s">
@@ -9313,7 +9313,7 @@
       <c r="I25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K25" s="16" t="s">
@@ -9368,7 +9368,7 @@
       <c r="I26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K26" s="16" t="s">
@@ -9423,7 +9423,7 @@
       <c r="I27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K27" s="16" t="s">
@@ -9478,7 +9478,7 @@
       <c r="I28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K28" s="16" t="s">
@@ -9533,7 +9533,7 @@
       <c r="I29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K29" s="16" t="s">
@@ -9588,7 +9588,7 @@
       <c r="I30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K30" s="16" t="s">
@@ -9643,7 +9643,7 @@
       <c r="I31" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="16" t="s">
+      <c r="J31" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K31" s="16" t="s">
@@ -9698,7 +9698,7 @@
       <c r="I32" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K32" s="16" t="s">
@@ -9753,7 +9753,7 @@
       <c r="I33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="16" t="s">
+      <c r="J33" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K33" s="16" t="s">
@@ -9808,7 +9808,7 @@
       <c r="I34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="16" t="s">
+      <c r="J34" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K34" s="16" t="s">
@@ -9863,7 +9863,7 @@
       <c r="I35" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K35" s="16" t="s">
@@ -9918,7 +9918,7 @@
       <c r="I36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K36" s="16" t="s">
